--- a/s60_signal/position-00525-601333.xlsx
+++ b/s60_signal/position-00525-601333.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="407">
   <si>
     <t>trade_time</t>
   </si>
@@ -280,6 +280,9 @@
     <t>2021-04-15</t>
   </si>
   <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
     <t>2021-06-11</t>
   </si>
   <si>
@@ -673,9 +676,15 @@
     <t>2021-04-28</t>
   </si>
   <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
     <t>2021-06-21</t>
   </si>
   <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
     <t>2016-02-15</t>
   </si>
   <si>
@@ -1205,6 +1214,21 @@
   </si>
   <si>
     <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
   </si>
   <si>
     <t>2021-06-03</t>
@@ -1568,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P394"/>
+  <dimension ref="A1:P400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1632,7 +1656,7 @@
         <v>-2.893306578447853</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>-3.641148109984271</v>
@@ -1668,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1682,7 +1706,7 @@
         <v>-2.596395683063071</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>-3.641148109984271</v>
@@ -1718,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1768,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1818,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1832,7 +1856,7 @@
         <v>-2.854846432353775</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>-3.697130498869741</v>
@@ -1868,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1882,7 +1906,7 @@
         <v>-2.62076620166601</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>-3.697130498869741</v>
@@ -1918,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1932,7 +1956,7 @@
         <v>-4.485186158734111</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>-4.489266389421874</v>
@@ -1968,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1982,7 +2006,7 @@
         <v>-4.51518615873411</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>-4.489266389421874</v>
@@ -2018,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2032,7 +2056,7 @@
         <v>-4.713642972037302</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>-4.489266389421874</v>
@@ -2068,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2082,7 +2106,7 @@
         <v>-4.634340477403791</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>-4.489266389421874</v>
@@ -2118,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2132,7 +2156,7 @@
         <v>-3.266622461213251</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>-4.701411851904431</v>
@@ -2168,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2182,7 +2206,7 @@
         <v>-3.041411252685536</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13">
         <v>-4.701411851904431</v>
@@ -2218,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2232,7 +2256,7 @@
         <v>-5.103665541825247</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <v>-4.720848429424226</v>
@@ -2268,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2282,7 +2306,7 @@
         <v>-5.25845433329753</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <v>-4.720848429424226</v>
@@ -2318,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2332,7 +2356,7 @@
         <v>-5.165214803841085</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>-4.720848429424226</v>
@@ -2368,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2382,7 +2406,7 @@
         <v>-3.423632276024851</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17">
         <v>-4.896104022270815</v>
@@ -2418,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2432,7 +2456,7 @@
         <v>-3.201802817354617</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>-4.896104022270815</v>
@@ -2468,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2482,7 +2506,7 @@
         <v>-5.46619039597134</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19">
         <v>-5.17427456360058</v>
@@ -2518,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2532,7 +2556,7 @@
         <v>-5.367636688167424</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>-5.17427456360058</v>
@@ -2568,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2582,7 +2606,7 @@
         <v>-3.515182964200185</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>-5.009626875608229</v>
@@ -2618,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2632,7 +2656,7 @@
         <v>-3.295325366506034</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>-5.009626875608229</v>
@@ -2668,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2682,7 +2706,7 @@
         <v>-5.587318998787936</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <v>-5.093871903520842</v>
@@ -2718,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2732,7 +2756,7 @@
         <v>-5.485666652307316</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>-5.093871903520842</v>
@@ -2768,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2782,7 +2806,7 @@
         <v>-3.383806326393561</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <v>-5.117029968483751</v>
@@ -2818,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2832,7 +2856,7 @@
         <v>-5.701917832377204</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>-5.42733388782802</v>
@@ -2868,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2882,7 +2906,7 @@
         <v>-5.59733388782802</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27">
         <v>-5.42733388782802</v>
@@ -2918,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2932,7 +2956,7 @@
         <v>-3.452316380679396</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28">
         <v>-5.200191269318666</v>
@@ -2968,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2982,7 +3006,7 @@
         <v>-5.790650734012472</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <v>-5.56384792965875</v>
@@ -3018,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3032,7 +3056,7 @@
         <v>-5.683796878026108</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E30">
         <v>-5.56384792965875</v>
@@ -3068,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3082,7 +3106,7 @@
         <v>-3.62044684029153</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31">
         <v>-5.140154081961497</v>
@@ -3118,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3132,7 +3156,7 @@
         <v>-3.402856464543962</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E32">
         <v>-5.140154081961497</v>
@@ -3168,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3182,7 +3206,7 @@
         <v>-5.726591204078023</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <v>-5.278966456000339</v>
@@ -3218,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3232,7 +3256,7 @@
         <v>-3.561370374839291</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E34">
         <v>-5.066899264800722</v>
@@ -3268,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3282,7 +3306,7 @@
         <v>-3.342507582912753</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <v>-5.066899264800722</v>
@@ -3318,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3332,7 +3356,7 @@
         <v>-5.648428495941216</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <v>-5.339173680947644</v>
@@ -3368,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3382,7 +3406,7 @@
         <v>-3.48867163055963</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E37">
         <v>-4.976752821893942</v>
@@ -3418,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3432,7 +3456,7 @@
         <v>-3.26824301952553</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E38">
         <v>-4.976752821893942</v>
@@ -3468,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3482,7 +3506,7 @@
         <v>-5.552242465048126</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39">
         <v>-5.332242465048126</v>
@@ -3518,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3532,7 +3556,7 @@
         <v>-3.39280132450331</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E40">
         <v>-4.857873642384104</v>
@@ -3568,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3582,7 +3606,7 @@
         <v>-3.170307814569535</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41">
         <v>-4.857873642384104</v>
@@ -3618,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3632,7 +3656,7 @@
         <v>-5.425398675496686</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42">
         <v>-5.212897748344369</v>
@@ -3668,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3682,7 +3706,7 @@
         <v>3.896409547559524</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E43">
         <v>3.637557788757765</v>
@@ -3718,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3732,7 +3756,7 @@
         <v>3.686370782301712</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E44">
         <v>3.637557788757765</v>
@@ -3768,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3782,7 +3806,7 @@
         <v>3.999857615280466</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E45">
         <v>3.696125600943092</v>
@@ -3818,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3832,7 +3856,7 @@
         <v>3.791532275574967</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46">
         <v>3.696125600943092</v>
@@ -3868,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3882,7 +3906,7 @@
         <v>4.016648312008632</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47">
         <v>3.562106983197164</v>
@@ -3918,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3932,7 +3956,7 @@
         <v>3.808601079081239</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E48">
         <v>3.562106983197164</v>
@@ -3968,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3982,7 +4006,7 @@
         <v>3.921540730472905</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49">
         <v>3.447106959801425</v>
@@ -4018,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4032,7 +4056,7 @@
         <v>3.777106959801425</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E50">
         <v>3.447106959801425</v>
@@ -4068,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4082,7 +4106,7 @@
         <v>3.355765574180636</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51">
         <v>2.97063976553844</v>
@@ -4118,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4132,7 +4156,7 @@
         <v>3.197275277886988</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52">
         <v>2.97063976553844</v>
@@ -4168,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4182,7 +4206,7 @@
         <v>2.908811773838419</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E53">
         <v>2.574206073921443</v>
@@ -4218,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4232,7 +4256,7 @@
         <v>2.739217035300243</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54">
         <v>2.574206073921443</v>
@@ -4268,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4282,7 +4306,7 @@
         <v>2.722206373258291</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55">
         <v>2.392623178946991</v>
@@ -4318,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4332,7 +4356,7 @@
         <v>2.547975475699491</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E56">
         <v>2.392623178946991</v>
@@ -4368,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4382,7 +4406,7 @@
         <v>2.662325508545921</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E57">
         <v>2.257085968244024</v>
@@ -4418,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4432,7 +4456,7 @@
         <v>2.48660688764023</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E58">
         <v>2.257085968244024</v>
@@ -4468,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4482,7 +4506,7 @@
         <v>2.572063968281066</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E59">
         <v>2.268115776754144</v>
@@ -4518,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4532,7 +4556,7 @@
         <v>2.444102824635875</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E60">
         <v>2.268115776754144</v>
@@ -4568,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4582,7 +4606,7 @@
         <v>2.542389919676129</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61">
         <v>2.130900537967008</v>
@@ -4618,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4632,7 +4656,7 @@
         <v>2.413691532587338</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E62">
         <v>2.130900537967008</v>
@@ -4668,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4682,7 +4706,7 @@
         <v>2.556171463010396</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E63">
         <v>2.23740447163792</v>
@@ -4718,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4732,7 +4756,7 @@
         <v>2.42781547451376</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E64">
         <v>2.23740447163792</v>
@@ -4768,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4782,7 +4806,7 @@
         <v>2.603222072464918</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E65">
         <v>2.216035043209388</v>
@@ -4818,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4832,7 +4856,7 @@
         <v>2.476035043209388</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E66">
         <v>2.216035043209388</v>
@@ -4868,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4882,7 +4906,7 @@
         <v>2.630154654909835</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E67">
         <v>2.308272197921324</v>
@@ -4918,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4932,7 +4956,7 @@
         <v>2.503636758137409</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E68">
         <v>2.308272197921324</v>
@@ -4968,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4982,7 +5006,7 @@
         <v>2.66030827488601</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E69">
         <v>2.383994213343331</v>
@@ -5018,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5032,7 +5056,7 @@
         <v>2.534539536373861</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E70">
         <v>2.383994213343331</v>
@@ -5068,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5082,7 +5106,7 @@
         <v>2.666210421069824</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E71">
         <v>2.341003053956531</v>
@@ -5118,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5132,7 +5156,7 @@
         <v>2.695754551182147</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E72">
         <v>2.348235898796299</v>
@@ -5168,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5182,7 +5206,7 @@
         <v>2.688387107470901</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E73">
         <v>2.327107470902277</v>
@@ -5218,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5232,7 +5256,7 @@
         <v>2.705527881761642</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E74">
         <v>2.280646125088861</v>
@@ -5268,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5282,7 +5306,7 @@
         <v>2.704460392769203</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E75">
         <v>2.302015094188537</v>
@@ -5318,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5332,7 +5356,7 @@
         <v>2.691670022178227</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E76">
         <v>2.347919152567092</v>
@@ -5368,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5382,7 +5406,7 @@
         <v>2.574738018548341</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E77">
         <v>2.148773116010439</v>
@@ -5418,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5432,7 +5456,7 @@
         <v>2.466405959031657</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E78">
         <v>2.012974927806115</v>
@@ -5468,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5482,7 +5506,7 @@
         <v>2.470469575425553</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E79">
         <v>2.060469575425552</v>
@@ -5518,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5532,7 +5556,7 @@
         <v>2.334498089130185</v>
       </c>
       <c r="D80" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E80">
         <v>1.907509472337494</v>
@@ -5568,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5582,7 +5606,7 @@
         <v>2.408213021180041</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E81">
         <v>1.98668904020824</v>
@@ -5618,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5632,7 +5656,7 @@
         <v>2.636918489431684</v>
       </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E82">
         <v>2.261468539033603</v>
@@ -5668,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5682,7 +5706,7 @@
         <v>2.846696727407958</v>
       </c>
       <c r="D83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E83">
         <v>2.508912235031609</v>
@@ -5718,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5732,7 +5756,7 @@
         <v>2.895704330159931</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E84">
         <v>2.586570834612932</v>
@@ -5768,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5782,7 +5806,7 @@
         <v>2.722943884604967</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E85">
         <v>2.299653216265908</v>
@@ -5818,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5832,7 +5856,7 @@
         <v>3.129386015914413</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E86">
         <v>2.61595715496026</v>
@@ -5868,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5882,7 +5906,7 @@
         <v>3.221443332486905</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87">
         <v>2.61595715496026</v>
@@ -5918,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5932,7 +5956,7 @@
         <v>3.148767058664957</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E88">
         <v>2.543317383832596</v>
@@ -5968,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5982,7 +6006,7 @@
         <v>3.240583616942411</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E89">
         <v>2.543317383832596</v>
@@ -6018,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6032,7 +6056,7 @@
         <v>2.818890215375663</v>
       </c>
       <c r="D90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E90">
         <v>2.265161259044684</v>
@@ -6068,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6082,7 +6106,7 @@
         <v>2.720096541548477</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91">
         <v>2.290570133597897</v>
@@ -6118,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6132,7 +6156,7 @@
         <v>2.660713894763869</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E92">
         <v>2.195461007763983</v>
@@ -6168,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6182,7 +6206,7 @@
         <v>2.662179072315689</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E93">
         <v>2.350628131035313</v>
@@ -6232,7 +6256,7 @@
         <v>2.50859182943727</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E94">
         <v>1.879284692646113</v>
@@ -6268,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6282,7 +6306,7 @@
         <v>1.429538633940146</v>
       </c>
       <c r="D95" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E95">
         <v>1.878152907522461</v>
@@ -6318,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6332,7 +6356,7 @@
         <v>1.456166808206322</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E96">
         <v>1.878152907522461</v>
@@ -6368,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6382,7 +6406,7 @@
         <v>1.449885065544568</v>
       </c>
       <c r="D97" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E97">
         <v>1.878152907522461</v>
@@ -6418,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6432,7 +6456,7 @@
         <v>2.698459413109759</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E98">
         <v>2.076228086890248</v>
@@ -6468,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6482,7 +6506,7 @@
         <v>1.59503398119919</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E99">
         <v>2.078321265243905</v>
@@ -6518,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6532,7 +6556,7 @@
         <v>1.621269054878052</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E100">
         <v>2.078321265243905</v>
@@ -6568,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6582,7 +6606,7 @@
         <v>1.618918318089434</v>
       </c>
       <c r="D101" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E101">
         <v>2.078321265243905</v>
@@ -6618,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6632,7 +6656,7 @@
         <v>2.723511029411768</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E102">
         <v>2.102213303799785</v>
@@ -6668,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6682,7 +6706,7 @@
         <v>1.616869862075268</v>
       </c>
       <c r="D103" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E103">
         <v>2.092366071428574</v>
@@ -6718,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6732,7 +6756,7 @@
         <v>1.643053069053712</v>
       </c>
       <c r="D104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E104">
         <v>2.092366071428574</v>
@@ -6768,7 +6792,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6782,7 +6806,7 @@
         <v>1.641220999269276</v>
       </c>
       <c r="D105" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E105">
         <v>2.092366071428574</v>
@@ -6818,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6832,7 +6856,7 @@
         <v>2.964772546531684</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E106">
         <v>2.352465933358952</v>
@@ -6868,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6882,7 +6906,7 @@
         <v>3.058874750922595</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E107">
         <v>2.352465933358952</v>
@@ -6918,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6932,7 +6956,7 @@
         <v>1.827161991904428</v>
       </c>
       <c r="D108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E108">
         <v>2.316305612395345</v>
@@ -6968,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6982,7 +7006,7 @@
         <v>1.852845692636247</v>
       </c>
       <c r="D109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E109">
         <v>2.316305612395345</v>
@@ -7018,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7032,7 +7056,7 @@
         <v>1.856008685318062</v>
       </c>
       <c r="D110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E110">
         <v>2.316305612395345</v>
@@ -7068,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7082,7 +7106,7 @@
         <v>2.202638839481067</v>
       </c>
       <c r="D111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E111">
         <v>1.660853987552378</v>
@@ -7118,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7132,7 +7156,7 @@
         <v>1.162859112673973</v>
       </c>
       <c r="D112" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E112">
         <v>1.706062187746931</v>
@@ -7168,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7182,7 +7206,7 @@
         <v>1.190120729983537</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E113">
         <v>1.706062187746931</v>
@@ -7218,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7232,7 +7256,7 @@
         <v>1.177504556887906</v>
       </c>
       <c r="D114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E114">
         <v>1.706062187746931</v>
@@ -7268,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7282,7 +7306,7 @@
         <v>1.416777838279337</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E115">
         <v>0.8890067354016997</v>
@@ -7318,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7332,7 +7356,7 @@
         <v>0.4778746789142878</v>
       </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E116">
         <v>0.9778684643520892</v>
@@ -7368,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7382,7 +7406,7 @@
         <v>0.5356519963541242</v>
       </c>
       <c r="D117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E117">
         <v>0.9778684643520892</v>
@@ -7418,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7432,7 +7456,7 @@
         <v>0.5067633376342062</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118">
         <v>0.9778684643520892</v>
@@ -7468,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7482,7 +7506,7 @@
         <v>0.477876750435021</v>
       </c>
       <c r="D119" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E119">
         <v>0.9778684643520892</v>
@@ -7518,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7532,7 +7556,7 @@
         <v>0.943733873523156</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E120">
         <v>0.3875605450183359</v>
@@ -7568,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7582,7 +7606,7 @@
         <v>0.06555271377484218</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E121">
         <v>0.5227816757955743</v>
@@ -7618,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7632,7 +7656,7 @@
         <v>0.09542075958535357</v>
       </c>
       <c r="D122" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E122">
         <v>0.5227816757955743</v>
@@ -7668,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7682,7 +7706,7 @@
         <v>0.05674030148024301</v>
       </c>
       <c r="D123" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E123">
         <v>0.5227816757955743</v>
@@ -7718,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7732,7 +7756,7 @@
         <v>0.5054107307431819</v>
       </c>
       <c r="D124" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E124">
         <v>0.0491242407754946</v>
@@ -7768,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7782,7 +7806,7 @@
         <v>-0.3165053464950738</v>
       </c>
       <c r="D125" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E125">
         <v>0.159781143472614</v>
@@ -7818,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7832,7 +7856,7 @@
         <v>-0.33348527076694</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E126">
         <v>0.159781143472614</v>
@@ -7868,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7882,7 +7906,7 @@
         <v>0.01013524264121379</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E127">
         <v>-0.4676849642004726</v>
@@ -7918,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7932,7 +7956,7 @@
         <v>-0.7744137591392919</v>
       </c>
       <c r="D128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E128">
         <v>-0.3747925900670488</v>
@@ -7968,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7982,7 +8006,7 @@
         <v>-0.2557695520702179</v>
       </c>
       <c r="D129" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E129">
         <v>-0.8235135484933682</v>
@@ -8018,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8032,7 +8056,7 @@
         <v>-0.2776909319810326</v>
       </c>
       <c r="D130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E130">
         <v>-0.2477467025920381</v>
@@ -8068,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8082,7 +8106,7 @@
         <v>-0.3908011343092124</v>
       </c>
       <c r="D131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E131">
         <v>-0.8406732630037332</v>
@@ -8118,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8132,7 +8156,7 @@
         <v>-0.3888256670434034</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E132">
         <v>-0.2128000927823077</v>
@@ -8168,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8182,7 +8206,7 @@
         <v>1.099323115887907</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E133">
         <v>0.387889534694934</v>
@@ -8218,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8232,7 +8256,7 @@
         <v>1.083343993906462</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E134">
         <v>0.3268838700002261</v>
@@ -8268,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8282,7 +8306,7 @@
         <v>1.145349122599034</v>
       </c>
       <c r="D135" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E135">
         <v>0.3619408673861413</v>
@@ -8318,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8332,7 +8356,7 @@
         <v>1.076892851489177</v>
       </c>
       <c r="D136" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E136">
         <v>0.2887690811642036</v>
@@ -8368,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8382,7 +8406,7 @@
         <v>0.9728953765433594</v>
       </c>
       <c r="D137" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E137">
         <v>0.2054001299670292</v>
@@ -8418,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8432,7 +8456,7 @@
         <v>0.8720431896132981</v>
       </c>
       <c r="D138" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E138">
         <v>0.09424712584458561</v>
@@ -8468,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8482,7 +8506,7 @@
         <v>0.8315744964187708</v>
       </c>
       <c r="D139" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E139">
         <v>0.04964505068482161</v>
@@ -8518,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8532,7 +8556,7 @@
         <v>0.7304738922292362</v>
       </c>
       <c r="D140" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E140">
         <v>-0.06178174348131638</v>
@@ -8568,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8582,7 +8606,7 @@
         <v>0.7222547015649674</v>
       </c>
       <c r="D141" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E141">
         <v>-0.07084042392839685</v>
@@ -8618,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8632,7 +8656,7 @@
         <v>4.23617325128652</v>
       </c>
       <c r="D142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E142">
         <v>3.461981920657827</v>
@@ -8668,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8682,7 +8706,7 @@
         <v>4.2899280718093</v>
       </c>
       <c r="D143" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E143">
         <v>3.521227138526164</v>
@@ -8718,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8732,7 +8756,7 @@
         <v>4.456463450453921</v>
       </c>
       <c r="D144" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E144">
         <v>3.704772068908834</v>
@@ -8768,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8782,7 +8806,7 @@
         <v>4.839214417852447</v>
       </c>
       <c r="D145" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E145">
         <v>4.126616365519087</v>
@@ -8818,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8832,7 +8856,7 @@
         <v>5.014744472529706</v>
       </c>
       <c r="D146" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E146">
         <v>4.245160231267613</v>
@@ -8868,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8882,7 +8906,7 @@
         <v>5.000093781157554</v>
       </c>
       <c r="D147" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E147">
         <v>4.229152349958373</v>
@@ -8918,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8932,7 +8956,7 @@
         <v>4.826926790424525</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E148">
         <v>4.113073707261234</v>
@@ -8968,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8982,7 +9006,7 @@
         <v>4.400270331049441</v>
       </c>
       <c r="D149" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E149">
         <v>3.642839509755204</v>
@@ -9018,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9032,7 +9056,7 @@
         <v>3.969466864791235</v>
       </c>
       <c r="D150" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E150">
         <v>3.168034739342359</v>
@@ -9068,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9082,7 +9106,7 @@
         <v>3.815400534424922</v>
       </c>
       <c r="D151" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E151">
         <v>2.998232417988513</v>
@@ -9118,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9132,7 +9156,7 @@
         <v>3.847902386344885</v>
       </c>
       <c r="D152" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E152">
         <v>3.034053936494125</v>
@@ -9168,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9182,7 +9206,7 @@
         <v>3.739610425856585</v>
       </c>
       <c r="D153" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E153">
         <v>2.914701276953577</v>
@@ -9218,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9232,7 +9256,7 @@
         <v>3.764729296087544</v>
       </c>
       <c r="D154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E154">
         <v>2.942385732505037</v>
@@ -9268,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9282,7 +9306,7 @@
         <v>3.718711008498303</v>
       </c>
       <c r="D155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E155">
         <v>2.891667239770102</v>
@@ -9318,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9332,7 +9356,7 @@
         <v>1.436486720612095</v>
       </c>
       <c r="D156" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E156">
         <v>0.6731330742884634</v>
@@ -9368,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9382,7 +9406,7 @@
         <v>1.244726820412753</v>
       </c>
       <c r="D157" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E157">
         <v>0.5049958305736757</v>
@@ -9418,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9432,7 +9456,7 @@
         <v>5.702914875007628</v>
       </c>
       <c r="D158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E158">
         <v>4.999995484409007</v>
@@ -9468,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9482,7 +9506,7 @@
         <v>4.505339340560991</v>
       </c>
       <c r="D159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E159">
         <v>4.49533934056099</v>
@@ -9518,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9532,7 +9556,7 @@
         <v>4.306808901002787</v>
       </c>
       <c r="D160" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E160">
         <v>4.49533934056099</v>
@@ -9568,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9582,7 +9606,7 @@
         <v>6.509809176848197</v>
       </c>
       <c r="D161" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E161">
         <v>5.75883309709841</v>
@@ -9618,7 +9642,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9632,7 +9656,7 @@
         <v>5.149505019504025</v>
       </c>
       <c r="D162" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E162">
         <v>5.616961120807806</v>
@@ -9668,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9682,7 +9706,7 @@
         <v>-4.927818287598177</v>
       </c>
       <c r="D163" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E163">
         <v>-3.423739939881703</v>
@@ -9718,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9732,7 +9756,7 @@
         <v>-5.351739552021721</v>
       </c>
       <c r="D164" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E164">
         <v>-3.743311354600991</v>
@@ -9768,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9782,7 +9806,7 @@
         <v>-5.566679746992302</v>
       </c>
       <c r="D165" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E165">
         <v>-4.132985698695919</v>
@@ -9818,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9832,7 +9856,7 @@
         <v>-5.696609439803341</v>
       </c>
       <c r="D166" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E166">
         <v>-4.233476466219281</v>
@@ -9868,7 +9892,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9882,7 +9906,7 @@
         <v>-5.75040807221059</v>
       </c>
       <c r="D167" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E167">
         <v>-4.275085629955039</v>
@@ -9918,7 +9942,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9932,7 +9956,7 @@
         <v>-5.591968923585961</v>
       </c>
       <c r="D168" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E168">
         <v>-4.152544959638887</v>
@@ -9968,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9982,7 +10006,7 @@
         <v>-5.362490385040697</v>
       </c>
       <c r="D169" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E169">
         <v>-3.975060706658394</v>
@@ -10018,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10032,7 +10056,7 @@
         <v>-2.507111743839585</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E170">
         <v>-4.047254516344427</v>
@@ -10068,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10082,7 +10106,7 @@
         <v>-5.134126961939156</v>
       </c>
       <c r="D171" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E171">
         <v>-3.79843891093761</v>
@@ -10118,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10132,7 +10156,7 @@
         <v>-4.963804430565657</v>
       </c>
       <c r="D172" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E172">
         <v>-3.666707344934939</v>
@@ -10182,7 +10206,7 @@
         <v>-5.024291625916282</v>
       </c>
       <c r="D173" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E173">
         <v>-3.713489605052797</v>
@@ -10218,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10232,7 +10256,7 @@
         <v>-4.810647567313472</v>
       </c>
       <c r="D174" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E174">
         <v>-3.548252121908546</v>
@@ -10268,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10282,7 +10306,7 @@
         <v>-4.527367099438266</v>
       </c>
       <c r="D175" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E175">
         <v>-3.286247287427305</v>
@@ -10318,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10332,7 +10356,7 @@
         <v>1.259915097541094</v>
       </c>
       <c r="D176" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E176">
         <v>1.158519820616992</v>
@@ -10368,7 +10392,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10382,7 +10406,7 @@
         <v>1.184916726583275</v>
       </c>
       <c r="D177" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E177">
         <v>1.172691348768068</v>
@@ -10418,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10432,7 +10456,7 @@
         <v>1.049813709099592</v>
       </c>
       <c r="D178" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E178">
         <v>1.000464874270701</v>
@@ -10468,7 +10492,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10482,7 +10506,7 @@
         <v>0.7166882287391596</v>
       </c>
       <c r="D179" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E179">
         <v>0.3824058924251874</v>
@@ -10518,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10532,7 +10556,7 @@
         <v>0.7157220123393015</v>
       </c>
       <c r="D180" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E180">
         <v>0.3824058924251874</v>
@@ -10568,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10582,7 +10606,7 @@
         <v>0.7157220123393015</v>
       </c>
       <c r="D181" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E181">
         <v>0.3824058924251874</v>
@@ -10618,7 +10642,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10632,7 +10656,7 @@
         <v>0.4186991258332231</v>
       </c>
       <c r="D182" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E182">
         <v>0.0213012212570054</v>
@@ -10668,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10682,7 +10706,7 @@
         <v>0.4186991258332231</v>
       </c>
       <c r="D183" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E183">
         <v>0.0213012212570054</v>
@@ -10718,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10768,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10818,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10868,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10918,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10932,7 +10956,7 @@
         <v>1.268624677776261</v>
       </c>
       <c r="D188" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E188">
         <v>1.582625511992627</v>
@@ -10968,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10982,7 +11006,7 @@
         <v>1.285793821195491</v>
       </c>
       <c r="D189" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E189">
         <v>1.559453546602203</v>
@@ -11018,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11032,7 +11056,7 @@
         <v>1.316780702717756</v>
       </c>
       <c r="D190" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E190">
         <v>1.547361538049228</v>
@@ -11068,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11082,7 +11106,7 @@
         <v>1.133068166503446</v>
       </c>
       <c r="D191" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E191">
         <v>1.401993513086136</v>
@@ -11118,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11132,7 +11156,7 @@
         <v>1.088256848758593</v>
       </c>
       <c r="D192" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E192">
         <v>1.434633300285655</v>
@@ -11168,7 +11192,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11182,7 +11206,7 @@
         <v>1.813623858427708</v>
       </c>
       <c r="D193" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E193">
         <v>1.425858209046284</v>
@@ -11218,7 +11242,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11232,7 +11256,7 @@
         <v>1.056087101886501</v>
       </c>
       <c r="D194" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E194">
         <v>1.475198819417429</v>
@@ -11268,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11282,7 +11306,7 @@
         <v>1.831484324717041</v>
       </c>
       <c r="D195" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E195">
         <v>1.441005693114453</v>
@@ -11318,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11332,7 +11356,7 @@
         <v>1.069742445733029</v>
       </c>
       <c r="D196" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E196">
         <v>1.488718514152899</v>
@@ -11368,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11382,7 +11406,7 @@
         <v>1.837661043092234</v>
       </c>
       <c r="D197" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E197">
         <v>1.446244175787084</v>
@@ -11418,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11432,7 +11456,7 @@
         <v>1.074464898769252</v>
       </c>
       <c r="D198" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E198">
         <v>1.493394055403994</v>
@@ -11468,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11482,7 +11506,7 @@
         <v>1.837752806536338</v>
       </c>
       <c r="D199" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E199">
         <v>1.446322000480185</v>
@@ -11518,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11532,7 +11556,7 @@
         <v>1.074535057149301</v>
       </c>
       <c r="D200" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E200">
         <v>1.493463516846493</v>
@@ -11568,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11582,7 +11606,7 @@
         <v>1.825402047539555</v>
       </c>
       <c r="D201" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E201">
         <v>1.435847306141142</v>
@@ -11618,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11632,7 +11656,7 @@
         <v>1.065092198372015</v>
       </c>
       <c r="D202" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E202">
         <v>1.484114461302094</v>
@@ -11668,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11682,7 +11706,7 @@
         <v>1.861617863704522</v>
       </c>
       <c r="D203" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E203">
         <v>1.466561985673455</v>
@@ -11718,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11732,7 +11756,7 @@
         <v>1.092781252756369</v>
       </c>
       <c r="D204" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E204">
         <v>1.511528458854815</v>
@@ -11768,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11782,7 +11806,7 @@
         <v>1.876754966932714</v>
       </c>
       <c r="D205" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E205">
         <v>1.479399782082176</v>
@@ -11818,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11832,7 +11856,7 @@
         <v>1.104354430414379</v>
       </c>
       <c r="D206" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E206">
         <v>1.522986671171852</v>
@@ -11868,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11882,7 +11906,7 @@
         <v>1.85316775720275</v>
       </c>
       <c r="D207" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E207">
         <v>1.459395439652966</v>
@@ -11918,7 +11942,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11932,7 +11956,7 @@
         <v>1.086320665000584</v>
       </c>
       <c r="D208" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E208">
         <v>1.505132049123094</v>
@@ -11968,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11982,7 +12006,7 @@
         <v>1.779730028029443</v>
       </c>
       <c r="D209" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E209">
         <v>1.397112808581932</v>
@@ -12018,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12032,7 +12056,7 @@
         <v>1.030173337885802</v>
       </c>
       <c r="D210" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E210">
         <v>1.449542476913426</v>
@@ -12068,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12082,7 +12106,7 @@
         <v>1.658318925527395</v>
       </c>
       <c r="D211" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E211">
         <v>1.294143898865006</v>
@@ -12118,7 +12142,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12132,7 +12156,7 @@
         <v>0.9373476342006919</v>
       </c>
       <c r="D212" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E212">
         <v>1.357638882867572</v>
@@ -12168,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12182,7 +12206,7 @@
         <v>1.524088846622344</v>
       </c>
       <c r="D213" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E213">
         <v>1.18030319903414</v>
@@ -12218,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12232,7 +12256,7 @@
         <v>1.516096053953746</v>
       </c>
       <c r="D214" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E214">
         <v>1.18030319903414</v>
@@ -12268,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12282,7 +12306,7 @@
         <v>0.8347210928606277</v>
       </c>
       <c r="D215" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E215">
         <v>1.188653245722397</v>
@@ -12318,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12332,7 +12356,7 @@
         <v>1.2601799162582</v>
       </c>
       <c r="D216" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E216">
         <v>0.9564817011303721</v>
@@ -12368,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12382,7 +12406,7 @@
         <v>1.266536433399546</v>
       </c>
       <c r="D217" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E217">
         <v>0.9564817011303721</v>
@@ -12418,7 +12442,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12432,7 +12456,7 @@
         <v>0.6329476828100669</v>
       </c>
       <c r="D218" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E218">
         <v>0.9595778612972841</v>
@@ -12468,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12482,7 +12506,7 @@
         <v>1.040216421991335</v>
       </c>
       <c r="D219" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E219">
         <v>0.7699303832078415</v>
@@ -12518,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12532,7 +12556,7 @@
         <v>1.041744836579313</v>
       </c>
       <c r="D220" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E220">
         <v>0.7699303832078415</v>
@@ -12568,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12582,7 +12606,7 @@
         <v>1.074973289025366</v>
       </c>
       <c r="D221" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E221">
         <v>0.7699303832078415</v>
@@ -12618,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12632,7 +12656,7 @@
         <v>0.4647730618769197</v>
       </c>
       <c r="D222" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E222">
         <v>0.7947444579985703</v>
@@ -12668,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12682,7 +12706,7 @@
         <v>0.9454421251514917</v>
       </c>
       <c r="D223" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E223">
         <v>0.681784458813524</v>
@@ -12718,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12732,7 +12756,7 @@
         <v>0.9844592651697082</v>
       </c>
       <c r="D224" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E224">
         <v>0.681784458813524</v>
@@ -12768,7 +12792,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12782,7 +12806,7 @@
         <v>0.3853101688408485</v>
       </c>
       <c r="D225" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E225">
         <v>0.6868602979367258</v>
@@ -12818,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12832,7 +12856,7 @@
         <v>0.9549493355627496</v>
       </c>
       <c r="D226" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E226">
         <v>0.6904864136981455</v>
@@ -12868,7 +12892,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12882,7 +12906,7 @@
         <v>0.9933950039169015</v>
       </c>
       <c r="D227" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E227">
         <v>0.6904864136981455</v>
@@ -12918,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12932,7 +12956,7 @@
         <v>0.3931549162293728</v>
       </c>
       <c r="D228" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E228">
         <v>0.6988520528231206</v>
@@ -12968,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12982,7 +13006,7 @@
         <v>0.8352295499502258</v>
       </c>
       <c r="D229" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E229">
         <v>0.5364590093992025</v>
@@ -13018,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13032,7 +13056,7 @@
         <v>0.2543003607121168</v>
       </c>
       <c r="D230" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E230">
         <v>0.5584533336781012</v>
@@ -13068,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13082,7 +13106,7 @@
         <v>0.7309868197475642</v>
       </c>
       <c r="D231" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E231">
         <v>0.4349435599285871</v>
@@ -13118,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13132,7 +13156,7 @@
         <v>0.1627849405923385</v>
       </c>
       <c r="D232" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E232">
         <v>0.4687561007130205</v>
@@ -13168,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13182,7 +13206,7 @@
         <v>0.6963364946308443</v>
       </c>
       <c r="D233" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E233">
         <v>0.4011997840155024</v>
@@ -13218,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13232,7 +13256,7 @@
         <v>0.1323651784259154</v>
       </c>
       <c r="D234" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E234">
         <v>0.4389407046823544</v>
@@ -13268,7 +13292,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13282,7 +13306,7 @@
         <v>0.6265973619781331</v>
       </c>
       <c r="D235" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E235">
         <v>0.3332852216938216</v>
@@ -13318,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13332,7 +13356,7 @@
         <v>0.07114070731801236</v>
       </c>
       <c r="D236" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E236">
         <v>0.3789326137951377</v>
@@ -13368,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13382,7 +13406,7 @@
         <v>0.5557568490496352</v>
       </c>
       <c r="D237" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E237">
         <v>0.3201663194080338</v>
@@ -13418,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13432,7 +13456,7 @@
         <v>0.5557568490496352</v>
       </c>
       <c r="D238" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E238">
         <v>0.3201663194080338</v>
@@ -13468,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13482,7 +13506,7 @@
         <v>0.05931411480963034</v>
       </c>
       <c r="D239" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E239">
         <v>0.3673409867008299</v>
@@ -13518,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13532,7 +13556,7 @@
         <v>0.621266404836974</v>
       </c>
       <c r="D240" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E240">
         <v>0.385066244864444</v>
@@ -13568,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13582,7 +13606,7 @@
         <v>0.6239502035590574</v>
       </c>
       <c r="D241" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E241">
         <v>0.385066244864444</v>
@@ -13618,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13632,7 +13656,7 @@
         <v>0.6239502035590574</v>
       </c>
       <c r="D242" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E242">
         <v>0.385066244864444</v>
@@ -13668,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13682,7 +13706,7 @@
         <v>0.1788660848919132</v>
       </c>
       <c r="D243" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E243">
         <v>0.4246853984473891</v>
@@ -13718,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13732,7 +13756,7 @@
         <v>0.6324090002289315</v>
       </c>
       <c r="D244" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E244">
         <v>0.3952650685155521</v>
@@ -13768,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13782,7 +13806,7 @@
         <v>0.6346665794551472</v>
       </c>
       <c r="D245" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E245">
         <v>0.3952650685155521</v>
@@ -13818,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13832,7 +13856,7 @@
         <v>0.6346665794551472</v>
       </c>
       <c r="D246" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E246">
         <v>0.3952650685155521</v>
@@ -13868,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13882,7 +13906,7 @@
         <v>0.1881211368021729</v>
       </c>
       <c r="D247" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E247">
         <v>0.4336968963600101</v>
@@ -13918,7 +13942,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13932,7 +13956,7 @@
         <v>0.6829592558982664</v>
       </c>
       <c r="D248" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E248">
         <v>0.441533745152785</v>
@@ -13968,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13982,7 +14006,7 @@
         <v>0.6832832187874041</v>
       </c>
       <c r="D249" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E249">
         <v>0.441533745152785</v>
@@ -14018,7 +14042,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14032,7 +14056,7 @@
         <v>0.6832832187874041</v>
       </c>
       <c r="D250" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E250">
         <v>0.441533745152785</v>
@@ -14068,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14082,7 +14106,7 @@
         <v>0.2301082344073033</v>
       </c>
       <c r="D251" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E251">
         <v>0.4745790703439532</v>
@@ -14118,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14132,7 +14156,7 @@
         <v>0.7754846695867457</v>
       </c>
       <c r="D252" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E252">
         <v>0.5262223068621856</v>
@@ -14168,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14182,7 +14206,7 @@
         <v>0.824717831524155</v>
       </c>
       <c r="D253" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E253">
         <v>0.5262223068621856</v>
@@ -14218,7 +14242,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14232,7 +14256,7 @@
         <v>0.3069599441376254</v>
       </c>
       <c r="D254" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E254">
         <v>0.5494083666603191</v>
@@ -14268,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14282,7 +14306,7 @@
         <v>0.9599629043208022</v>
       </c>
       <c r="D255" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E255">
         <v>1.134910071595908</v>
@@ -14318,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14332,7 +14356,7 @@
         <v>1.286097121996389</v>
       </c>
       <c r="D256" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E256">
         <v>1.119751573421224</v>
@@ -14368,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14382,7 +14406,7 @@
         <v>0.8954130056318945</v>
       </c>
       <c r="D257" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E257">
         <v>1.055413005631895</v>
@@ -14418,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14432,7 +14456,7 @@
         <v>1.202360441278745</v>
       </c>
       <c r="D258" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E258">
         <v>1.03217696150402</v>
@@ -14468,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14482,7 +14506,7 @@
         <v>0.7184047868704915</v>
       </c>
       <c r="D259" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E259">
         <v>0.897246951281871</v>
@@ -14518,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14532,7 +14556,7 @@
         <v>1.037880541268793</v>
       </c>
       <c r="D260" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E260">
         <v>0.8706167327436121</v>
@@ -14568,7 +14592,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14582,7 +14606,7 @@
         <v>1.344384991739593</v>
       </c>
       <c r="D261" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E261">
         <v>1.412833444305319</v>
@@ -14618,7 +14642,7 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14632,7 +14656,7 @@
         <v>1.295455729615361</v>
       </c>
       <c r="D262" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E262">
         <v>1.399053391868887</v>
@@ -14668,7 +14692,7 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14682,7 +14706,7 @@
         <v>1.247900082267936</v>
       </c>
       <c r="D263" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E263">
         <v>1.480439984508878</v>
@@ -14718,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14732,7 +14756,7 @@
         <v>1.223974537812843</v>
       </c>
       <c r="D264" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E264">
         <v>1.457637705051676</v>
@@ -14818,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14832,7 +14856,7 @@
         <v>1.0622369081479</v>
       </c>
       <c r="D266" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E266">
         <v>1.2222369081479</v>
@@ -14868,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14882,7 +14906,7 @@
         <v>1.39714237911996</v>
       </c>
       <c r="D267" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E267">
         <v>1.311393675757068</v>
@@ -14918,7 +14942,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -14932,7 +14956,7 @@
         <v>0.8656248277462677</v>
       </c>
       <c r="D268" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E268">
         <v>1.084160634764066</v>
@@ -14968,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -14982,7 +15006,7 @@
         <v>1.243914185004134</v>
       </c>
       <c r="D269" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E269">
         <v>1.193914185004133</v>
@@ -15018,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15032,7 +15056,7 @@
         <v>0.6264474161926654</v>
       </c>
       <c r="D270" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E270">
         <v>0.8573351083141707</v>
@@ -15068,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15082,7 +15106,7 @@
         <v>1.057513009802735</v>
       </c>
       <c r="D271" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E271">
         <v>0.988341401428052</v>
@@ -15118,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15132,7 +15156,7 @@
         <v>0.5508399511301141</v>
       </c>
       <c r="D272" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E272">
         <v>0.7856322541233942</v>
@@ -15168,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15182,7 +15206,7 @@
         <v>0.9985888821014035</v>
       </c>
       <c r="D273" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E273">
         <v>0.9271686010995708</v>
@@ -15218,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15232,7 +15256,7 @@
         <v>0.4053416723149885</v>
       </c>
       <c r="D274" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E274">
         <v>0.666724382278634</v>
@@ -15268,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15282,7 +15306,7 @@
         <v>0.9008725121695709</v>
       </c>
       <c r="D275" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E275">
         <v>0.8120247704726087</v>
@@ -15318,7 +15342,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15332,7 +15356,7 @@
         <v>0.2524265204263942</v>
       </c>
       <c r="D276" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E276">
         <v>0.5554941770903916</v>
@@ -15368,7 +15392,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15382,7 +15406,7 @@
         <v>0.2294545121727958</v>
       </c>
       <c r="D277" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E277">
         <v>0.5343135639758354</v>
@@ -15418,7 +15442,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15432,7 +15456,7 @@
         <v>0.2511617312072869</v>
       </c>
       <c r="D278" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E278">
         <v>0.5543280182232331</v>
@@ -15468,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15482,7 +15506,7 @@
         <v>0.330938321030898</v>
       </c>
       <c r="D279" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E279">
         <v>0.6169560865757506</v>
@@ -15518,7 +15542,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15532,7 +15556,7 @@
         <v>0.3190867008632514</v>
       </c>
       <c r="D280" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E280">
         <v>0.6169560865757506</v>
@@ -15568,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15582,7 +15606,7 @@
         <v>0.8973239084198648</v>
       </c>
       <c r="D281" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E281">
         <v>0.8673239084198645</v>
@@ -15618,7 +15642,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15632,7 +15656,7 @@
         <v>0.5047409711889603</v>
       </c>
       <c r="D282" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E282">
         <v>0.7616569728121176</v>
@@ -15668,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15682,7 +15706,7 @@
         <v>1.010348978763694</v>
       </c>
       <c r="D283" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E283">
         <v>0.9495779791694832</v>
@@ -15718,7 +15742,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15732,7 +15756,7 @@
         <v>0.7124003213085996</v>
       </c>
       <c r="D284" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E284">
         <v>0.9388491310062772</v>
@@ -15768,7 +15792,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15818,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15868,7 +15892,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -15882,7 +15906,7 @@
         <v>0.7739548177870597</v>
       </c>
       <c r="D287" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E287">
         <v>0.9972247567745822</v>
@@ -15918,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -15932,7 +15956,7 @@
         <v>1.172471829824657</v>
       </c>
       <c r="D288" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E288">
         <v>1.155095366349694</v>
@@ -15968,7 +15992,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -15982,7 +16006,7 @@
         <v>1.208783598087175</v>
       </c>
       <c r="D289" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E289">
         <v>1.155095366349694</v>
@@ -16018,7 +16042,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16032,7 +16056,7 @@
         <v>1.163574451712196</v>
       </c>
       <c r="D290" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E290">
         <v>1.155095366349694</v>
@@ -16068,7 +16092,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16082,7 +16106,7 @@
         <v>1.083287783547417</v>
       </c>
       <c r="D291" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E291">
         <v>1.266654823722328</v>
@@ -16118,7 +16142,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16168,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16218,7 +16242,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16232,7 +16256,7 @@
         <v>1.005187969924811</v>
       </c>
       <c r="D294" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E294">
         <v>1.216516290726816</v>
@@ -16268,7 +16292,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16282,7 +16306,7 @@
         <v>1.37922305764411</v>
       </c>
       <c r="D295" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E295">
         <v>1.377468671679197</v>
@@ -16318,7 +16342,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16332,7 +16356,7 @@
         <v>1.373157894736842</v>
       </c>
       <c r="D296" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E296">
         <v>1.377468671679197</v>
@@ -16368,7 +16392,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16382,7 +16406,7 @@
         <v>0.8802418207681344</v>
       </c>
       <c r="D297" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E297">
         <v>1.098022759601705</v>
@@ -16418,7 +16442,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16432,7 +16456,7 @@
         <v>1.287126600284493</v>
       </c>
       <c r="D298" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E298">
         <v>1.26116642958748</v>
@@ -16468,7 +16492,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16482,7 +16506,7 @@
         <v>1.286927453769557</v>
       </c>
       <c r="D299" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E299">
         <v>1.26116642958748</v>
@@ -16518,7 +16542,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16532,7 +16556,7 @@
         <v>0.5899232633927847</v>
       </c>
       <c r="D300" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E300">
         <v>0.8607264291791745</v>
@@ -16568,7 +16592,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16618,7 +16642,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16668,7 +16692,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16682,7 +16706,7 @@
         <v>0.50590909090909</v>
       </c>
       <c r="D303" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E303">
         <v>0.824097311139564</v>
@@ -16718,7 +16742,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -16732,7 +16756,7 @@
         <v>1.058847631241997</v>
       </c>
       <c r="D304" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E304">
         <v>1.040422535211267</v>
@@ -16768,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16782,7 +16806,7 @@
         <v>1.101209987195902</v>
       </c>
       <c r="D305" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E305">
         <v>1.040422535211267</v>
@@ -16818,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16832,7 +16856,7 @@
         <v>1.061209987195902</v>
       </c>
       <c r="D306" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E306">
         <v>1.040422535211267</v>
@@ -16868,7 +16892,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16882,7 +16906,7 @@
         <v>0.3348874640146549</v>
       </c>
       <c r="D307" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E307">
         <v>0.6892070138707138</v>
@@ -16918,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16932,7 +16956,7 @@
         <v>0.9751517927244169</v>
       </c>
       <c r="D308" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E308">
         <v>0.904611358283171</v>
@@ -16968,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -16982,7 +17006,7 @@
         <v>0.22440600683947</v>
       </c>
       <c r="D309" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E309">
         <v>0.6020667096198637</v>
@@ -17018,7 +17042,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17032,7 +17056,7 @@
         <v>0.8937171036328486</v>
       </c>
       <c r="D310" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E310">
         <v>0.7705397234474891</v>
@@ -17068,7 +17092,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17082,7 +17106,7 @@
         <v>0.1082096332420339</v>
       </c>
       <c r="D311" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E311">
         <v>0.5104188656556885</v>
@@ -17118,7 +17142,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17132,7 +17156,7 @@
         <v>-0.008130440028267572</v>
       </c>
       <c r="D312" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E312">
         <v>0.4186576811044649</v>
@@ -17168,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17182,7 +17206,7 @@
         <v>-0.2955074520936858</v>
       </c>
       <c r="D313" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E313">
         <v>0.1677359829666414</v>
@@ -17218,7 +17242,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17268,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17318,7 +17342,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17332,7 +17356,7 @@
         <v>1.724076346434568</v>
       </c>
       <c r="D316" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E316">
         <v>1.515642348344327</v>
@@ -17368,7 +17392,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17418,7 +17442,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17468,7 +17492,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17482,7 +17506,7 @@
         <v>1.696820681178639</v>
       </c>
       <c r="D319" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E319">
         <v>1.493247566063977</v>
@@ -17518,7 +17542,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17568,7 +17592,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17618,7 +17642,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17632,7 +17656,7 @@
         <v>1.664882012342569</v>
       </c>
       <c r="D322" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E322">
         <v>1.414710468897303</v>
@@ -17668,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17718,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17768,7 +17792,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17782,7 +17806,7 @@
         <v>1.643053663665036</v>
       </c>
       <c r="D325" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E325">
         <v>1.396497005988024</v>
@@ -17818,7 +17842,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17868,7 +17892,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17918,7 +17942,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17932,7 +17956,7 @@
         <v>1.61962915718182</v>
       </c>
       <c r="D328" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E328">
         <v>1.376951717138971</v>
@@ -17968,7 +17992,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18018,7 +18042,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18068,7 +18092,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18082,7 +18106,7 @@
         <v>1.598153375013795</v>
       </c>
       <c r="D331" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E331">
         <v>1.359032433928708</v>
@@ -18118,7 +18142,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18168,7 +18192,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18218,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18232,7 +18256,7 @@
         <v>1.570406166624607</v>
       </c>
       <c r="D334" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E334">
         <v>1.335880304635819</v>
@@ -18268,7 +18292,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18318,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18368,7 +18392,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18382,7 +18406,7 @@
         <v>1.53933838661172</v>
       </c>
       <c r="D337" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E337">
         <v>1.309957507300225</v>
@@ -18418,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18532,7 +18556,7 @@
         <v>1.510449616201756</v>
       </c>
       <c r="D340" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E340">
         <v>1.320449616201756</v>
@@ -18618,7 +18642,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18632,7 +18656,7 @@
         <v>1.474476712309384</v>
       </c>
       <c r="D342" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E342">
         <v>1.284476712309384</v>
@@ -18668,7 +18692,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18718,7 +18742,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18768,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18782,7 +18806,7 @@
         <v>1.43169474125916</v>
       </c>
       <c r="D345" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E345">
         <v>1.24169474125916</v>
@@ -18818,7 +18842,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -18982,7 +19006,7 @@
         <v>1.372114445177575</v>
       </c>
       <c r="D349" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E349">
         <v>1.182114445177575</v>
@@ -19068,7 +19092,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19118,7 +19142,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19132,7 +19156,7 @@
         <v>1.341200461638077</v>
       </c>
       <c r="D352" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E352">
         <v>1.151200461638077</v>
@@ -19168,7 +19192,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19182,7 +19206,7 @@
         <v>1.309879175702464</v>
       </c>
       <c r="D353" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E353">
         <v>1.119879175702464</v>
@@ -19268,7 +19292,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19282,7 +19306,7 @@
         <v>1.284826807940879</v>
       </c>
       <c r="D355" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E355">
         <v>1.094826807940879</v>
@@ -19318,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19368,7 +19392,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19382,7 +19406,7 @@
         <v>1.254947268845516</v>
       </c>
       <c r="D357" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E357">
         <v>1.064947268845516</v>
@@ -19418,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19482,7 +19506,7 @@
         <v>1.204148422477695</v>
       </c>
       <c r="D359" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E359">
         <v>1.014148422477695</v>
@@ -19532,7 +19556,7 @@
         <v>0.7565800947331744</v>
       </c>
       <c r="D360" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E360">
         <v>0.7662610529884266</v>
@@ -19568,7 +19592,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19582,7 +19606,7 @@
         <v>0.7358955841180959</v>
       </c>
       <c r="D361" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E361">
         <v>0.7460729511326034</v>
@@ -19618,7 +19642,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19632,7 +19656,7 @@
         <v>0.6769876002917579</v>
       </c>
       <c r="D362" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E362">
         <v>0.7067614879649891</v>
@@ -19668,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19682,7 +19706,7 @@
         <v>0.6104223551406667</v>
       </c>
       <c r="D363" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E363">
         <v>0.6717864324675069</v>
@@ -19768,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19782,7 +19806,7 @@
         <v>0.798189415570248</v>
       </c>
       <c r="D365" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E365">
         <v>0.5671969948491258</v>
@@ -19818,7 +19842,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19868,7 +19892,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19918,7 +19942,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19932,7 +19956,7 @@
         <v>0.8309217545939529</v>
       </c>
       <c r="D368" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E368">
         <v>0.605257854179015</v>
@@ -19968,7 +19992,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -19982,7 +20006,7 @@
         <v>0.4620509780675748</v>
       </c>
       <c r="D369" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E369">
         <v>0.4201630112625956</v>
@@ -20018,7 +20042,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20032,7 +20056,7 @@
         <v>0.480352697095435</v>
       </c>
       <c r="D370" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E370">
         <v>0.4201630112625956</v>
@@ -20068,7 +20092,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20082,7 +20106,7 @@
         <v>0.5468482902083864</v>
       </c>
       <c r="D371" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E371">
         <v>0.4879084704937777</v>
@@ -20118,7 +20142,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20132,7 +20156,7 @@
         <v>0.5179084704937775</v>
       </c>
       <c r="D372" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E372">
         <v>0.4879084704937777</v>
@@ -20168,7 +20192,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20182,7 +20206,7 @@
         <v>0.5818340929808579</v>
       </c>
       <c r="D373" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E373">
         <v>0.549200546946218</v>
@@ -20218,7 +20242,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20232,7 +20256,7 @@
         <v>0.5548113035551514</v>
       </c>
       <c r="D374" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E374">
         <v>0.549200546946218</v>
@@ -20268,7 +20292,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20318,7 +20342,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20332,7 +20356,7 @@
         <v>0.3499850704488205</v>
       </c>
       <c r="D376" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E376">
         <v>0.444542315946628</v>
@@ -20368,7 +20392,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20418,7 +20442,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20432,7 +20456,7 @@
         <v>1.767440067057837</v>
       </c>
       <c r="D378" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E378">
         <v>1.917324392288349</v>
@@ -20468,7 +20492,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20482,7 +20506,7 @@
         <v>1.755766974015088</v>
       </c>
       <c r="D379" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E379">
         <v>1.917324392288349</v>
@@ -20518,7 +20542,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -20532,7 +20556,7 @@
         <v>1.799235962112094</v>
       </c>
       <c r="D380" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E380">
         <v>1.953237741378409</v>
@@ -20568,7 +20592,7 @@
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -20582,7 +20606,7 @@
         <v>1.816347270919463</v>
       </c>
       <c r="D381" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E381">
         <v>1.953237741378409</v>
@@ -20618,7 +20642,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20632,7 +20656,7 @@
         <v>1.904846907902699</v>
       </c>
       <c r="D382" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E382">
         <v>2.048992496671911</v>
@@ -20668,7 +20692,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20682,7 +20706,7 @@
         <v>1.902343579813627</v>
       </c>
       <c r="D383" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E383">
         <v>2.048992496671911</v>
@@ -20718,7 +20742,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -20732,7 +20756,7 @@
         <v>1.883094863552425</v>
       </c>
       <c r="D384" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E384">
         <v>2.02424560563573</v>
@@ -20768,7 +20792,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -20782,7 +20806,7 @@
         <v>1.880118664933999</v>
       </c>
       <c r="D385" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E385">
         <v>2.02424560563573</v>
@@ -20818,7 +20842,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -20832,7 +20856,7 @@
         <v>1.758150385501947</v>
       </c>
       <c r="D386" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E386">
         <v>1.906831730387091</v>
@@ -20876,13 +20900,13 @@
         <v>1</v>
       </c>
       <c r="B387" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C387">
-        <v>1.77467053493363</v>
+        <v>1.746410460217788</v>
       </c>
       <c r="D387" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E387">
         <v>1.906831730387091</v>
@@ -20891,22 +20915,22 @@
         <v>1</v>
       </c>
       <c r="G387">
-        <v>0.00226532946506637</v>
+        <v>0.002233589539782212</v>
       </c>
       <c r="H387">
         <v>0.002453168269612909</v>
       </c>
       <c r="I387">
-        <v>0.1321611954534616</v>
+        <v>0.1604212701693031</v>
       </c>
       <c r="J387">
         <v>0.1739925284158654</v>
       </c>
       <c r="K387">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="L387">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="M387">
         <v>1.57</v>
@@ -20932,7 +20956,7 @@
         <v>0.9159503213647138</v>
       </c>
       <c r="D388" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E388">
         <v>0.7959503213647137</v>
@@ -20968,7 +20992,7 @@
         <v>1</v>
       </c>
       <c r="P388" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -20982,7 +21006,7 @@
         <v>0.8094230769230786</v>
       </c>
       <c r="D389" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E389">
         <v>0.6894230769230785</v>
@@ -21018,7 +21042,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -21032,7 +21056,7 @@
         <v>0.8000000000000016</v>
       </c>
       <c r="D390" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E390">
         <v>0.6894230769230785</v>
@@ -21068,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -21082,7 +21106,7 @@
         <v>0.7208814628806919</v>
       </c>
       <c r="D391" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E391">
         <v>0.590881462880692</v>
@@ -21132,7 +21156,7 @@
         <v>0.5733787424841807</v>
       </c>
       <c r="D392" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E392">
         <v>0.4433787424841809</v>
@@ -21168,7 +21192,7 @@
         <v>1</v>
       </c>
       <c r="P392" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -21179,46 +21203,46 @@
         <v>88</v>
       </c>
       <c r="C393">
-        <v>2.36240774237655</v>
+        <v>0.4687458113930127</v>
       </c>
       <c r="D393" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E393">
-        <v>2.27953212459586</v>
+        <v>0.447338439444712</v>
       </c>
       <c r="F393">
         <v>-1</v>
       </c>
       <c r="G393">
-        <v>0.00205759225762345</v>
+        <v>0.003731254188606988</v>
       </c>
       <c r="H393">
-        <v>0.00198046787540414</v>
+        <v>0.003732661560555288</v>
       </c>
       <c r="I393">
-        <v>0.08287561778068975</v>
+        <v>0.02140737194830078</v>
       </c>
       <c r="J393">
-        <v>-0.0958539260229872</v>
+        <v>1.140737194830061</v>
       </c>
       <c r="K393">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="L393">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="M393">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="N393">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="O393">
         <v>1</v>
       </c>
       <c r="P393" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -21229,46 +21253,346 @@
         <v>88</v>
       </c>
       <c r="C394">
+        <v>0.4458856037579459</v>
+      </c>
+      <c r="D394" t="s">
+        <v>220</v>
+      </c>
+      <c r="E394">
+        <v>0.4243183702177915</v>
+      </c>
+      <c r="F394">
+        <v>-1</v>
+      </c>
+      <c r="G394">
+        <v>0.003754114396242054</v>
+      </c>
+      <c r="H394">
+        <v>0.003755681629782208</v>
+      </c>
+      <c r="I394">
+        <v>0.02156723354015444</v>
+      </c>
+      <c r="J394">
+        <v>1.156723354015422</v>
+      </c>
+      <c r="K394">
+        <v>1.43</v>
+      </c>
+      <c r="L394">
+        <v>2.1</v>
+      </c>
+      <c r="M394">
+        <v>1.44</v>
+      </c>
+      <c r="N394">
+        <v>2.09</v>
+      </c>
+      <c r="O394">
+        <v>1</v>
+      </c>
+      <c r="P394" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16">
+      <c r="A395" s="1">
+        <v>0</v>
+      </c>
+      <c r="B395" t="s">
+        <v>88</v>
+      </c>
+      <c r="C395">
+        <v>0.391158254613184</v>
+      </c>
+      <c r="D395" t="s">
+        <v>220</v>
+      </c>
+      <c r="E395">
+        <v>0.3692083123377514</v>
+      </c>
+      <c r="F395">
+        <v>-1</v>
+      </c>
+      <c r="G395">
+        <v>0.003808841745386816</v>
+      </c>
+      <c r="H395">
+        <v>0.003810791687662248</v>
+      </c>
+      <c r="I395">
+        <v>0.02194994227543257</v>
+      </c>
+      <c r="J395">
+        <v>1.194994227543228</v>
+      </c>
+      <c r="K395">
+        <v>1.43</v>
+      </c>
+      <c r="L395">
+        <v>2.1</v>
+      </c>
+      <c r="M395">
+        <v>1.44</v>
+      </c>
+      <c r="N395">
+        <v>2.09</v>
+      </c>
+      <c r="O395">
+        <v>1</v>
+      </c>
+      <c r="P395" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16">
+      <c r="A396" s="1">
+        <v>0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>88</v>
+      </c>
+      <c r="C396">
+        <v>0.3938129095923706</v>
+      </c>
+      <c r="D396" t="s">
+        <v>220</v>
+      </c>
+      <c r="E396">
+        <v>0.3718815313377717</v>
+      </c>
+      <c r="F396">
+        <v>-1</v>
+      </c>
+      <c r="G396">
+        <v>0.003806187090407629</v>
+      </c>
+      <c r="H396">
+        <v>0.003808118468662228</v>
+      </c>
+      <c r="I396">
+        <v>0.0219313782545989</v>
+      </c>
+      <c r="J396">
+        <v>1.193137825459881</v>
+      </c>
+      <c r="K396">
+        <v>1.43</v>
+      </c>
+      <c r="L396">
+        <v>2.1</v>
+      </c>
+      <c r="M396">
+        <v>1.44</v>
+      </c>
+      <c r="N396">
+        <v>2.09</v>
+      </c>
+      <c r="O396">
+        <v>1</v>
+      </c>
+      <c r="P396" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16">
+      <c r="A397" s="1">
+        <v>0</v>
+      </c>
+      <c r="B397" t="s">
+        <v>88</v>
+      </c>
+      <c r="C397">
+        <v>0.3989147541813227</v>
+      </c>
+      <c r="D397" t="s">
+        <v>220</v>
+      </c>
+      <c r="E397">
+        <v>0.3770190531616113</v>
+      </c>
+      <c r="F397">
+        <v>-1</v>
+      </c>
+      <c r="G397">
+        <v>0.003801085245818678</v>
+      </c>
+      <c r="H397">
+        <v>0.003802980946838389</v>
+      </c>
+      <c r="I397">
+        <v>0.02189570101971139</v>
+      </c>
+      <c r="J397">
+        <v>1.189570101971103</v>
+      </c>
+      <c r="K397">
+        <v>1.43</v>
+      </c>
+      <c r="L397">
+        <v>2.1</v>
+      </c>
+      <c r="M397">
+        <v>1.44</v>
+      </c>
+      <c r="N397">
+        <v>2.09</v>
+      </c>
+      <c r="O397">
+        <v>1</v>
+      </c>
+      <c r="P397" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16">
+      <c r="A398" s="1">
+        <v>0</v>
+      </c>
+      <c r="B398" t="s">
+        <v>88</v>
+      </c>
+      <c r="C398">
+        <v>0.3948100767438436</v>
+      </c>
+      <c r="D398" t="s">
+        <v>220</v>
+      </c>
+      <c r="E398">
+        <v>0.372885671686108</v>
+      </c>
+      <c r="F398">
+        <v>-1</v>
+      </c>
+      <c r="G398">
+        <v>0.003805189923256156</v>
+      </c>
+      <c r="H398">
+        <v>0.003807114328313892</v>
+      </c>
+      <c r="I398">
+        <v>0.02192440505773563</v>
+      </c>
+      <c r="J398">
+        <v>1.192440505773536</v>
+      </c>
+      <c r="K398">
+        <v>1.43</v>
+      </c>
+      <c r="L398">
+        <v>2.1</v>
+      </c>
+      <c r="M398">
+        <v>1.44</v>
+      </c>
+      <c r="N398">
+        <v>2.09</v>
+      </c>
+      <c r="O398">
+        <v>1</v>
+      </c>
+      <c r="P398" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16">
+      <c r="A399" s="1">
+        <v>0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>89</v>
+      </c>
+      <c r="C399">
+        <v>2.36240774237655</v>
+      </c>
+      <c r="D399" t="s">
+        <v>221</v>
+      </c>
+      <c r="E399">
+        <v>2.27953212459586</v>
+      </c>
+      <c r="F399">
+        <v>-1</v>
+      </c>
+      <c r="G399">
+        <v>0.00205759225762345</v>
+      </c>
+      <c r="H399">
+        <v>0.00198046787540414</v>
+      </c>
+      <c r="I399">
+        <v>0.08287561778068975</v>
+      </c>
+      <c r="J399">
+        <v>-0.0958539260229872</v>
+      </c>
+      <c r="K399">
+        <v>1.59</v>
+      </c>
+      <c r="L399">
+        <v>2.21</v>
+      </c>
+      <c r="M399">
+        <v>1.56</v>
+      </c>
+      <c r="N399">
+        <v>2.13</v>
+      </c>
+      <c r="O399">
+        <v>1</v>
+      </c>
+      <c r="P399" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16">
+      <c r="A400" s="1">
+        <v>0</v>
+      </c>
+      <c r="B400" t="s">
+        <v>89</v>
+      </c>
+      <c r="C400">
         <v>2.526368817680956</v>
       </c>
-      <c r="D394" t="s">
-        <v>219</v>
-      </c>
-      <c r="E394">
-        <v>2.440399594705844</v>
-      </c>
-      <c r="F394">
-        <v>-1</v>
-      </c>
-      <c r="G394">
+      <c r="D400" t="s">
+        <v>222</v>
+      </c>
+      <c r="E400">
+        <v>2.434430371730732</v>
+      </c>
+      <c r="F400">
+        <v>-1</v>
+      </c>
+      <c r="G400">
         <v>0.001893631182319044</v>
       </c>
-      <c r="H394">
-        <v>0.001819600405294156</v>
-      </c>
-      <c r="I394">
-        <v>0.08596922297511256</v>
-      </c>
-      <c r="J394">
+      <c r="H400">
+        <v>0.001825569628269268</v>
+      </c>
+      <c r="I400">
+        <v>0.0919384459502246</v>
+      </c>
+      <c r="J400">
         <v>-0.1989740991704129</v>
       </c>
-      <c r="K394">
+      <c r="K400">
         <v>1.59</v>
       </c>
-      <c r="L394">
+      <c r="L400">
         <v>2.21</v>
       </c>
-      <c r="M394">
-        <v>1.56</v>
-      </c>
-      <c r="N394">
+      <c r="M400">
+        <v>1.53</v>
+      </c>
+      <c r="N400">
         <v>2.13</v>
       </c>
-      <c r="O394">
-        <v>1</v>
-      </c>
-      <c r="P394" t="s">
-        <v>398</v>
+      <c r="O400">
+        <v>1</v>
+      </c>
+      <c r="P400" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-00525-601333.xlsx
+++ b/s60_signal/position-00525-601333.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="405">
   <si>
     <t>trade_time</t>
   </si>
@@ -268,12 +268,12 @@
     <t>2021-02-05</t>
   </si>
   <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
     <t>2021-02-04</t>
   </si>
   <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
     <t>2021-04-09</t>
   </si>
   <si>
@@ -673,10 +673,13 @@
     <t>2021-04-26</t>
   </si>
   <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
     <t>2021-04-28</t>
   </si>
   <si>
-    <t>2021-07-13</t>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2021-06-21</t>
@@ -1216,16 +1219,7 @@
     <t>2021-04-14</t>
   </si>
   <si>
-    <t>2021-04-20</t>
-  </si>
-  <si>
-    <t>2021-04-21</t>
-  </si>
-  <si>
     <t>2021-04-22</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
   </si>
   <si>
     <t>2021-04-30</t>
@@ -1592,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P400"/>
+  <dimension ref="A1:P398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1692,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1742,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1792,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1842,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1892,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1942,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1992,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2042,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2092,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2142,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2192,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2242,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2292,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2342,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2392,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2442,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2492,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2542,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2592,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2642,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2692,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2742,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2792,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2842,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2892,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2942,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2992,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3042,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3092,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3142,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3192,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3242,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3292,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3342,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3392,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3442,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3492,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3542,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3592,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3642,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3692,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3742,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3792,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3842,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3892,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3942,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3992,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4042,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4092,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4142,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4192,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4242,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4292,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4342,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4392,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4442,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4492,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4542,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4592,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4642,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4692,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4742,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4792,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4842,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4892,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4942,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4992,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5042,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5092,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5142,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5192,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5242,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5292,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5342,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5392,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5442,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5492,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5542,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5592,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5642,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5692,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5742,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5792,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5842,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5892,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5942,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5992,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6042,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6092,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6142,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6192,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6292,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6342,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6392,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6442,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6492,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6542,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6592,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6642,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6692,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6742,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6792,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6842,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6892,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6942,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6992,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7042,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7092,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7142,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7192,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7242,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7292,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7342,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7392,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7442,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7492,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7542,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7592,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7642,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7692,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7742,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7792,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7842,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7892,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7942,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7992,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8042,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8092,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8142,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8192,7 +8186,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8692,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8842,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8942,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8992,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9042,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9092,7 +9086,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9142,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9192,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9242,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9292,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9342,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9392,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9442,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9492,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9542,7 +9536,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9592,7 +9586,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9642,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9692,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9742,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9792,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9842,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9892,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9942,7 +9936,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9992,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10042,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10092,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10142,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10242,7 +10236,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10292,7 +10286,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10392,7 +10386,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10442,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10492,7 +10486,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10542,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10592,7 +10586,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10642,7 +10636,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10692,7 +10686,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10742,7 +10736,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10792,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10842,7 +10836,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10892,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10992,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11042,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11092,7 +11086,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11142,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11192,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11242,7 +11236,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11292,7 +11286,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11342,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11392,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11442,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11492,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11542,7 +11536,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11592,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11642,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11692,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11742,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11792,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11842,7 +11836,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11892,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11942,7 +11936,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11992,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12042,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12092,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12142,7 +12136,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12192,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12242,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12292,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12342,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12392,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12442,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12492,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12542,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12592,7 +12586,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12642,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12692,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12742,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12792,7 +12786,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12842,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12892,7 +12886,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12942,7 +12936,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12992,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13042,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13092,7 +13086,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13142,7 +13136,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13192,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13242,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13292,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13342,7 +13336,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13392,7 +13386,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13442,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13492,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13542,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13592,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13642,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13692,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13742,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13792,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13842,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13892,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13942,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13992,7 +13986,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14042,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14092,7 +14086,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14142,7 +14136,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14192,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14242,7 +14236,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14292,7 +14286,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14342,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14392,7 +14386,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14442,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14492,7 +14486,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14542,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14592,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14642,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14692,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14742,7 +14736,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14842,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14892,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14942,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -14992,7 +14986,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15042,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15092,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15142,7 +15136,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15192,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15242,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15292,7 +15286,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15342,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15392,7 +15386,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15442,7 +15436,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15492,7 +15486,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15542,7 +15536,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15592,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15642,7 +15636,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15692,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15742,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15792,7 +15786,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15842,7 +15836,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15892,7 +15886,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -15942,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -15992,7 +15986,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -16042,7 +16036,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16092,7 +16086,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16142,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16192,7 +16186,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16242,7 +16236,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16292,7 +16286,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16342,7 +16336,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16392,7 +16386,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16442,7 +16436,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16492,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16542,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16592,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16642,7 +16636,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16692,7 +16686,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16742,7 +16736,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -16792,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16842,7 +16836,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16892,7 +16886,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16942,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16992,7 +16986,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17042,7 +17036,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17092,7 +17086,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17142,7 +17136,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17192,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17242,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17292,7 +17286,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17342,7 +17336,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17392,7 +17386,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17442,7 +17436,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17492,7 +17486,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17542,7 +17536,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17592,7 +17586,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17642,7 +17636,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17692,7 +17686,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17742,7 +17736,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17792,7 +17786,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17842,7 +17836,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17892,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17942,7 +17936,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17992,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18042,7 +18036,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18092,7 +18086,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18142,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18192,7 +18186,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18242,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18292,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18342,7 +18336,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18392,7 +18386,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18442,7 +18436,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18642,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18692,7 +18686,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18742,7 +18736,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18792,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18842,7 +18836,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -19092,7 +19086,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19142,7 +19136,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19192,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19292,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19342,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19392,7 +19386,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19442,7 +19436,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19592,7 +19586,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19642,7 +19636,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19692,7 +19686,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19792,7 +19786,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19842,7 +19836,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19892,7 +19886,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19942,7 +19936,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19992,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20042,7 +20036,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20092,7 +20086,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20142,7 +20136,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20192,7 +20186,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20242,7 +20236,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20292,7 +20286,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20306,7 +20300,7 @@
         <v>0.5632483895834637</v>
       </c>
       <c r="D375" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E375">
         <v>0.5264173880682987</v>
@@ -20342,7 +20336,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20442,7 +20436,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20492,7 +20486,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20542,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -20592,7 +20586,7 @@
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -20600,10 +20594,10 @@
         <v>1</v>
       </c>
       <c r="B381" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C381">
-        <v>1.816347270919463</v>
+        <v>1.787791616515778</v>
       </c>
       <c r="D381" t="s">
         <v>217</v>
@@ -20615,22 +20609,22 @@
         <v>1</v>
       </c>
       <c r="G381">
-        <v>0.002223652729080538</v>
+        <v>0.002192208383484222</v>
       </c>
       <c r="H381">
         <v>0.002406762258621592</v>
       </c>
       <c r="I381">
-        <v>0.1368904704589462</v>
+        <v>0.1654461248626304</v>
       </c>
       <c r="J381">
         <v>0.1444345596315869</v>
       </c>
       <c r="K381">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="L381">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="M381">
         <v>1.57</v>
@@ -20642,7 +20636,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20650,7 +20644,7 @@
         <v>0</v>
       </c>
       <c r="B382" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C382">
         <v>1.904846907902699</v>
@@ -20692,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20700,7 +20694,7 @@
         <v>1</v>
       </c>
       <c r="B383" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C383">
         <v>1.902343579813627</v>
@@ -20742,7 +20736,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -20750,10 +20744,10 @@
         <v>0</v>
       </c>
       <c r="B384" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C384">
-        <v>1.883094863552425</v>
+        <v>1.862102797346283</v>
       </c>
       <c r="D384" t="s">
         <v>217</v>
@@ -20765,22 +20759,22 @@
         <v>1</v>
       </c>
       <c r="G384">
-        <v>0.002156905136447575</v>
+        <v>0.002137897202653717</v>
       </c>
       <c r="H384">
         <v>0.00233575439436427</v>
       </c>
       <c r="I384">
-        <v>0.1411507420833051</v>
+        <v>0.1621428082894469</v>
       </c>
       <c r="J384">
         <v>0.09920662061418481</v>
       </c>
       <c r="K384">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="L384">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="M384">
         <v>1.57</v>
@@ -20792,7 +20786,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -20800,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="B385" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C385">
         <v>1.880118664933999</v>
@@ -20842,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -20892,7 +20886,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -20942,7 +20936,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -20992,7 +20986,7 @@
         <v>1</v>
       </c>
       <c r="P388" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -21042,7 +21036,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -21092,7 +21086,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -21109,7 +21103,7 @@
         <v>219</v>
       </c>
       <c r="E391">
-        <v>0.590881462880692</v>
+        <v>0.6107419569463242</v>
       </c>
       <c r="F391">
         <v>-1</v>
@@ -21118,10 +21112,10 @@
         <v>0.003819118537119308</v>
       </c>
       <c r="H391">
-        <v>0.003689118537119308</v>
+        <v>0.003669258043053676</v>
       </c>
       <c r="I391">
-        <v>0.1299999999999999</v>
+        <v>0.1101395059343677</v>
       </c>
       <c r="J391">
         <v>0.9930247032816077</v>
@@ -21133,7 +21127,7 @@
         <v>2.27</v>
       </c>
       <c r="M391">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="N391">
         <v>2.14</v>
@@ -21156,7 +21150,7 @@
         <v>0.5733787424841807</v>
       </c>
       <c r="D392" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E392">
         <v>0.4433787424841809</v>
@@ -21192,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="P392" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -21203,28 +21197,28 @@
         <v>88</v>
       </c>
       <c r="C393">
-        <v>0.4687458113930127</v>
+        <v>0.391158254613184</v>
       </c>
       <c r="D393" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E393">
-        <v>0.447338439444712</v>
+        <v>0.3950581391640484</v>
       </c>
       <c r="F393">
         <v>-1</v>
       </c>
       <c r="G393">
-        <v>0.003731254188606988</v>
+        <v>0.003808841745386816</v>
       </c>
       <c r="H393">
-        <v>0.003732661560555288</v>
+        <v>0.003764941860835952</v>
       </c>
       <c r="I393">
-        <v>0.02140737194830078</v>
+        <v>-0.00389988455086443</v>
       </c>
       <c r="J393">
-        <v>1.140737194830061</v>
+        <v>1.194994227543228</v>
       </c>
       <c r="K393">
         <v>1.43</v>
@@ -21233,16 +21227,16 @@
         <v>2.1</v>
       </c>
       <c r="M393">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="N393">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="O393">
         <v>1</v>
       </c>
       <c r="P393" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -21253,28 +21247,28 @@
         <v>88</v>
       </c>
       <c r="C394">
-        <v>0.4458856037579459</v>
+        <v>0.3938129095923706</v>
       </c>
       <c r="D394" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E394">
-        <v>0.4243183702177915</v>
+        <v>0.3976756661015683</v>
       </c>
       <c r="F394">
         <v>-1</v>
       </c>
       <c r="G394">
-        <v>0.003754114396242054</v>
+        <v>0.003806187090407629</v>
       </c>
       <c r="H394">
-        <v>0.003755681629782208</v>
+        <v>0.003762324333898432</v>
       </c>
       <c r="I394">
-        <v>0.02156723354015444</v>
+        <v>-0.003862756509197762</v>
       </c>
       <c r="J394">
-        <v>1.156723354015422</v>
+        <v>1.193137825459881</v>
       </c>
       <c r="K394">
         <v>1.43</v>
@@ -21283,16 +21277,16 @@
         <v>2.1</v>
       </c>
       <c r="M394">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="N394">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="O394">
         <v>1</v>
       </c>
       <c r="P394" t="s">
-        <v>401</v>
+        <v>219</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -21303,28 +21297,28 @@
         <v>88</v>
       </c>
       <c r="C395">
-        <v>0.391158254613184</v>
+        <v>0.3989147541813227</v>
       </c>
       <c r="D395" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E395">
-        <v>0.3692083123377514</v>
+        <v>0.4027061562207448</v>
       </c>
       <c r="F395">
         <v>-1</v>
       </c>
       <c r="G395">
-        <v>0.003808841745386816</v>
+        <v>0.003801085245818678</v>
       </c>
       <c r="H395">
-        <v>0.003810791687662248</v>
+        <v>0.003757293843779255</v>
       </c>
       <c r="I395">
-        <v>0.02194994227543257</v>
+        <v>-0.003791402039422076</v>
       </c>
       <c r="J395">
-        <v>1.194994227543228</v>
+        <v>1.189570101971103</v>
       </c>
       <c r="K395">
         <v>1.43</v>
@@ -21333,16 +21327,16 @@
         <v>2.1</v>
       </c>
       <c r="M395">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="N395">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="O395">
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -21353,28 +21347,28 @@
         <v>88</v>
       </c>
       <c r="C396">
-        <v>0.3938129095923706</v>
+        <v>0.3948100767438436</v>
       </c>
       <c r="D396" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E396">
-        <v>0.3718815313377717</v>
+        <v>0.3986588868593142</v>
       </c>
       <c r="F396">
         <v>-1</v>
       </c>
       <c r="G396">
-        <v>0.003806187090407629</v>
+        <v>0.003805189923256156</v>
       </c>
       <c r="H396">
-        <v>0.003808118468662228</v>
+        <v>0.003761341113140686</v>
       </c>
       <c r="I396">
-        <v>0.0219313782545989</v>
+        <v>-0.003848810115470558</v>
       </c>
       <c r="J396">
-        <v>1.193137825459881</v>
+        <v>1.192440505773536</v>
       </c>
       <c r="K396">
         <v>1.43</v>
@@ -21383,16 +21377,16 @@
         <v>2.1</v>
       </c>
       <c r="M396">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="N396">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="O396">
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -21400,49 +21394,49 @@
         <v>0</v>
       </c>
       <c r="B397" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C397">
-        <v>0.3989147541813227</v>
+        <v>2.36240774237655</v>
       </c>
       <c r="D397" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E397">
-        <v>0.3770190531616113</v>
+        <v>2.27953212459586</v>
       </c>
       <c r="F397">
         <v>-1</v>
       </c>
       <c r="G397">
-        <v>0.003801085245818678</v>
+        <v>0.00205759225762345</v>
       </c>
       <c r="H397">
-        <v>0.003802980946838389</v>
+        <v>0.00198046787540414</v>
       </c>
       <c r="I397">
-        <v>0.02189570101971139</v>
+        <v>0.08287561778068975</v>
       </c>
       <c r="J397">
-        <v>1.189570101971103</v>
+        <v>-0.0958539260229872</v>
       </c>
       <c r="K397">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="L397">
-        <v>2.1</v>
+        <v>2.21</v>
       </c>
       <c r="M397">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="N397">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="O397">
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>219</v>
+        <v>403</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -21450,149 +21444,49 @@
         <v>0</v>
       </c>
       <c r="B398" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C398">
-        <v>0.3948100767438436</v>
+        <v>2.526368817680956</v>
       </c>
       <c r="D398" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E398">
-        <v>0.372885671686108</v>
+        <v>2.434430371730732</v>
       </c>
       <c r="F398">
         <v>-1</v>
       </c>
       <c r="G398">
-        <v>0.003805189923256156</v>
+        <v>0.001893631182319044</v>
       </c>
       <c r="H398">
-        <v>0.003807114328313892</v>
+        <v>0.001825569628269268</v>
       </c>
       <c r="I398">
-        <v>0.02192440505773563</v>
+        <v>0.0919384459502246</v>
       </c>
       <c r="J398">
-        <v>1.192440505773536</v>
+        <v>-0.1989740991704129</v>
       </c>
       <c r="K398">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="L398">
-        <v>2.1</v>
+        <v>2.21</v>
       </c>
       <c r="M398">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="N398">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="O398">
         <v>1</v>
       </c>
       <c r="P398" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="399" spans="1:16">
-      <c r="A399" s="1">
-        <v>0</v>
-      </c>
-      <c r="B399" t="s">
-        <v>89</v>
-      </c>
-      <c r="C399">
-        <v>2.36240774237655</v>
-      </c>
-      <c r="D399" t="s">
-        <v>221</v>
-      </c>
-      <c r="E399">
-        <v>2.27953212459586</v>
-      </c>
-      <c r="F399">
-        <v>-1</v>
-      </c>
-      <c r="G399">
-        <v>0.00205759225762345</v>
-      </c>
-      <c r="H399">
-        <v>0.00198046787540414</v>
-      </c>
-      <c r="I399">
-        <v>0.08287561778068975</v>
-      </c>
-      <c r="J399">
-        <v>-0.0958539260229872</v>
-      </c>
-      <c r="K399">
-        <v>1.59</v>
-      </c>
-      <c r="L399">
-        <v>2.21</v>
-      </c>
-      <c r="M399">
-        <v>1.56</v>
-      </c>
-      <c r="N399">
-        <v>2.13</v>
-      </c>
-      <c r="O399">
-        <v>1</v>
-      </c>
-      <c r="P399" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16">
-      <c r="A400" s="1">
-        <v>0</v>
-      </c>
-      <c r="B400" t="s">
-        <v>89</v>
-      </c>
-      <c r="C400">
-        <v>2.526368817680956</v>
-      </c>
-      <c r="D400" t="s">
-        <v>222</v>
-      </c>
-      <c r="E400">
-        <v>2.434430371730732</v>
-      </c>
-      <c r="F400">
-        <v>-1</v>
-      </c>
-      <c r="G400">
-        <v>0.001893631182319044</v>
-      </c>
-      <c r="H400">
-        <v>0.001825569628269268</v>
-      </c>
-      <c r="I400">
-        <v>0.0919384459502246</v>
-      </c>
-      <c r="J400">
-        <v>-0.1989740991704129</v>
-      </c>
-      <c r="K400">
-        <v>1.59</v>
-      </c>
-      <c r="L400">
-        <v>2.21</v>
-      </c>
-      <c r="M400">
-        <v>1.53</v>
-      </c>
-      <c r="N400">
-        <v>2.13</v>
-      </c>
-      <c r="O400">
-        <v>1</v>
-      </c>
-      <c r="P400" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-00525-601333.xlsx
+++ b/s60_signal/position-00525-601333.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="406">
   <si>
     <t>trade_time</t>
   </si>
@@ -268,402 +268,405 @@
     <t>2021-02-05</t>
   </si>
   <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2016-04-13</t>
+  </si>
+  <si>
+    <t>2016-04-19</t>
+  </si>
+  <si>
+    <t>2016-09-20</t>
+  </si>
+  <si>
+    <t>2016-04-29</t>
+  </si>
+  <si>
+    <t>2016-09-28</t>
+  </si>
+  <si>
+    <t>2016-09-29</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-10-11</t>
+  </si>
+  <si>
+    <t>2016-10-12</t>
+  </si>
+  <si>
+    <t>2016-10-13</t>
+  </si>
+  <si>
+    <t>2016-10-14</t>
+  </si>
+  <si>
+    <t>2016-10-18</t>
+  </si>
+  <si>
+    <t>2016-10-19</t>
+  </si>
+  <si>
+    <t>2017-01-26</t>
+  </si>
+  <si>
+    <t>2017-02-03</t>
+  </si>
+  <si>
+    <t>2017-02-06</t>
+  </si>
+  <si>
+    <t>2017-02-07</t>
+  </si>
+  <si>
+    <t>2017-02-08</t>
+  </si>
+  <si>
+    <t>2017-02-09</t>
+  </si>
+  <si>
+    <t>2017-02-10</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-02-14</t>
+  </si>
+  <si>
+    <t>2017-02-15</t>
+  </si>
+  <si>
+    <t>2017-02-16</t>
+  </si>
+  <si>
+    <t>2017-02-17</t>
+  </si>
+  <si>
+    <t>2017-02-20</t>
+  </si>
+  <si>
+    <t>2017-02-21</t>
+  </si>
+  <si>
+    <t>2017-02-22</t>
+  </si>
+  <si>
+    <t>2017-02-23</t>
+  </si>
+  <si>
+    <t>2017-02-24</t>
+  </si>
+  <si>
+    <t>2017-02-27</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2017-03-01</t>
+  </si>
+  <si>
+    <t>2017-03-02</t>
+  </si>
+  <si>
+    <t>2017-03-03</t>
+  </si>
+  <si>
+    <t>2017-03-06</t>
+  </si>
+  <si>
+    <t>2017-03-07</t>
+  </si>
+  <si>
+    <t>2017-03-08</t>
+  </si>
+  <si>
+    <t>2017-03-09</t>
+  </si>
+  <si>
+    <t>2017-03-10</t>
+  </si>
+  <si>
+    <t>2017-03-13</t>
+  </si>
+  <si>
+    <t>2017-03-14</t>
+  </si>
+  <si>
+    <t>2017-03-16</t>
+  </si>
+  <si>
+    <t>2017-03-17</t>
+  </si>
+  <si>
+    <t>2017-03-28</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2017-04-05</t>
+  </si>
+  <si>
+    <t>2017-04-07</t>
+  </si>
+  <si>
+    <t>2017-06-23</t>
+  </si>
+  <si>
+    <t>2017-07-05</t>
+  </si>
+  <si>
+    <t>2017-07-06</t>
+  </si>
+  <si>
+    <t>2017-07-07</t>
+  </si>
+  <si>
+    <t>2017-03-15</t>
+  </si>
+  <si>
+    <t>2017-06-21</t>
+  </si>
+  <si>
+    <t>2017-01-24</t>
+  </si>
+  <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
+    <t>2017-06-19</t>
+  </si>
+  <si>
+    <t>2017-01-19</t>
+  </si>
+  <si>
+    <t>2017-06-15</t>
+  </si>
+  <si>
+    <t>2017-07-17</t>
+  </si>
+  <si>
+    <t>2017-01-11</t>
+  </si>
+  <si>
+    <t>2017-07-18</t>
+  </si>
+  <si>
+    <t>2017-09-25</t>
+  </si>
+  <si>
+    <t>2017-09-26</t>
+  </si>
+  <si>
+    <t>2017-09-27</t>
+  </si>
+  <si>
+    <t>2017-09-19</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-10-17</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2018-02-22</t>
+  </si>
+  <si>
+    <t>2018-02-01</t>
+  </si>
+  <si>
+    <t>2018-02-23</t>
+  </si>
+  <si>
+    <t>2018-04-04</t>
+  </si>
+  <si>
+    <t>2018-04-03</t>
+  </si>
+  <si>
+    <t>2017-12-28</t>
+  </si>
+  <si>
+    <t>2018-10-19</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2018-10-23</t>
+  </si>
+  <si>
+    <t>2018-09-18</t>
+  </si>
+  <si>
+    <t>2018-10-12</t>
+  </si>
+  <si>
+    <t>2018-12-13</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>2018-12-18</t>
+  </si>
+  <si>
+    <t>2019-01-03</t>
+  </si>
+  <si>
+    <t>2019-01-04</t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+  </si>
+  <si>
+    <t>2018-11-13</t>
+  </si>
+  <si>
+    <t>2018-12-07</t>
+  </si>
+  <si>
+    <t>2019-06-19</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-06-20</t>
+  </si>
+  <si>
+    <t>2019-06-21</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>2020-02-21</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
     <t>2021-02-01</t>
   </si>
   <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>2021-04-09</t>
-  </si>
-  <si>
-    <t>2021-04-15</t>
-  </si>
-  <si>
-    <t>2021-07-12</t>
-  </si>
-  <si>
-    <t>2021-06-11</t>
-  </si>
-  <si>
-    <t>2016-04-13</t>
-  </si>
-  <si>
-    <t>2016-04-19</t>
-  </si>
-  <si>
-    <t>2016-09-20</t>
-  </si>
-  <si>
-    <t>2016-04-29</t>
-  </si>
-  <si>
-    <t>2016-09-28</t>
-  </si>
-  <si>
-    <t>2016-09-29</t>
-  </si>
-  <si>
-    <t>2016-09-30</t>
-  </si>
-  <si>
-    <t>2016-10-11</t>
-  </si>
-  <si>
-    <t>2016-10-12</t>
-  </si>
-  <si>
-    <t>2016-10-13</t>
-  </si>
-  <si>
-    <t>2016-10-14</t>
-  </si>
-  <si>
-    <t>2016-10-18</t>
-  </si>
-  <si>
-    <t>2016-10-19</t>
-  </si>
-  <si>
-    <t>2017-01-26</t>
-  </si>
-  <si>
-    <t>2017-02-03</t>
-  </si>
-  <si>
-    <t>2017-02-06</t>
-  </si>
-  <si>
-    <t>2017-02-07</t>
-  </si>
-  <si>
-    <t>2017-02-08</t>
-  </si>
-  <si>
-    <t>2017-02-09</t>
-  </si>
-  <si>
-    <t>2017-02-10</t>
-  </si>
-  <si>
-    <t>2017-02-13</t>
-  </si>
-  <si>
-    <t>2017-02-14</t>
-  </si>
-  <si>
-    <t>2017-02-15</t>
-  </si>
-  <si>
-    <t>2017-02-16</t>
-  </si>
-  <si>
-    <t>2017-02-17</t>
-  </si>
-  <si>
-    <t>2017-02-20</t>
-  </si>
-  <si>
-    <t>2017-02-21</t>
-  </si>
-  <si>
-    <t>2017-02-22</t>
-  </si>
-  <si>
-    <t>2017-02-23</t>
-  </si>
-  <si>
-    <t>2017-02-24</t>
-  </si>
-  <si>
-    <t>2017-02-27</t>
-  </si>
-  <si>
-    <t>2017-02-28</t>
-  </si>
-  <si>
-    <t>2017-03-01</t>
-  </si>
-  <si>
-    <t>2017-03-02</t>
-  </si>
-  <si>
-    <t>2017-03-03</t>
-  </si>
-  <si>
-    <t>2017-03-06</t>
-  </si>
-  <si>
-    <t>2017-03-07</t>
-  </si>
-  <si>
-    <t>2017-03-08</t>
-  </si>
-  <si>
-    <t>2017-03-09</t>
-  </si>
-  <si>
-    <t>2017-03-10</t>
-  </si>
-  <si>
-    <t>2017-03-13</t>
-  </si>
-  <si>
-    <t>2017-03-14</t>
-  </si>
-  <si>
-    <t>2017-03-16</t>
-  </si>
-  <si>
-    <t>2017-03-17</t>
-  </si>
-  <si>
-    <t>2017-03-28</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>2017-04-05</t>
-  </si>
-  <si>
-    <t>2017-04-07</t>
-  </si>
-  <si>
-    <t>2017-06-23</t>
-  </si>
-  <si>
-    <t>2017-07-05</t>
-  </si>
-  <si>
-    <t>2017-07-06</t>
-  </si>
-  <si>
-    <t>2017-07-07</t>
-  </si>
-  <si>
-    <t>2017-03-15</t>
-  </si>
-  <si>
-    <t>2017-06-21</t>
-  </si>
-  <si>
-    <t>2017-01-24</t>
-  </si>
-  <si>
-    <t>2017-06-20</t>
-  </si>
-  <si>
-    <t>2017-06-19</t>
-  </si>
-  <si>
-    <t>2017-01-19</t>
-  </si>
-  <si>
-    <t>2017-06-15</t>
-  </si>
-  <si>
-    <t>2017-07-17</t>
-  </si>
-  <si>
-    <t>2017-01-11</t>
-  </si>
-  <si>
-    <t>2017-07-18</t>
-  </si>
-  <si>
-    <t>2017-09-25</t>
-  </si>
-  <si>
-    <t>2017-09-26</t>
-  </si>
-  <si>
-    <t>2017-09-27</t>
-  </si>
-  <si>
-    <t>2017-09-19</t>
-  </si>
-  <si>
-    <t>2017-10-16</t>
-  </si>
-  <si>
-    <t>2017-10-17</t>
-  </si>
-  <si>
-    <t>2018-01-31</t>
-  </si>
-  <si>
-    <t>2018-02-22</t>
-  </si>
-  <si>
-    <t>2018-02-01</t>
-  </si>
-  <si>
-    <t>2018-02-23</t>
-  </si>
-  <si>
-    <t>2018-04-04</t>
-  </si>
-  <si>
-    <t>2018-04-03</t>
-  </si>
-  <si>
-    <t>2017-12-28</t>
-  </si>
-  <si>
-    <t>2018-10-19</t>
-  </si>
-  <si>
-    <t>2018-10-22</t>
-  </si>
-  <si>
-    <t>2018-10-23</t>
-  </si>
-  <si>
-    <t>2018-09-18</t>
-  </si>
-  <si>
-    <t>2018-10-12</t>
-  </si>
-  <si>
-    <t>2018-12-13</t>
-  </si>
-  <si>
-    <t>2018-12-17</t>
-  </si>
-  <si>
-    <t>2018-12-18</t>
-  </si>
-  <si>
-    <t>2019-01-03</t>
-  </si>
-  <si>
-    <t>2019-01-04</t>
-  </si>
-  <si>
-    <t>2018-09-07</t>
-  </si>
-  <si>
-    <t>2019-01-07</t>
-  </si>
-  <si>
-    <t>2018-11-13</t>
-  </si>
-  <si>
-    <t>2018-12-07</t>
-  </si>
-  <si>
-    <t>2019-06-19</t>
-  </si>
-  <si>
-    <t>2019-10-31</t>
-  </si>
-  <si>
-    <t>2019-06-20</t>
-  </si>
-  <si>
-    <t>2019-06-21</t>
-  </si>
-  <si>
-    <t>2020-03-31</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>2020-02-21</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-07-13</t>
-  </si>
-  <si>
-    <t>2020-07-14</t>
-  </si>
-  <si>
-    <t>2020-07-15</t>
-  </si>
-  <si>
-    <t>2020-07-16</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>2020-07-22</t>
-  </si>
-  <si>
-    <t>2020-07-23</t>
-  </si>
-  <si>
-    <t>2020-07-28</t>
-  </si>
-  <si>
-    <t>2020-02-26</t>
-  </si>
-  <si>
-    <t>2020-08-04</t>
-  </si>
-  <si>
-    <t>2020-08-05</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
-    <t>2020-08-17</t>
-  </si>
-  <si>
-    <t>2020-08-18</t>
-  </si>
-  <si>
-    <t>2020-10-30</t>
-  </si>
-  <si>
-    <t>2020-11-02</t>
-  </si>
-  <si>
-    <t>2020-08-26</t>
-  </si>
-  <si>
-    <t>2021-01-12</t>
-  </si>
-  <si>
-    <t>2021-01-13</t>
-  </si>
-  <si>
-    <t>2021-01-14</t>
-  </si>
-  <si>
-    <t>2021-01-15</t>
-  </si>
-  <si>
-    <t>2020-11-11</t>
-  </si>
-  <si>
-    <t>2021-01-20</t>
-  </si>
-  <si>
-    <t>2021-01-21</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
     <t>2021-03-09</t>
   </si>
   <si>
@@ -673,553 +676,553 @@
     <t>2021-04-26</t>
   </si>
   <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>2016-02-24</t>
+  </si>
+  <si>
+    <t>2016-03-03</t>
+  </si>
+  <si>
+    <t>2016-03-04</t>
+  </si>
+  <si>
+    <t>2016-03-07</t>
+  </si>
+  <si>
+    <t>2016-03-08</t>
+  </si>
+  <si>
+    <t>2016-03-09</t>
+  </si>
+  <si>
+    <t>2016-03-10</t>
+  </si>
+  <si>
+    <t>2016-03-11</t>
+  </si>
+  <si>
+    <t>2016-03-15</t>
+  </si>
+  <si>
+    <t>2016-03-16</t>
+  </si>
+  <si>
+    <t>2016-06-27</t>
+  </si>
+  <si>
+    <t>2016-06-28</t>
+  </si>
+  <si>
+    <t>2016-06-29</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-07-04</t>
+  </si>
+  <si>
+    <t>2016-07-05</t>
+  </si>
+  <si>
+    <t>2016-07-06</t>
+  </si>
+  <si>
+    <t>2016-07-07</t>
+  </si>
+  <si>
+    <t>2016-07-08</t>
+  </si>
+  <si>
+    <t>2016-07-11</t>
+  </si>
+  <si>
+    <t>2016-07-12</t>
+  </si>
+  <si>
+    <t>2016-07-13</t>
+  </si>
+  <si>
+    <t>2016-07-14</t>
+  </si>
+  <si>
+    <t>2016-07-15</t>
+  </si>
+  <si>
+    <t>2016-07-18</t>
+  </si>
+  <si>
+    <t>2016-07-19</t>
+  </si>
+  <si>
+    <t>2016-07-20</t>
+  </si>
+  <si>
+    <t>2016-07-21</t>
+  </si>
+  <si>
+    <t>2016-07-22</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2016-07-26</t>
+  </si>
+  <si>
+    <t>2016-07-27</t>
+  </si>
+  <si>
+    <t>2016-07-28</t>
+  </si>
+  <si>
+    <t>2016-07-29</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-03</t>
+  </si>
+  <si>
+    <t>2016-08-04</t>
+  </si>
+  <si>
+    <t>2016-08-05</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2016-08-10</t>
+  </si>
+  <si>
+    <t>2016-08-11</t>
+  </si>
+  <si>
+    <t>2016-08-22</t>
+  </si>
+  <si>
+    <t>2016-08-25</t>
+  </si>
+  <si>
+    <t>2016-08-26</t>
+  </si>
+  <si>
+    <t>2016-11-18</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-12-01</t>
+  </si>
+  <si>
+    <t>2016-12-02</t>
+  </si>
+  <si>
+    <t>2016-12-05</t>
+  </si>
+  <si>
+    <t>2016-12-06</t>
+  </si>
+  <si>
+    <t>2016-12-07</t>
+  </si>
+  <si>
+    <t>2016-12-08</t>
+  </si>
+  <si>
+    <t>2016-12-09</t>
+  </si>
+  <si>
+    <t>2016-12-12</t>
+  </si>
+  <si>
+    <t>2016-12-13</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
+    <t>2017-04-06</t>
+  </si>
+  <si>
+    <t>2017-04-10</t>
+  </si>
+  <si>
+    <t>2017-04-11</t>
+  </si>
+  <si>
+    <t>2017-04-12</t>
+  </si>
+  <si>
+    <t>2017-04-13</t>
+  </si>
+  <si>
+    <t>2017-04-18</t>
+  </si>
+  <si>
+    <t>2017-04-19</t>
+  </si>
+  <si>
+    <t>2017-04-20</t>
+  </si>
+  <si>
+    <t>2017-04-21</t>
+  </si>
+  <si>
+    <t>2017-04-24</t>
+  </si>
+  <si>
+    <t>2017-05-09</t>
+  </si>
+  <si>
+    <t>2017-05-10</t>
+  </si>
+  <si>
+    <t>2017-07-24</t>
+  </si>
+  <si>
+    <t>2017-07-25</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>2017-09-05</t>
+  </si>
+  <si>
+    <t>2017-09-06</t>
+  </si>
+  <si>
+    <t>2017-09-07</t>
+  </si>
+  <si>
+    <t>2017-09-08</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>2017-09-12</t>
+  </si>
+  <si>
+    <t>2017-09-13</t>
+  </si>
+  <si>
+    <t>2017-09-15</t>
+  </si>
+  <si>
+    <t>2017-09-18</t>
+  </si>
+  <si>
+    <t>2018-03-15</t>
+  </si>
+  <si>
+    <t>2018-03-16</t>
+  </si>
+  <si>
+    <t>2018-03-19</t>
+  </si>
+  <si>
+    <t>2018-03-23</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2018-03-27</t>
+  </si>
+  <si>
+    <t>2018-03-28</t>
+  </si>
+  <si>
+    <t>2018-03-29</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>2018-06-04</t>
+  </si>
+  <si>
+    <t>2018-06-05</t>
+  </si>
+  <si>
+    <t>2018-06-06</t>
+  </si>
+  <si>
+    <t>2018-06-07</t>
+  </si>
+  <si>
+    <t>2018-06-08</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2018-06-12</t>
+  </si>
+  <si>
+    <t>2018-06-13</t>
+  </si>
+  <si>
+    <t>2018-06-14</t>
+  </si>
+  <si>
+    <t>2018-06-15</t>
+  </si>
+  <si>
+    <t>2018-06-19</t>
+  </si>
+  <si>
+    <t>2018-06-20</t>
+  </si>
+  <si>
+    <t>2018-06-21</t>
+  </si>
+  <si>
+    <t>2018-06-22</t>
+  </si>
+  <si>
+    <t>2018-06-25</t>
+  </si>
+  <si>
+    <t>2018-06-26</t>
+  </si>
+  <si>
+    <t>2018-06-27</t>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+  </si>
+  <si>
+    <t>2018-06-29</t>
+  </si>
+  <si>
+    <t>2018-07-03</t>
+  </si>
+  <si>
+    <t>2018-07-04</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>2018-07-10</t>
+  </si>
+  <si>
+    <t>2018-07-11</t>
+  </si>
+  <si>
+    <t>2019-05-24</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-05-29</t>
+  </si>
+  <si>
+    <t>2019-08-28</t>
+  </si>
+  <si>
+    <t>2019-08-29</t>
+  </si>
+  <si>
+    <t>2019-08-30</t>
+  </si>
+  <si>
+    <t>2019-10-25</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>2019-12-04</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+  </si>
+  <si>
+    <t>2019-12-11</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>2019-12-13</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>2019-12-19</t>
+  </si>
+  <si>
+    <t>2019-12-27</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2020-01-09</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-01-14</t>
+  </si>
+  <si>
+    <t>2020-01-15</t>
+  </si>
+  <si>
+    <t>2020-01-16</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
     <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>2021-07-14</t>
-  </si>
-  <si>
-    <t>2021-06-21</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
-  </si>
-  <si>
-    <t>2016-02-15</t>
-  </si>
-  <si>
-    <t>2016-02-24</t>
-  </si>
-  <si>
-    <t>2016-03-03</t>
-  </si>
-  <si>
-    <t>2016-03-04</t>
-  </si>
-  <si>
-    <t>2016-03-07</t>
-  </si>
-  <si>
-    <t>2016-03-08</t>
-  </si>
-  <si>
-    <t>2016-03-09</t>
-  </si>
-  <si>
-    <t>2016-03-10</t>
-  </si>
-  <si>
-    <t>2016-03-11</t>
-  </si>
-  <si>
-    <t>2016-03-15</t>
-  </si>
-  <si>
-    <t>2016-03-16</t>
-  </si>
-  <si>
-    <t>2016-06-27</t>
-  </si>
-  <si>
-    <t>2016-06-28</t>
-  </si>
-  <si>
-    <t>2016-06-29</t>
-  </si>
-  <si>
-    <t>2016-06-30</t>
-  </si>
-  <si>
-    <t>2016-07-04</t>
-  </si>
-  <si>
-    <t>2016-07-05</t>
-  </si>
-  <si>
-    <t>2016-07-06</t>
-  </si>
-  <si>
-    <t>2016-07-07</t>
-  </si>
-  <si>
-    <t>2016-07-08</t>
-  </si>
-  <si>
-    <t>2016-07-11</t>
-  </si>
-  <si>
-    <t>2016-07-12</t>
-  </si>
-  <si>
-    <t>2016-07-13</t>
-  </si>
-  <si>
-    <t>2016-07-14</t>
-  </si>
-  <si>
-    <t>2016-07-15</t>
-  </si>
-  <si>
-    <t>2016-07-18</t>
-  </si>
-  <si>
-    <t>2016-07-19</t>
-  </si>
-  <si>
-    <t>2016-07-20</t>
-  </si>
-  <si>
-    <t>2016-07-21</t>
-  </si>
-  <si>
-    <t>2016-07-22</t>
-  </si>
-  <si>
-    <t>2016-07-25</t>
-  </si>
-  <si>
-    <t>2016-07-26</t>
-  </si>
-  <si>
-    <t>2016-07-27</t>
-  </si>
-  <si>
-    <t>2016-07-28</t>
-  </si>
-  <si>
-    <t>2016-07-29</t>
-  </si>
-  <si>
-    <t>2016-08-01</t>
-  </si>
-  <si>
-    <t>2016-08-03</t>
-  </si>
-  <si>
-    <t>2016-08-04</t>
-  </si>
-  <si>
-    <t>2016-08-05</t>
-  </si>
-  <si>
-    <t>2016-08-08</t>
-  </si>
-  <si>
-    <t>2016-08-10</t>
-  </si>
-  <si>
-    <t>2016-08-11</t>
-  </si>
-  <si>
-    <t>2016-08-22</t>
-  </si>
-  <si>
-    <t>2016-08-25</t>
-  </si>
-  <si>
-    <t>2016-08-26</t>
-  </si>
-  <si>
-    <t>2016-11-18</t>
-  </si>
-  <si>
-    <t>2016-11-30</t>
-  </si>
-  <si>
-    <t>2016-12-01</t>
-  </si>
-  <si>
-    <t>2016-12-02</t>
-  </si>
-  <si>
-    <t>2016-12-05</t>
-  </si>
-  <si>
-    <t>2016-12-06</t>
-  </si>
-  <si>
-    <t>2016-12-07</t>
-  </si>
-  <si>
-    <t>2016-12-08</t>
-  </si>
-  <si>
-    <t>2016-12-09</t>
-  </si>
-  <si>
-    <t>2016-12-12</t>
-  </si>
-  <si>
-    <t>2016-12-13</t>
-  </si>
-  <si>
-    <t>2017-03-30</t>
-  </si>
-  <si>
-    <t>2017-04-06</t>
-  </si>
-  <si>
-    <t>2017-04-10</t>
-  </si>
-  <si>
-    <t>2017-04-11</t>
-  </si>
-  <si>
-    <t>2017-04-12</t>
-  </si>
-  <si>
-    <t>2017-04-13</t>
-  </si>
-  <si>
-    <t>2017-04-18</t>
-  </si>
-  <si>
-    <t>2017-04-19</t>
-  </si>
-  <si>
-    <t>2017-04-20</t>
-  </si>
-  <si>
-    <t>2017-04-21</t>
-  </si>
-  <si>
-    <t>2017-04-24</t>
-  </si>
-  <si>
-    <t>2017-05-09</t>
-  </si>
-  <si>
-    <t>2017-05-10</t>
-  </si>
-  <si>
-    <t>2017-07-24</t>
-  </si>
-  <si>
-    <t>2017-07-25</t>
-  </si>
-  <si>
-    <t>2017-09-04</t>
-  </si>
-  <si>
-    <t>2017-09-05</t>
-  </si>
-  <si>
-    <t>2017-09-06</t>
-  </si>
-  <si>
-    <t>2017-09-07</t>
-  </si>
-  <si>
-    <t>2017-09-08</t>
-  </si>
-  <si>
-    <t>2017-09-11</t>
-  </si>
-  <si>
-    <t>2017-09-12</t>
-  </si>
-  <si>
-    <t>2017-09-13</t>
-  </si>
-  <si>
-    <t>2017-09-15</t>
-  </si>
-  <si>
-    <t>2017-09-18</t>
-  </si>
-  <si>
-    <t>2018-03-15</t>
-  </si>
-  <si>
-    <t>2018-03-16</t>
-  </si>
-  <si>
-    <t>2018-03-19</t>
-  </si>
-  <si>
-    <t>2018-03-23</t>
-  </si>
-  <si>
-    <t>2018-03-26</t>
-  </si>
-  <si>
-    <t>2018-03-27</t>
-  </si>
-  <si>
-    <t>2018-03-28</t>
-  </si>
-  <si>
-    <t>2018-03-29</t>
-  </si>
-  <si>
-    <t>2018-05-17</t>
-  </si>
-  <si>
-    <t>2018-05-21</t>
-  </si>
-  <si>
-    <t>2018-05-23</t>
-  </si>
-  <si>
-    <t>2018-06-04</t>
-  </si>
-  <si>
-    <t>2018-06-05</t>
-  </si>
-  <si>
-    <t>2018-06-06</t>
-  </si>
-  <si>
-    <t>2018-06-07</t>
-  </si>
-  <si>
-    <t>2018-06-08</t>
-  </si>
-  <si>
-    <t>2018-06-11</t>
-  </si>
-  <si>
-    <t>2018-06-12</t>
-  </si>
-  <si>
-    <t>2018-06-13</t>
-  </si>
-  <si>
-    <t>2018-06-14</t>
-  </si>
-  <si>
-    <t>2018-06-15</t>
-  </si>
-  <si>
-    <t>2018-06-19</t>
-  </si>
-  <si>
-    <t>2018-06-20</t>
-  </si>
-  <si>
-    <t>2018-06-21</t>
-  </si>
-  <si>
-    <t>2018-06-22</t>
-  </si>
-  <si>
-    <t>2018-06-25</t>
-  </si>
-  <si>
-    <t>2018-06-26</t>
-  </si>
-  <si>
-    <t>2018-06-27</t>
-  </si>
-  <si>
-    <t>2018-06-28</t>
-  </si>
-  <si>
-    <t>2018-06-29</t>
-  </si>
-  <si>
-    <t>2018-07-03</t>
-  </si>
-  <si>
-    <t>2018-07-04</t>
-  </si>
-  <si>
-    <t>2018-07-05</t>
-  </si>
-  <si>
-    <t>2018-07-06</t>
-  </si>
-  <si>
-    <t>2018-07-09</t>
-  </si>
-  <si>
-    <t>2018-07-10</t>
-  </si>
-  <si>
-    <t>2018-07-11</t>
-  </si>
-  <si>
-    <t>2019-05-24</t>
-  </si>
-  <si>
-    <t>2019-05-27</t>
-  </si>
-  <si>
-    <t>2019-05-29</t>
-  </si>
-  <si>
-    <t>2019-08-28</t>
-  </si>
-  <si>
-    <t>2019-08-29</t>
-  </si>
-  <si>
-    <t>2019-08-30</t>
-  </si>
-  <si>
-    <t>2019-10-25</t>
-  </si>
-  <si>
-    <t>2019-12-03</t>
-  </si>
-  <si>
-    <t>2019-12-04</t>
-  </si>
-  <si>
-    <t>2019-12-05</t>
-  </si>
-  <si>
-    <t>2019-12-06</t>
-  </si>
-  <si>
-    <t>2019-12-09</t>
-  </si>
-  <si>
-    <t>2019-12-10</t>
-  </si>
-  <si>
-    <t>2019-12-11</t>
-  </si>
-  <si>
-    <t>2019-12-12</t>
-  </si>
-  <si>
-    <t>2019-12-13</t>
-  </si>
-  <si>
-    <t>2019-12-16</t>
-  </si>
-  <si>
-    <t>2019-12-18</t>
-  </si>
-  <si>
-    <t>2019-12-19</t>
-  </si>
-  <si>
-    <t>2019-12-27</t>
-  </si>
-  <si>
-    <t>2019-12-30</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
-    <t>2020-01-09</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>2020-01-13</t>
-  </si>
-  <si>
-    <t>2020-01-14</t>
-  </si>
-  <si>
-    <t>2020-01-15</t>
-  </si>
-  <si>
-    <t>2020-01-16</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>2020-05-12</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>2020-05-15</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-05-19</t>
-  </si>
-  <si>
-    <t>2020-05-20</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>2020-05-25</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
-  </si>
-  <si>
-    <t>2020-06-01</t>
-  </si>
-  <si>
-    <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2020-10-27</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>2021-01-27</t>
-  </si>
-  <si>
-    <t>2021-01-28</t>
-  </si>
-  <si>
-    <t>2021-01-29</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>2021-04-08</t>
-  </si>
-  <si>
-    <t>2021-04-14</t>
-  </si>
-  <si>
-    <t>2021-04-22</t>
   </si>
   <si>
     <t>2021-04-30</t>
@@ -1586,7 +1589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P398"/>
+  <dimension ref="A1:P401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20300,7 +20303,7 @@
         <v>0.5632483895834637</v>
       </c>
       <c r="D375" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="E375">
         <v>0.5264173880682987</v>
@@ -20350,7 +20353,7 @@
         <v>0.3499850704488205</v>
       </c>
       <c r="D376" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E376">
         <v>0.444542315946628</v>
@@ -20450,7 +20453,7 @@
         <v>1.767440067057837</v>
       </c>
       <c r="D378" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E378">
         <v>1.917324392288349</v>
@@ -20500,7 +20503,7 @@
         <v>1.755766974015088</v>
       </c>
       <c r="D379" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E379">
         <v>1.917324392288349</v>
@@ -20550,7 +20553,7 @@
         <v>1.799235962112094</v>
       </c>
       <c r="D380" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E380">
         <v>1.953237741378409</v>
@@ -20600,7 +20603,7 @@
         <v>1.787791616515778</v>
       </c>
       <c r="D381" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E381">
         <v>1.953237741378409</v>
@@ -20644,13 +20647,13 @@
         <v>0</v>
       </c>
       <c r="B382" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C382">
-        <v>1.904846907902699</v>
+        <v>1.884012465206341</v>
       </c>
       <c r="D382" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E382">
         <v>2.048992496671911</v>
@@ -20659,22 +20662,22 @@
         <v>1</v>
       </c>
       <c r="G382">
-        <v>0.002135153092097301</v>
+        <v>0.002115987534793658</v>
       </c>
       <c r="H382">
         <v>0.002311007503328089</v>
       </c>
       <c r="I382">
-        <v>0.1441455887692125</v>
+        <v>0.1649800314655698</v>
       </c>
       <c r="J382">
         <v>0.0834442696357255</v>
       </c>
       <c r="K382">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="L382">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="M382">
         <v>1.57</v>
@@ -20694,13 +20697,13 @@
         <v>1</v>
       </c>
       <c r="B383" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C383">
         <v>1.902343579813627</v>
       </c>
       <c r="D383" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E383">
         <v>2.048992496671911</v>
@@ -20750,7 +20753,7 @@
         <v>1.862102797346283</v>
       </c>
       <c r="D384" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E384">
         <v>2.02424560563573</v>
@@ -20794,13 +20797,13 @@
         <v>1</v>
       </c>
       <c r="B385" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C385">
         <v>1.880118664933999</v>
       </c>
       <c r="D385" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E385">
         <v>2.02424560563573</v>
@@ -20850,7 +20853,7 @@
         <v>1.758150385501947</v>
       </c>
       <c r="D386" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E386">
         <v>1.906831730387091</v>
@@ -20886,7 +20889,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -20900,7 +20903,7 @@
         <v>1.746410460217788</v>
       </c>
       <c r="D387" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E387">
         <v>1.906831730387091</v>
@@ -20936,7 +20939,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -20944,13 +20947,13 @@
         <v>0</v>
       </c>
       <c r="B388" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C388">
         <v>0.9159503213647138</v>
       </c>
       <c r="D388" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E388">
         <v>0.7959503213647137</v>
@@ -20994,13 +20997,13 @@
         <v>0</v>
       </c>
       <c r="B389" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C389">
         <v>0.8094230769230786</v>
       </c>
       <c r="D389" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E389">
         <v>0.6894230769230785</v>
@@ -21044,13 +21047,13 @@
         <v>1</v>
       </c>
       <c r="B390" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C390">
         <v>0.8000000000000016</v>
       </c>
       <c r="D390" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E390">
         <v>0.6894230769230785</v>
@@ -21094,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="B391" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C391">
         <v>0.7208814628806919</v>
@@ -21103,7 +21106,7 @@
         <v>219</v>
       </c>
       <c r="E391">
-        <v>0.6107419569463242</v>
+        <v>0.610811709913508</v>
       </c>
       <c r="F391">
         <v>-1</v>
@@ -21112,10 +21115,10 @@
         <v>0.003819118537119308</v>
       </c>
       <c r="H391">
-        <v>0.003669258043053676</v>
+        <v>0.003689188290086492</v>
       </c>
       <c r="I391">
-        <v>0.1101395059343677</v>
+        <v>0.1100697529671839</v>
       </c>
       <c r="J391">
         <v>0.9930247032816077</v>
@@ -21127,16 +21130,16 @@
         <v>2.27</v>
       </c>
       <c r="M391">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="N391">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="O391">
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -21144,7 +21147,7 @@
         <v>0</v>
       </c>
       <c r="B392" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C392">
         <v>0.5733787424841807</v>
@@ -21194,40 +21197,40 @@
         <v>0</v>
       </c>
       <c r="B393" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C393">
-        <v>0.391158254613184</v>
+        <v>0.3950581391640484</v>
       </c>
       <c r="D393" t="s">
         <v>221</v>
       </c>
       <c r="E393">
-        <v>0.3950581391640484</v>
+        <v>0.3831081968886161</v>
       </c>
       <c r="F393">
         <v>-1</v>
       </c>
       <c r="G393">
-        <v>0.003808841745386816</v>
+        <v>0.003764941860835952</v>
       </c>
       <c r="H393">
-        <v>0.003764941860835952</v>
+        <v>0.003776891803111384</v>
       </c>
       <c r="I393">
-        <v>-0.00389988455086443</v>
+        <v>0.01194994227543233</v>
       </c>
       <c r="J393">
         <v>1.194994227543228</v>
       </c>
       <c r="K393">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="L393">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="M393">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="N393">
         <v>2.08</v>
@@ -21253,7 +21256,7 @@
         <v>221</v>
       </c>
       <c r="E394">
-        <v>0.3976756661015683</v>
+        <v>0.3857442878469695</v>
       </c>
       <c r="F394">
         <v>-1</v>
@@ -21262,10 +21265,10 @@
         <v>0.003806187090407629</v>
       </c>
       <c r="H394">
-        <v>0.003762324333898432</v>
+        <v>0.003774255712153031</v>
       </c>
       <c r="I394">
-        <v>-0.003862756509197762</v>
+        <v>0.008068621745401128</v>
       </c>
       <c r="J394">
         <v>1.193137825459881</v>
@@ -21277,7 +21280,7 @@
         <v>2.1</v>
       </c>
       <c r="M394">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="N394">
         <v>2.08</v>
@@ -21286,48 +21289,48 @@
         <v>1</v>
       </c>
       <c r="P394" t="s">
-        <v>219</v>
+        <v>402</v>
       </c>
     </row>
     <row r="395" spans="1:16">
       <c r="A395" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B395" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C395">
-        <v>0.3989147541813227</v>
+        <v>0.3976756661015683</v>
       </c>
       <c r="D395" t="s">
         <v>221</v>
       </c>
       <c r="E395">
-        <v>0.4027061562207448</v>
+        <v>0.3857442878469695</v>
       </c>
       <c r="F395">
         <v>-1</v>
       </c>
       <c r="G395">
-        <v>0.003801085245818678</v>
+        <v>0.003762324333898432</v>
       </c>
       <c r="H395">
-        <v>0.003757293843779255</v>
+        <v>0.003774255712153031</v>
       </c>
       <c r="I395">
-        <v>-0.003791402039422076</v>
+        <v>0.01193137825459889</v>
       </c>
       <c r="J395">
-        <v>1.189570101971103</v>
+        <v>1.193137825459881</v>
       </c>
       <c r="K395">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="L395">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="M395">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="N395">
         <v>2.08</v>
@@ -21336,7 +21339,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>220</v>
+        <v>402</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -21347,28 +21350,28 @@
         <v>88</v>
       </c>
       <c r="C396">
-        <v>0.3948100767438436</v>
+        <v>0.3989147541813227</v>
       </c>
       <c r="D396" t="s">
         <v>221</v>
       </c>
       <c r="E396">
-        <v>0.3986588868593142</v>
+        <v>0.3908104552010336</v>
       </c>
       <c r="F396">
         <v>-1</v>
       </c>
       <c r="G396">
-        <v>0.003805189923256156</v>
+        <v>0.003801085245818678</v>
       </c>
       <c r="H396">
-        <v>0.003761341113140686</v>
+        <v>0.003769189544798967</v>
       </c>
       <c r="I396">
-        <v>-0.003848810115470558</v>
+        <v>0.008104298980289082</v>
       </c>
       <c r="J396">
-        <v>1.192440505773536</v>
+        <v>1.189570101971103</v>
       </c>
       <c r="K396">
         <v>1.43</v>
@@ -21377,7 +21380,7 @@
         <v>2.1</v>
       </c>
       <c r="M396">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="N396">
         <v>2.08</v>
@@ -21386,57 +21389,57 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
     </row>
     <row r="397" spans="1:16">
       <c r="A397" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B397" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C397">
-        <v>2.36240774237655</v>
+        <v>0.4027061562207448</v>
       </c>
       <c r="D397" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E397">
-        <v>2.27953212459586</v>
+        <v>0.3908104552010336</v>
       </c>
       <c r="F397">
         <v>-1</v>
       </c>
       <c r="G397">
-        <v>0.00205759225762345</v>
+        <v>0.003757293843779255</v>
       </c>
       <c r="H397">
-        <v>0.00198046787540414</v>
+        <v>0.003769189544798967</v>
       </c>
       <c r="I397">
-        <v>0.08287561778068975</v>
+        <v>0.01189570101971116</v>
       </c>
       <c r="J397">
-        <v>-0.0958539260229872</v>
+        <v>1.189570101971103</v>
       </c>
       <c r="K397">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="L397">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="M397">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="N397">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="O397">
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>403</v>
+        <v>220</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -21444,49 +21447,199 @@
         <v>0</v>
       </c>
       <c r="B398" t="s">
+        <v>88</v>
+      </c>
+      <c r="C398">
+        <v>0.3948100767438436</v>
+      </c>
+      <c r="D398" t="s">
+        <v>221</v>
+      </c>
+      <c r="E398">
+        <v>0.386734481801579</v>
+      </c>
+      <c r="F398">
+        <v>-1</v>
+      </c>
+      <c r="G398">
+        <v>0.003805189923256156</v>
+      </c>
+      <c r="H398">
+        <v>0.003773265518198421</v>
+      </c>
+      <c r="I398">
+        <v>0.008075594942264619</v>
+      </c>
+      <c r="J398">
+        <v>1.192440505773536</v>
+      </c>
+      <c r="K398">
+        <v>1.43</v>
+      </c>
+      <c r="L398">
+        <v>2.1</v>
+      </c>
+      <c r="M398">
+        <v>1.42</v>
+      </c>
+      <c r="N398">
+        <v>2.08</v>
+      </c>
+      <c r="O398">
+        <v>1</v>
+      </c>
+      <c r="P398" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16">
+      <c r="A399" s="1">
+        <v>1</v>
+      </c>
+      <c r="B399" t="s">
+        <v>87</v>
+      </c>
+      <c r="C399">
+        <v>0.3986588868593142</v>
+      </c>
+      <c r="D399" t="s">
+        <v>221</v>
+      </c>
+      <c r="E399">
+        <v>0.386734481801579</v>
+      </c>
+      <c r="F399">
+        <v>-1</v>
+      </c>
+      <c r="G399">
+        <v>0.003761341113140686</v>
+      </c>
+      <c r="H399">
+        <v>0.003773265518198421</v>
+      </c>
+      <c r="I399">
+        <v>0.01192440505773518</v>
+      </c>
+      <c r="J399">
+        <v>1.192440505773536</v>
+      </c>
+      <c r="K399">
+        <v>1.41</v>
+      </c>
+      <c r="L399">
+        <v>2.08</v>
+      </c>
+      <c r="M399">
+        <v>1.42</v>
+      </c>
+      <c r="N399">
+        <v>2.08</v>
+      </c>
+      <c r="O399">
+        <v>1</v>
+      </c>
+      <c r="P399" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16">
+      <c r="A400" s="1">
+        <v>0</v>
+      </c>
+      <c r="B400" t="s">
         <v>89</v>
       </c>
-      <c r="C398">
+      <c r="C400">
+        <v>2.36240774237655</v>
+      </c>
+      <c r="D400" t="s">
+        <v>222</v>
+      </c>
+      <c r="E400">
+        <v>2.27665650681517</v>
+      </c>
+      <c r="F400">
+        <v>-1</v>
+      </c>
+      <c r="G400">
+        <v>0.00205759225762345</v>
+      </c>
+      <c r="H400">
+        <v>0.00198334349318483</v>
+      </c>
+      <c r="I400">
+        <v>0.08575123556137942</v>
+      </c>
+      <c r="J400">
+        <v>-0.0958539260229872</v>
+      </c>
+      <c r="K400">
+        <v>1.59</v>
+      </c>
+      <c r="L400">
+        <v>2.21</v>
+      </c>
+      <c r="M400">
+        <v>1.53</v>
+      </c>
+      <c r="N400">
+        <v>2.13</v>
+      </c>
+      <c r="O400">
+        <v>1</v>
+      </c>
+      <c r="P400" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16">
+      <c r="A401" s="1">
+        <v>0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>89</v>
+      </c>
+      <c r="C401">
         <v>2.526368817680956</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D401" t="s">
         <v>223</v>
       </c>
-      <c r="E398">
-        <v>2.434430371730732</v>
-      </c>
-      <c r="F398">
-        <v>-1</v>
-      </c>
-      <c r="G398">
+      <c r="E401">
+        <v>2.420450889747324</v>
+      </c>
+      <c r="F401">
+        <v>-1</v>
+      </c>
+      <c r="G401">
         <v>0.001893631182319044</v>
       </c>
-      <c r="H398">
-        <v>0.001825569628269268</v>
-      </c>
-      <c r="I398">
-        <v>0.0919384459502246</v>
-      </c>
-      <c r="J398">
+      <c r="H401">
+        <v>0.001819549110252677</v>
+      </c>
+      <c r="I401">
+        <v>0.1059179279336329</v>
+      </c>
+      <c r="J401">
         <v>-0.1989740991704129</v>
       </c>
-      <c r="K398">
+      <c r="K401">
         <v>1.59</v>
       </c>
-      <c r="L398">
+      <c r="L401">
         <v>2.21</v>
       </c>
-      <c r="M398">
-        <v>1.53</v>
-      </c>
-      <c r="N398">
-        <v>2.13</v>
-      </c>
-      <c r="O398">
-        <v>1</v>
-      </c>
-      <c r="P398" t="s">
-        <v>404</v>
+      <c r="M401">
+        <v>1.51</v>
+      </c>
+      <c r="N401">
+        <v>2.12</v>
+      </c>
+      <c r="O401">
+        <v>1</v>
+      </c>
+      <c r="P401" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-00525-601333.xlsx
+++ b/s60_signal/position-00525-601333.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="400">
   <si>
     <t>trade_time</t>
   </si>
@@ -277,12 +277,6 @@
     <t>2021-04-15</t>
   </si>
   <si>
-    <t>2021-07-14</t>
-  </si>
-  <si>
-    <t>2021-07-12</t>
-  </si>
-  <si>
     <t>2021-06-11</t>
   </si>
   <si>
@@ -679,9 +673,6 @@
     <t>2021-04-28</t>
   </si>
   <si>
-    <t>2021-07-15</t>
-  </si>
-  <si>
     <t>2021-06-29</t>
   </si>
   <si>
@@ -1217,15 +1208,6 @@
   </si>
   <si>
     <t>2021-04-14</t>
-  </si>
-  <si>
-    <t>2021-04-22</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
   </si>
   <si>
     <t>2021-06-03</t>
@@ -1589,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P401"/>
+  <dimension ref="A1:P393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1635,7 @@
         <v>-2.893306578447853</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>-3.641148109984271</v>
@@ -1689,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1703,7 +1685,7 @@
         <v>-2.596395683063071</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>-3.641148109984271</v>
@@ -1739,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1789,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1839,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1853,7 +1835,7 @@
         <v>-2.854846432353775</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>-3.697130498869741</v>
@@ -1889,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1903,7 +1885,7 @@
         <v>-2.62076620166601</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>-3.697130498869741</v>
@@ -1939,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1953,7 +1935,7 @@
         <v>-4.485186158734111</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>-4.489266389421874</v>
@@ -1989,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2003,7 +1985,7 @@
         <v>-4.51518615873411</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>-4.489266389421874</v>
@@ -2039,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2053,7 +2035,7 @@
         <v>-4.713642972037302</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>-4.489266389421874</v>
@@ -2089,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2103,7 +2085,7 @@
         <v>-4.634340477403791</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>-4.489266389421874</v>
@@ -2139,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2153,7 +2135,7 @@
         <v>-3.266622461213251</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>-4.701411851904431</v>
@@ -2189,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2203,7 +2185,7 @@
         <v>-3.041411252685536</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13">
         <v>-4.701411851904431</v>
@@ -2239,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2253,7 +2235,7 @@
         <v>-5.103665541825247</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>-4.720848429424226</v>
@@ -2289,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2303,7 +2285,7 @@
         <v>-5.25845433329753</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>-4.720848429424226</v>
@@ -2339,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2353,7 +2335,7 @@
         <v>-5.165214803841085</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>-4.720848429424226</v>
@@ -2389,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2403,7 +2385,7 @@
         <v>-3.423632276024851</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17">
         <v>-4.896104022270815</v>
@@ -2439,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2453,7 +2435,7 @@
         <v>-3.201802817354617</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>-4.896104022270815</v>
@@ -2489,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2503,7 +2485,7 @@
         <v>-5.46619039597134</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19">
         <v>-5.17427456360058</v>
@@ -2539,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2553,7 +2535,7 @@
         <v>-5.367636688167424</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20">
         <v>-5.17427456360058</v>
@@ -2589,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2603,7 +2585,7 @@
         <v>-3.515182964200185</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <v>-5.009626875608229</v>
@@ -2639,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2653,7 +2635,7 @@
         <v>-3.295325366506034</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22">
         <v>-5.009626875608229</v>
@@ -2689,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2703,7 +2685,7 @@
         <v>-5.587318998787936</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>-5.093871903520842</v>
@@ -2739,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2753,7 +2735,7 @@
         <v>-5.485666652307316</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24">
         <v>-5.093871903520842</v>
@@ -2789,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2803,7 +2785,7 @@
         <v>-3.383806326393561</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>-5.117029968483751</v>
@@ -2839,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2853,7 +2835,7 @@
         <v>-5.701917832377204</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26">
         <v>-5.42733388782802</v>
@@ -2889,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2903,7 +2885,7 @@
         <v>-5.59733388782802</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>-5.42733388782802</v>
@@ -2939,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2953,7 +2935,7 @@
         <v>-3.452316380679396</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28">
         <v>-5.200191269318666</v>
@@ -2989,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3003,7 +2985,7 @@
         <v>-5.790650734012472</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E29">
         <v>-5.56384792965875</v>
@@ -3039,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3053,7 +3035,7 @@
         <v>-5.683796878026108</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E30">
         <v>-5.56384792965875</v>
@@ -3089,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3103,7 +3085,7 @@
         <v>-3.62044684029153</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31">
         <v>-5.140154081961497</v>
@@ -3139,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3153,7 +3135,7 @@
         <v>-3.402856464543962</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32">
         <v>-5.140154081961497</v>
@@ -3189,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3203,7 +3185,7 @@
         <v>-5.726591204078023</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>-5.278966456000339</v>
@@ -3239,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3253,7 +3235,7 @@
         <v>-3.561370374839291</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E34">
         <v>-5.066899264800722</v>
@@ -3289,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3303,7 +3285,7 @@
         <v>-3.342507582912753</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E35">
         <v>-5.066899264800722</v>
@@ -3339,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3353,7 +3335,7 @@
         <v>-5.648428495941216</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36">
         <v>-5.339173680947644</v>
@@ -3389,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3403,7 +3385,7 @@
         <v>-3.48867163055963</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <v>-4.976752821893942</v>
@@ -3439,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3453,7 +3435,7 @@
         <v>-3.26824301952553</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <v>-4.976752821893942</v>
@@ -3489,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3503,7 +3485,7 @@
         <v>-5.552242465048126</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39">
         <v>-5.332242465048126</v>
@@ -3539,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3553,7 +3535,7 @@
         <v>-3.39280132450331</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E40">
         <v>-4.857873642384104</v>
@@ -3589,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3603,7 +3585,7 @@
         <v>-3.170307814569535</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E41">
         <v>-4.857873642384104</v>
@@ -3639,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3653,7 +3635,7 @@
         <v>-5.425398675496686</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42">
         <v>-5.212897748344369</v>
@@ -3689,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3703,7 +3685,7 @@
         <v>3.896409547559524</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43">
         <v>3.637557788757765</v>
@@ -3739,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3753,7 +3735,7 @@
         <v>3.686370782301712</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44">
         <v>3.637557788757765</v>
@@ -3789,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3803,7 +3785,7 @@
         <v>3.999857615280466</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <v>3.696125600943092</v>
@@ -3839,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3853,7 +3835,7 @@
         <v>3.791532275574967</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E46">
         <v>3.696125600943092</v>
@@ -3889,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3903,7 +3885,7 @@
         <v>4.016648312008632</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47">
         <v>3.562106983197164</v>
@@ -3939,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3953,7 +3935,7 @@
         <v>3.808601079081239</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48">
         <v>3.562106983197164</v>
@@ -3989,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4003,7 +3985,7 @@
         <v>3.921540730472905</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49">
         <v>3.447106959801425</v>
@@ -4039,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4053,7 +4035,7 @@
         <v>3.777106959801425</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50">
         <v>3.447106959801425</v>
@@ -4089,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4103,7 +4085,7 @@
         <v>3.355765574180636</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E51">
         <v>2.97063976553844</v>
@@ -4139,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4153,7 +4135,7 @@
         <v>3.197275277886988</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E52">
         <v>2.97063976553844</v>
@@ -4189,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4203,7 +4185,7 @@
         <v>2.908811773838419</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53">
         <v>2.574206073921443</v>
@@ -4239,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4253,7 +4235,7 @@
         <v>2.739217035300243</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54">
         <v>2.574206073921443</v>
@@ -4289,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4303,7 +4285,7 @@
         <v>2.722206373258291</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55">
         <v>2.392623178946991</v>
@@ -4339,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4353,7 +4335,7 @@
         <v>2.547975475699491</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56">
         <v>2.392623178946991</v>
@@ -4389,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4403,7 +4385,7 @@
         <v>2.662325508545921</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E57">
         <v>2.257085968244024</v>
@@ -4439,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4453,7 +4435,7 @@
         <v>2.48660688764023</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E58">
         <v>2.257085968244024</v>
@@ -4489,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4503,7 +4485,7 @@
         <v>2.572063968281066</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E59">
         <v>2.268115776754144</v>
@@ -4539,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4553,7 +4535,7 @@
         <v>2.444102824635875</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E60">
         <v>2.268115776754144</v>
@@ -4589,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4603,7 +4585,7 @@
         <v>2.542389919676129</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61">
         <v>2.130900537967008</v>
@@ -4639,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4653,7 +4635,7 @@
         <v>2.413691532587338</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62">
         <v>2.130900537967008</v>
@@ -4689,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4703,7 +4685,7 @@
         <v>2.556171463010396</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E63">
         <v>2.23740447163792</v>
@@ -4739,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4753,7 +4735,7 @@
         <v>2.42781547451376</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E64">
         <v>2.23740447163792</v>
@@ -4789,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4803,7 +4785,7 @@
         <v>2.603222072464918</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65">
         <v>2.216035043209388</v>
@@ -4839,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4853,7 +4835,7 @@
         <v>2.476035043209388</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E66">
         <v>2.216035043209388</v>
@@ -4889,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4903,7 +4885,7 @@
         <v>2.630154654909835</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E67">
         <v>2.308272197921324</v>
@@ -4939,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4953,7 +4935,7 @@
         <v>2.503636758137409</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E68">
         <v>2.308272197921324</v>
@@ -4989,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5003,7 +4985,7 @@
         <v>2.66030827488601</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E69">
         <v>2.383994213343331</v>
@@ -5039,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5053,7 +5035,7 @@
         <v>2.534539536373861</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E70">
         <v>2.383994213343331</v>
@@ -5089,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5103,7 +5085,7 @@
         <v>2.666210421069824</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E71">
         <v>2.341003053956531</v>
@@ -5139,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5153,7 +5135,7 @@
         <v>2.695754551182147</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E72">
         <v>2.348235898796299</v>
@@ -5189,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5203,7 +5185,7 @@
         <v>2.688387107470901</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E73">
         <v>2.327107470902277</v>
@@ -5239,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5253,7 +5235,7 @@
         <v>2.705527881761642</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E74">
         <v>2.280646125088861</v>
@@ -5289,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5303,7 +5285,7 @@
         <v>2.704460392769203</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E75">
         <v>2.302015094188537</v>
@@ -5339,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5353,7 +5335,7 @@
         <v>2.691670022178227</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E76">
         <v>2.347919152567092</v>
@@ -5389,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5403,7 +5385,7 @@
         <v>2.574738018548341</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E77">
         <v>2.148773116010439</v>
@@ -5439,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5453,7 +5435,7 @@
         <v>2.466405959031657</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E78">
         <v>2.012974927806115</v>
@@ -5489,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5503,7 +5485,7 @@
         <v>2.470469575425553</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E79">
         <v>2.060469575425552</v>
@@ -5539,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5553,7 +5535,7 @@
         <v>2.334498089130185</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E80">
         <v>1.907509472337494</v>
@@ -5589,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5603,7 +5585,7 @@
         <v>2.408213021180041</v>
       </c>
       <c r="D81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E81">
         <v>1.98668904020824</v>
@@ -5639,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5653,7 +5635,7 @@
         <v>2.636918489431684</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E82">
         <v>2.261468539033603</v>
@@ -5689,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5703,7 +5685,7 @@
         <v>2.846696727407958</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E83">
         <v>2.508912235031609</v>
@@ -5739,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5753,7 +5735,7 @@
         <v>2.895704330159931</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E84">
         <v>2.586570834612932</v>
@@ -5789,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5803,7 +5785,7 @@
         <v>2.722943884604967</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E85">
         <v>2.299653216265908</v>
@@ -5839,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5853,7 +5835,7 @@
         <v>3.129386015914413</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E86">
         <v>2.61595715496026</v>
@@ -5889,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5903,7 +5885,7 @@
         <v>3.221443332486905</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E87">
         <v>2.61595715496026</v>
@@ -5939,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5953,7 +5935,7 @@
         <v>3.148767058664957</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E88">
         <v>2.543317383832596</v>
@@ -5989,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6003,7 +5985,7 @@
         <v>3.240583616942411</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E89">
         <v>2.543317383832596</v>
@@ -6039,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6053,7 +6035,7 @@
         <v>2.818890215375663</v>
       </c>
       <c r="D90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E90">
         <v>2.265161259044684</v>
@@ -6089,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6103,7 +6085,7 @@
         <v>2.720096541548477</v>
       </c>
       <c r="D91" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E91">
         <v>2.290570133597897</v>
@@ -6139,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6153,7 +6135,7 @@
         <v>2.660713894763869</v>
       </c>
       <c r="D92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E92">
         <v>2.195461007763983</v>
@@ -6189,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6203,7 +6185,7 @@
         <v>2.662179072315689</v>
       </c>
       <c r="D93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E93">
         <v>2.350628131035313</v>
@@ -6253,7 +6235,7 @@
         <v>2.50859182943727</v>
       </c>
       <c r="D94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E94">
         <v>1.879284692646113</v>
@@ -6289,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6303,7 +6285,7 @@
         <v>1.429538633940146</v>
       </c>
       <c r="D95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E95">
         <v>1.878152907522461</v>
@@ -6339,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6353,7 +6335,7 @@
         <v>1.456166808206322</v>
       </c>
       <c r="D96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E96">
         <v>1.878152907522461</v>
@@ -6389,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6403,7 +6385,7 @@
         <v>1.449885065544568</v>
       </c>
       <c r="D97" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E97">
         <v>1.878152907522461</v>
@@ -6439,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6453,7 +6435,7 @@
         <v>2.698459413109759</v>
       </c>
       <c r="D98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E98">
         <v>2.076228086890248</v>
@@ -6489,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6503,7 +6485,7 @@
         <v>1.59503398119919</v>
       </c>
       <c r="D99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E99">
         <v>2.078321265243905</v>
@@ -6539,7 +6521,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6553,7 +6535,7 @@
         <v>1.621269054878052</v>
       </c>
       <c r="D100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E100">
         <v>2.078321265243905</v>
@@ -6589,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6603,7 +6585,7 @@
         <v>1.618918318089434</v>
       </c>
       <c r="D101" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E101">
         <v>2.078321265243905</v>
@@ -6639,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6653,7 +6635,7 @@
         <v>2.723511029411768</v>
       </c>
       <c r="D102" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E102">
         <v>2.102213303799785</v>
@@ -6689,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6703,7 +6685,7 @@
         <v>1.616869862075268</v>
       </c>
       <c r="D103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E103">
         <v>2.092366071428574</v>
@@ -6739,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6753,7 +6735,7 @@
         <v>1.643053069053712</v>
       </c>
       <c r="D104" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>2.092366071428574</v>
@@ -6789,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6803,7 +6785,7 @@
         <v>1.641220999269276</v>
       </c>
       <c r="D105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E105">
         <v>2.092366071428574</v>
@@ -6839,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6853,7 +6835,7 @@
         <v>2.964772546531684</v>
       </c>
       <c r="D106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E106">
         <v>2.352465933358952</v>
@@ -6889,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6903,7 +6885,7 @@
         <v>3.058874750922595</v>
       </c>
       <c r="D107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E107">
         <v>2.352465933358952</v>
@@ -6939,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6953,7 +6935,7 @@
         <v>1.827161991904428</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E108">
         <v>2.316305612395345</v>
@@ -6989,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7003,7 +6985,7 @@
         <v>1.852845692636247</v>
       </c>
       <c r="D109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E109">
         <v>2.316305612395345</v>
@@ -7039,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7053,7 +7035,7 @@
         <v>1.856008685318062</v>
       </c>
       <c r="D110" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E110">
         <v>2.316305612395345</v>
@@ -7089,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7103,7 +7085,7 @@
         <v>2.202638839481067</v>
       </c>
       <c r="D111" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E111">
         <v>1.660853987552378</v>
@@ -7139,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7153,7 +7135,7 @@
         <v>1.162859112673973</v>
       </c>
       <c r="D112" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E112">
         <v>1.706062187746931</v>
@@ -7189,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7203,7 +7185,7 @@
         <v>1.190120729983537</v>
       </c>
       <c r="D113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E113">
         <v>1.706062187746931</v>
@@ -7239,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7253,7 +7235,7 @@
         <v>1.177504556887906</v>
       </c>
       <c r="D114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E114">
         <v>1.706062187746931</v>
@@ -7289,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7303,7 +7285,7 @@
         <v>1.416777838279337</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E115">
         <v>0.8890067354016997</v>
@@ -7339,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7353,7 +7335,7 @@
         <v>0.4778746789142878</v>
       </c>
       <c r="D116" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E116">
         <v>0.9778684643520892</v>
@@ -7389,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7403,7 +7385,7 @@
         <v>0.5356519963541242</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E117">
         <v>0.9778684643520892</v>
@@ -7439,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7453,7 +7435,7 @@
         <v>0.5067633376342062</v>
       </c>
       <c r="D118" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E118">
         <v>0.9778684643520892</v>
@@ -7489,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7503,7 +7485,7 @@
         <v>0.477876750435021</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E119">
         <v>0.9778684643520892</v>
@@ -7539,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7553,7 +7535,7 @@
         <v>0.943733873523156</v>
       </c>
       <c r="D120" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E120">
         <v>0.3875605450183359</v>
@@ -7589,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7603,7 +7585,7 @@
         <v>0.06555271377484218</v>
       </c>
       <c r="D121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E121">
         <v>0.5227816757955743</v>
@@ -7639,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7653,7 +7635,7 @@
         <v>0.09542075958535357</v>
       </c>
       <c r="D122" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E122">
         <v>0.5227816757955743</v>
@@ -7689,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7703,7 +7685,7 @@
         <v>0.05674030148024301</v>
       </c>
       <c r="D123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E123">
         <v>0.5227816757955743</v>
@@ -7739,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7753,7 +7735,7 @@
         <v>0.5054107307431819</v>
       </c>
       <c r="D124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E124">
         <v>0.0491242407754946</v>
@@ -7789,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7803,7 +7785,7 @@
         <v>-0.3165053464950738</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E125">
         <v>0.159781143472614</v>
@@ -7839,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7853,7 +7835,7 @@
         <v>-0.33348527076694</v>
       </c>
       <c r="D126" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E126">
         <v>0.159781143472614</v>
@@ -7889,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7903,7 +7885,7 @@
         <v>0.01013524264121379</v>
       </c>
       <c r="D127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E127">
         <v>-0.4676849642004726</v>
@@ -7939,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7953,7 +7935,7 @@
         <v>-0.7744137591392919</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E128">
         <v>-0.3747925900670488</v>
@@ -7989,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8003,7 +7985,7 @@
         <v>-0.2557695520702179</v>
       </c>
       <c r="D129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E129">
         <v>-0.8235135484933682</v>
@@ -8039,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8053,7 +8035,7 @@
         <v>-0.2776909319810326</v>
       </c>
       <c r="D130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E130">
         <v>-0.2477467025920381</v>
@@ -8089,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8103,7 +8085,7 @@
         <v>-0.3908011343092124</v>
       </c>
       <c r="D131" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E131">
         <v>-0.8406732630037332</v>
@@ -8139,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8153,7 +8135,7 @@
         <v>-0.3888256670434034</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E132">
         <v>-0.2128000927823077</v>
@@ -8189,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8203,7 +8185,7 @@
         <v>1.099323115887907</v>
       </c>
       <c r="D133" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E133">
         <v>0.387889534694934</v>
@@ -8239,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8253,7 +8235,7 @@
         <v>1.083343993906462</v>
       </c>
       <c r="D134" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E134">
         <v>0.3268838700002261</v>
@@ -8289,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8303,7 +8285,7 @@
         <v>1.145349122599034</v>
       </c>
       <c r="D135" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E135">
         <v>0.3619408673861413</v>
@@ -8339,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8353,7 +8335,7 @@
         <v>1.076892851489177</v>
       </c>
       <c r="D136" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E136">
         <v>0.2887690811642036</v>
@@ -8389,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8403,7 +8385,7 @@
         <v>0.9728953765433594</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E137">
         <v>0.2054001299670292</v>
@@ -8439,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8453,7 +8435,7 @@
         <v>0.8720431896132981</v>
       </c>
       <c r="D138" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E138">
         <v>0.09424712584458561</v>
@@ -8489,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8503,7 +8485,7 @@
         <v>0.8315744964187708</v>
       </c>
       <c r="D139" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E139">
         <v>0.04964505068482161</v>
@@ -8539,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8553,7 +8535,7 @@
         <v>0.7304738922292362</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E140">
         <v>-0.06178174348131638</v>
@@ -8589,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8603,7 +8585,7 @@
         <v>0.7222547015649674</v>
       </c>
       <c r="D141" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E141">
         <v>-0.07084042392839685</v>
@@ -8639,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8653,7 +8635,7 @@
         <v>4.23617325128652</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E142">
         <v>3.461981920657827</v>
@@ -8689,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8703,7 +8685,7 @@
         <v>4.2899280718093</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E143">
         <v>3.521227138526164</v>
@@ -8739,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8753,7 +8735,7 @@
         <v>4.456463450453921</v>
       </c>
       <c r="D144" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E144">
         <v>3.704772068908834</v>
@@ -8789,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8803,7 +8785,7 @@
         <v>4.839214417852447</v>
       </c>
       <c r="D145" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E145">
         <v>4.126616365519087</v>
@@ -8839,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8853,7 +8835,7 @@
         <v>5.014744472529706</v>
       </c>
       <c r="D146" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E146">
         <v>4.245160231267613</v>
@@ -8889,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8903,7 +8885,7 @@
         <v>5.000093781157554</v>
       </c>
       <c r="D147" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E147">
         <v>4.229152349958373</v>
@@ -8939,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8953,7 +8935,7 @@
         <v>4.826926790424525</v>
       </c>
       <c r="D148" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E148">
         <v>4.113073707261234</v>
@@ -8989,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9003,7 +8985,7 @@
         <v>4.400270331049441</v>
       </c>
       <c r="D149" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E149">
         <v>3.642839509755204</v>
@@ -9039,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9053,7 +9035,7 @@
         <v>3.969466864791235</v>
       </c>
       <c r="D150" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E150">
         <v>3.168034739342359</v>
@@ -9089,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9103,7 +9085,7 @@
         <v>3.815400534424922</v>
       </c>
       <c r="D151" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E151">
         <v>2.998232417988513</v>
@@ -9139,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9153,7 +9135,7 @@
         <v>3.847902386344885</v>
       </c>
       <c r="D152" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E152">
         <v>3.034053936494125</v>
@@ -9189,7 +9171,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9203,7 +9185,7 @@
         <v>3.739610425856585</v>
       </c>
       <c r="D153" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E153">
         <v>2.914701276953577</v>
@@ -9239,7 +9221,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9253,7 +9235,7 @@
         <v>3.764729296087544</v>
       </c>
       <c r="D154" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E154">
         <v>2.942385732505037</v>
@@ -9289,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9303,7 +9285,7 @@
         <v>3.718711008498303</v>
       </c>
       <c r="D155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E155">
         <v>2.891667239770102</v>
@@ -9339,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9353,7 +9335,7 @@
         <v>1.436486720612095</v>
       </c>
       <c r="D156" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E156">
         <v>0.6731330742884634</v>
@@ -9389,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9403,7 +9385,7 @@
         <v>1.244726820412753</v>
       </c>
       <c r="D157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E157">
         <v>0.5049958305736757</v>
@@ -9439,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9453,7 +9435,7 @@
         <v>5.702914875007628</v>
       </c>
       <c r="D158" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E158">
         <v>4.999995484409007</v>
@@ -9489,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9503,7 +9485,7 @@
         <v>4.505339340560991</v>
       </c>
       <c r="D159" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E159">
         <v>4.49533934056099</v>
@@ -9539,7 +9521,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9553,7 +9535,7 @@
         <v>4.306808901002787</v>
       </c>
       <c r="D160" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E160">
         <v>4.49533934056099</v>
@@ -9589,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9603,7 +9585,7 @@
         <v>6.509809176848197</v>
       </c>
       <c r="D161" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E161">
         <v>5.75883309709841</v>
@@ -9639,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9653,7 +9635,7 @@
         <v>5.149505019504025</v>
       </c>
       <c r="D162" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E162">
         <v>5.616961120807806</v>
@@ -9689,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9703,7 +9685,7 @@
         <v>-4.927818287598177</v>
       </c>
       <c r="D163" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E163">
         <v>-3.423739939881703</v>
@@ -9739,7 +9721,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9753,7 +9735,7 @@
         <v>-5.351739552021721</v>
       </c>
       <c r="D164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E164">
         <v>-3.743311354600991</v>
@@ -9789,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9803,7 +9785,7 @@
         <v>-5.566679746992302</v>
       </c>
       <c r="D165" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E165">
         <v>-4.132985698695919</v>
@@ -9839,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9853,7 +9835,7 @@
         <v>-5.696609439803341</v>
       </c>
       <c r="D166" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E166">
         <v>-4.233476466219281</v>
@@ -9889,7 +9871,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9903,7 +9885,7 @@
         <v>-5.75040807221059</v>
       </c>
       <c r="D167" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E167">
         <v>-4.275085629955039</v>
@@ -9939,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9953,7 +9935,7 @@
         <v>-5.591968923585961</v>
       </c>
       <c r="D168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E168">
         <v>-4.152544959638887</v>
@@ -9989,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10003,7 +9985,7 @@
         <v>-5.362490385040697</v>
       </c>
       <c r="D169" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E169">
         <v>-3.975060706658394</v>
@@ -10039,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10053,7 +10035,7 @@
         <v>-2.507111743839585</v>
       </c>
       <c r="D170" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E170">
         <v>-4.047254516344427</v>
@@ -10089,7 +10071,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10103,7 +10085,7 @@
         <v>-5.134126961939156</v>
       </c>
       <c r="D171" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E171">
         <v>-3.79843891093761</v>
@@ -10139,7 +10121,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10153,7 +10135,7 @@
         <v>-4.963804430565657</v>
       </c>
       <c r="D172" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E172">
         <v>-3.666707344934939</v>
@@ -10203,7 +10185,7 @@
         <v>-5.024291625916282</v>
       </c>
       <c r="D173" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E173">
         <v>-3.713489605052797</v>
@@ -10239,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10253,7 +10235,7 @@
         <v>-4.810647567313472</v>
       </c>
       <c r="D174" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E174">
         <v>-3.548252121908546</v>
@@ -10289,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10303,7 +10285,7 @@
         <v>-4.527367099438266</v>
       </c>
       <c r="D175" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E175">
         <v>-3.286247287427305</v>
@@ -10339,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10353,7 +10335,7 @@
         <v>1.259915097541094</v>
       </c>
       <c r="D176" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E176">
         <v>1.158519820616992</v>
@@ -10389,7 +10371,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10403,7 +10385,7 @@
         <v>1.184916726583275</v>
       </c>
       <c r="D177" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E177">
         <v>1.172691348768068</v>
@@ -10439,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10453,7 +10435,7 @@
         <v>1.049813709099592</v>
       </c>
       <c r="D178" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E178">
         <v>1.000464874270701</v>
@@ -10489,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10503,7 +10485,7 @@
         <v>0.7166882287391596</v>
       </c>
       <c r="D179" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E179">
         <v>0.3824058924251874</v>
@@ -10539,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10553,7 +10535,7 @@
         <v>0.7157220123393015</v>
       </c>
       <c r="D180" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E180">
         <v>0.3824058924251874</v>
@@ -10589,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10603,7 +10585,7 @@
         <v>0.7157220123393015</v>
       </c>
       <c r="D181" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E181">
         <v>0.3824058924251874</v>
@@ -10639,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10653,7 +10635,7 @@
         <v>0.4186991258332231</v>
       </c>
       <c r="D182" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E182">
         <v>0.0213012212570054</v>
@@ -10689,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10703,7 +10685,7 @@
         <v>0.4186991258332231</v>
       </c>
       <c r="D183" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E183">
         <v>0.0213012212570054</v>
@@ -10739,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10789,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10839,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10889,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10939,7 +10921,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10953,7 +10935,7 @@
         <v>1.268624677776261</v>
       </c>
       <c r="D188" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E188">
         <v>1.582625511992627</v>
@@ -10989,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11003,7 +10985,7 @@
         <v>1.285793821195491</v>
       </c>
       <c r="D189" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E189">
         <v>1.559453546602203</v>
@@ -11039,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11053,7 +11035,7 @@
         <v>1.316780702717756</v>
       </c>
       <c r="D190" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E190">
         <v>1.547361538049228</v>
@@ -11089,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11103,7 +11085,7 @@
         <v>1.133068166503446</v>
       </c>
       <c r="D191" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E191">
         <v>1.401993513086136</v>
@@ -11139,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11153,7 +11135,7 @@
         <v>1.088256848758593</v>
       </c>
       <c r="D192" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E192">
         <v>1.434633300285655</v>
@@ -11189,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11203,7 +11185,7 @@
         <v>1.813623858427708</v>
       </c>
       <c r="D193" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E193">
         <v>1.425858209046284</v>
@@ -11239,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11253,7 +11235,7 @@
         <v>1.056087101886501</v>
       </c>
       <c r="D194" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E194">
         <v>1.475198819417429</v>
@@ -11289,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11303,7 +11285,7 @@
         <v>1.831484324717041</v>
       </c>
       <c r="D195" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E195">
         <v>1.441005693114453</v>
@@ -11339,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11353,7 +11335,7 @@
         <v>1.069742445733029</v>
       </c>
       <c r="D196" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E196">
         <v>1.488718514152899</v>
@@ -11389,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11403,7 +11385,7 @@
         <v>1.837661043092234</v>
       </c>
       <c r="D197" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E197">
         <v>1.446244175787084</v>
@@ -11439,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11453,7 +11435,7 @@
         <v>1.074464898769252</v>
       </c>
       <c r="D198" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E198">
         <v>1.493394055403994</v>
@@ -11489,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11503,7 +11485,7 @@
         <v>1.837752806536338</v>
       </c>
       <c r="D199" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E199">
         <v>1.446322000480185</v>
@@ -11539,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11553,7 +11535,7 @@
         <v>1.074535057149301</v>
       </c>
       <c r="D200" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E200">
         <v>1.493463516846493</v>
@@ -11589,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11603,7 +11585,7 @@
         <v>1.825402047539555</v>
       </c>
       <c r="D201" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E201">
         <v>1.435847306141142</v>
@@ -11639,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11653,7 +11635,7 @@
         <v>1.065092198372015</v>
       </c>
       <c r="D202" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E202">
         <v>1.484114461302094</v>
@@ -11689,7 +11671,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11703,7 +11685,7 @@
         <v>1.861617863704522</v>
       </c>
       <c r="D203" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E203">
         <v>1.466561985673455</v>
@@ -11739,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11753,7 +11735,7 @@
         <v>1.092781252756369</v>
       </c>
       <c r="D204" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E204">
         <v>1.511528458854815</v>
@@ -11789,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11803,7 +11785,7 @@
         <v>1.876754966932714</v>
       </c>
       <c r="D205" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E205">
         <v>1.479399782082176</v>
@@ -11839,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11853,7 +11835,7 @@
         <v>1.104354430414379</v>
       </c>
       <c r="D206" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E206">
         <v>1.522986671171852</v>
@@ -11889,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11903,7 +11885,7 @@
         <v>1.85316775720275</v>
       </c>
       <c r="D207" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E207">
         <v>1.459395439652966</v>
@@ -11939,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11953,7 +11935,7 @@
         <v>1.086320665000584</v>
       </c>
       <c r="D208" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E208">
         <v>1.505132049123094</v>
@@ -11989,7 +11971,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12003,7 +11985,7 @@
         <v>1.779730028029443</v>
       </c>
       <c r="D209" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E209">
         <v>1.397112808581932</v>
@@ -12039,7 +12021,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12053,7 +12035,7 @@
         <v>1.030173337885802</v>
       </c>
       <c r="D210" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E210">
         <v>1.449542476913426</v>
@@ -12089,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12103,7 +12085,7 @@
         <v>1.658318925527395</v>
       </c>
       <c r="D211" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E211">
         <v>1.294143898865006</v>
@@ -12139,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12153,7 +12135,7 @@
         <v>0.9373476342006919</v>
       </c>
       <c r="D212" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E212">
         <v>1.357638882867572</v>
@@ -12189,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12203,7 +12185,7 @@
         <v>1.524088846622344</v>
       </c>
       <c r="D213" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E213">
         <v>1.18030319903414</v>
@@ -12239,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12253,7 +12235,7 @@
         <v>1.516096053953746</v>
       </c>
       <c r="D214" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E214">
         <v>1.18030319903414</v>
@@ -12289,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12303,7 +12285,7 @@
         <v>0.8347210928606277</v>
       </c>
       <c r="D215" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E215">
         <v>1.188653245722397</v>
@@ -12339,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12353,7 +12335,7 @@
         <v>1.2601799162582</v>
       </c>
       <c r="D216" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E216">
         <v>0.9564817011303721</v>
@@ -12389,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12403,7 +12385,7 @@
         <v>1.266536433399546</v>
       </c>
       <c r="D217" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E217">
         <v>0.9564817011303721</v>
@@ -12439,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12453,7 +12435,7 @@
         <v>0.6329476828100669</v>
       </c>
       <c r="D218" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E218">
         <v>0.9595778612972841</v>
@@ -12489,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12503,7 +12485,7 @@
         <v>1.040216421991335</v>
       </c>
       <c r="D219" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E219">
         <v>0.7699303832078415</v>
@@ -12539,7 +12521,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12553,7 +12535,7 @@
         <v>1.041744836579313</v>
       </c>
       <c r="D220" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E220">
         <v>0.7699303832078415</v>
@@ -12589,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12603,7 +12585,7 @@
         <v>1.074973289025366</v>
       </c>
       <c r="D221" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E221">
         <v>0.7699303832078415</v>
@@ -12639,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12653,7 +12635,7 @@
         <v>0.4647730618769197</v>
       </c>
       <c r="D222" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E222">
         <v>0.7947444579985703</v>
@@ -12689,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12703,7 +12685,7 @@
         <v>0.9454421251514917</v>
       </c>
       <c r="D223" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E223">
         <v>0.681784458813524</v>
@@ -12739,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12753,7 +12735,7 @@
         <v>0.9844592651697082</v>
       </c>
       <c r="D224" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E224">
         <v>0.681784458813524</v>
@@ -12789,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12803,7 +12785,7 @@
         <v>0.3853101688408485</v>
       </c>
       <c r="D225" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E225">
         <v>0.6868602979367258</v>
@@ -12839,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12853,7 +12835,7 @@
         <v>0.9549493355627496</v>
       </c>
       <c r="D226" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E226">
         <v>0.6904864136981455</v>
@@ -12889,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12903,7 +12885,7 @@
         <v>0.9933950039169015</v>
       </c>
       <c r="D227" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E227">
         <v>0.6904864136981455</v>
@@ -12939,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12953,7 +12935,7 @@
         <v>0.3931549162293728</v>
       </c>
       <c r="D228" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E228">
         <v>0.6988520528231206</v>
@@ -12989,7 +12971,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13003,7 +12985,7 @@
         <v>0.8352295499502258</v>
       </c>
       <c r="D229" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E229">
         <v>0.5364590093992025</v>
@@ -13039,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13053,7 +13035,7 @@
         <v>0.2543003607121168</v>
       </c>
       <c r="D230" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E230">
         <v>0.5584533336781012</v>
@@ -13089,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13103,7 +13085,7 @@
         <v>0.7309868197475642</v>
       </c>
       <c r="D231" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E231">
         <v>0.4349435599285871</v>
@@ -13139,7 +13121,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13153,7 +13135,7 @@
         <v>0.1627849405923385</v>
       </c>
       <c r="D232" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E232">
         <v>0.4687561007130205</v>
@@ -13189,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13203,7 +13185,7 @@
         <v>0.6963364946308443</v>
       </c>
       <c r="D233" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E233">
         <v>0.4011997840155024</v>
@@ -13239,7 +13221,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13253,7 +13235,7 @@
         <v>0.1323651784259154</v>
       </c>
       <c r="D234" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E234">
         <v>0.4389407046823544</v>
@@ -13289,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13303,7 +13285,7 @@
         <v>0.6265973619781331</v>
       </c>
       <c r="D235" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E235">
         <v>0.3332852216938216</v>
@@ -13339,7 +13321,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13353,7 +13335,7 @@
         <v>0.07114070731801236</v>
       </c>
       <c r="D236" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E236">
         <v>0.3789326137951377</v>
@@ -13389,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13403,7 +13385,7 @@
         <v>0.5557568490496352</v>
       </c>
       <c r="D237" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E237">
         <v>0.3201663194080338</v>
@@ -13439,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13453,7 +13435,7 @@
         <v>0.5557568490496352</v>
       </c>
       <c r="D238" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E238">
         <v>0.3201663194080338</v>
@@ -13489,7 +13471,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13503,7 +13485,7 @@
         <v>0.05931411480963034</v>
       </c>
       <c r="D239" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E239">
         <v>0.3673409867008299</v>
@@ -13539,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13553,7 +13535,7 @@
         <v>0.621266404836974</v>
       </c>
       <c r="D240" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E240">
         <v>0.385066244864444</v>
@@ -13589,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13603,7 +13585,7 @@
         <v>0.6239502035590574</v>
       </c>
       <c r="D241" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E241">
         <v>0.385066244864444</v>
@@ -13639,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13653,7 +13635,7 @@
         <v>0.6239502035590574</v>
       </c>
       <c r="D242" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E242">
         <v>0.385066244864444</v>
@@ -13689,7 +13671,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13703,7 +13685,7 @@
         <v>0.1788660848919132</v>
       </c>
       <c r="D243" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E243">
         <v>0.4246853984473891</v>
@@ -13739,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13753,7 +13735,7 @@
         <v>0.6324090002289315</v>
       </c>
       <c r="D244" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E244">
         <v>0.3952650685155521</v>
@@ -13789,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13803,7 +13785,7 @@
         <v>0.6346665794551472</v>
       </c>
       <c r="D245" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E245">
         <v>0.3952650685155521</v>
@@ -13839,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13853,7 +13835,7 @@
         <v>0.6346665794551472</v>
       </c>
       <c r="D246" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E246">
         <v>0.3952650685155521</v>
@@ -13889,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13903,7 +13885,7 @@
         <v>0.1881211368021729</v>
       </c>
       <c r="D247" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E247">
         <v>0.4336968963600101</v>
@@ -13939,7 +13921,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13953,7 +13935,7 @@
         <v>0.6829592558982664</v>
       </c>
       <c r="D248" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E248">
         <v>0.441533745152785</v>
@@ -13989,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14003,7 +13985,7 @@
         <v>0.6832832187874041</v>
       </c>
       <c r="D249" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E249">
         <v>0.441533745152785</v>
@@ -14039,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14053,7 +14035,7 @@
         <v>0.6832832187874041</v>
       </c>
       <c r="D250" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E250">
         <v>0.441533745152785</v>
@@ -14089,7 +14071,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14103,7 +14085,7 @@
         <v>0.2301082344073033</v>
       </c>
       <c r="D251" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E251">
         <v>0.4745790703439532</v>
@@ -14139,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14153,7 +14135,7 @@
         <v>0.7754846695867457</v>
       </c>
       <c r="D252" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E252">
         <v>0.5262223068621856</v>
@@ -14189,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14203,7 +14185,7 @@
         <v>0.824717831524155</v>
       </c>
       <c r="D253" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E253">
         <v>0.5262223068621856</v>
@@ -14239,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14253,7 +14235,7 @@
         <v>0.3069599441376254</v>
       </c>
       <c r="D254" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E254">
         <v>0.5494083666603191</v>
@@ -14289,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14303,7 +14285,7 @@
         <v>0.9599629043208022</v>
       </c>
       <c r="D255" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E255">
         <v>1.134910071595908</v>
@@ -14339,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14353,7 +14335,7 @@
         <v>1.286097121996389</v>
       </c>
       <c r="D256" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E256">
         <v>1.119751573421224</v>
@@ -14389,7 +14371,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14403,7 +14385,7 @@
         <v>0.8954130056318945</v>
       </c>
       <c r="D257" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E257">
         <v>1.055413005631895</v>
@@ -14439,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14453,7 +14435,7 @@
         <v>1.202360441278745</v>
       </c>
       <c r="D258" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E258">
         <v>1.03217696150402</v>
@@ -14489,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14503,7 +14485,7 @@
         <v>0.7184047868704915</v>
       </c>
       <c r="D259" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E259">
         <v>0.897246951281871</v>
@@ -14539,7 +14521,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14553,7 +14535,7 @@
         <v>1.037880541268793</v>
       </c>
       <c r="D260" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E260">
         <v>0.8706167327436121</v>
@@ -14589,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14603,7 +14585,7 @@
         <v>1.344384991739593</v>
       </c>
       <c r="D261" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E261">
         <v>1.412833444305319</v>
@@ -14639,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14653,7 +14635,7 @@
         <v>1.295455729615361</v>
       </c>
       <c r="D262" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E262">
         <v>1.399053391868887</v>
@@ -14689,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14703,7 +14685,7 @@
         <v>1.247900082267936</v>
       </c>
       <c r="D263" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E263">
         <v>1.480439984508878</v>
@@ -14739,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14753,7 +14735,7 @@
         <v>1.223974537812843</v>
       </c>
       <c r="D264" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E264">
         <v>1.457637705051676</v>
@@ -14839,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14853,7 +14835,7 @@
         <v>1.0622369081479</v>
       </c>
       <c r="D266" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E266">
         <v>1.2222369081479</v>
@@ -14889,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14903,7 +14885,7 @@
         <v>1.39714237911996</v>
       </c>
       <c r="D267" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E267">
         <v>1.311393675757068</v>
@@ -14939,7 +14921,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -14953,7 +14935,7 @@
         <v>0.8656248277462677</v>
       </c>
       <c r="D268" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E268">
         <v>1.084160634764066</v>
@@ -14989,7 +14971,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15003,7 +14985,7 @@
         <v>1.243914185004134</v>
       </c>
       <c r="D269" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E269">
         <v>1.193914185004133</v>
@@ -15039,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15053,7 +15035,7 @@
         <v>0.6264474161926654</v>
       </c>
       <c r="D270" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E270">
         <v>0.8573351083141707</v>
@@ -15089,7 +15071,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15103,7 +15085,7 @@
         <v>1.057513009802735</v>
       </c>
       <c r="D271" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E271">
         <v>0.988341401428052</v>
@@ -15139,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15153,7 +15135,7 @@
         <v>0.5508399511301141</v>
       </c>
       <c r="D272" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E272">
         <v>0.7856322541233942</v>
@@ -15189,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15203,7 +15185,7 @@
         <v>0.9985888821014035</v>
       </c>
       <c r="D273" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E273">
         <v>0.9271686010995708</v>
@@ -15239,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15253,7 +15235,7 @@
         <v>0.4053416723149885</v>
       </c>
       <c r="D274" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E274">
         <v>0.666724382278634</v>
@@ -15289,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15303,7 +15285,7 @@
         <v>0.9008725121695709</v>
       </c>
       <c r="D275" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E275">
         <v>0.8120247704726087</v>
@@ -15339,7 +15321,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15353,7 +15335,7 @@
         <v>0.2524265204263942</v>
       </c>
       <c r="D276" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E276">
         <v>0.5554941770903916</v>
@@ -15389,7 +15371,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15403,7 +15385,7 @@
         <v>0.2294545121727958</v>
       </c>
       <c r="D277" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E277">
         <v>0.5343135639758354</v>
@@ -15439,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15453,7 +15435,7 @@
         <v>0.2511617312072869</v>
       </c>
       <c r="D278" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E278">
         <v>0.5543280182232331</v>
@@ -15489,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15503,7 +15485,7 @@
         <v>0.330938321030898</v>
       </c>
       <c r="D279" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E279">
         <v>0.6169560865757506</v>
@@ -15539,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15553,7 +15535,7 @@
         <v>0.3190867008632514</v>
       </c>
       <c r="D280" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E280">
         <v>0.6169560865757506</v>
@@ -15589,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15603,7 +15585,7 @@
         <v>0.8973239084198648</v>
       </c>
       <c r="D281" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E281">
         <v>0.8673239084198645</v>
@@ -15639,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15653,7 +15635,7 @@
         <v>0.5047409711889603</v>
       </c>
       <c r="D282" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E282">
         <v>0.7616569728121176</v>
@@ -15689,7 +15671,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15703,7 +15685,7 @@
         <v>1.010348978763694</v>
       </c>
       <c r="D283" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E283">
         <v>0.9495779791694832</v>
@@ -15739,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15753,7 +15735,7 @@
         <v>0.7124003213085996</v>
       </c>
       <c r="D284" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E284">
         <v>0.9388491310062772</v>
@@ -15789,7 +15771,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15839,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15889,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -15903,7 +15885,7 @@
         <v>0.7739548177870597</v>
       </c>
       <c r="D287" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E287">
         <v>0.9972247567745822</v>
@@ -15939,7 +15921,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -15953,7 +15935,7 @@
         <v>1.172471829824657</v>
       </c>
       <c r="D288" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E288">
         <v>1.155095366349694</v>
@@ -15989,7 +15971,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -16003,7 +15985,7 @@
         <v>1.208783598087175</v>
       </c>
       <c r="D289" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E289">
         <v>1.155095366349694</v>
@@ -16039,7 +16021,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16053,7 +16035,7 @@
         <v>1.163574451712196</v>
       </c>
       <c r="D290" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E290">
         <v>1.155095366349694</v>
@@ -16089,7 +16071,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16103,7 +16085,7 @@
         <v>1.083287783547417</v>
       </c>
       <c r="D291" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E291">
         <v>1.266654823722328</v>
@@ -16139,7 +16121,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16189,7 +16171,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16239,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16253,7 +16235,7 @@
         <v>1.005187969924811</v>
       </c>
       <c r="D294" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E294">
         <v>1.216516290726816</v>
@@ -16289,7 +16271,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16303,7 +16285,7 @@
         <v>1.37922305764411</v>
       </c>
       <c r="D295" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E295">
         <v>1.377468671679197</v>
@@ -16339,7 +16321,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16353,7 +16335,7 @@
         <v>1.373157894736842</v>
       </c>
       <c r="D296" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E296">
         <v>1.377468671679197</v>
@@ -16389,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16403,7 +16385,7 @@
         <v>0.8802418207681344</v>
       </c>
       <c r="D297" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E297">
         <v>1.098022759601705</v>
@@ -16439,7 +16421,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16453,7 +16435,7 @@
         <v>1.287126600284493</v>
       </c>
       <c r="D298" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E298">
         <v>1.26116642958748</v>
@@ -16489,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16503,7 +16485,7 @@
         <v>1.286927453769557</v>
       </c>
       <c r="D299" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E299">
         <v>1.26116642958748</v>
@@ -16539,7 +16521,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16553,7 +16535,7 @@
         <v>0.5899232633927847</v>
       </c>
       <c r="D300" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E300">
         <v>0.8607264291791745</v>
@@ -16589,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16639,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16689,7 +16671,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16703,7 +16685,7 @@
         <v>0.50590909090909</v>
       </c>
       <c r="D303" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E303">
         <v>0.824097311139564</v>
@@ -16739,7 +16721,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -16753,7 +16735,7 @@
         <v>1.058847631241997</v>
       </c>
       <c r="D304" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E304">
         <v>1.040422535211267</v>
@@ -16789,7 +16771,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16803,7 +16785,7 @@
         <v>1.101209987195902</v>
       </c>
       <c r="D305" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E305">
         <v>1.040422535211267</v>
@@ -16839,7 +16821,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16853,7 +16835,7 @@
         <v>1.061209987195902</v>
       </c>
       <c r="D306" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E306">
         <v>1.040422535211267</v>
@@ -16889,7 +16871,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16903,7 +16885,7 @@
         <v>0.3348874640146549</v>
       </c>
       <c r="D307" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E307">
         <v>0.6892070138707138</v>
@@ -16939,7 +16921,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16953,7 +16935,7 @@
         <v>0.9751517927244169</v>
       </c>
       <c r="D308" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E308">
         <v>0.904611358283171</v>
@@ -16989,7 +16971,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17003,7 +16985,7 @@
         <v>0.22440600683947</v>
       </c>
       <c r="D309" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E309">
         <v>0.6020667096198637</v>
@@ -17039,7 +17021,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17053,7 +17035,7 @@
         <v>0.8937171036328486</v>
       </c>
       <c r="D310" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E310">
         <v>0.7705397234474891</v>
@@ -17089,7 +17071,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17103,7 +17085,7 @@
         <v>0.1082096332420339</v>
       </c>
       <c r="D311" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E311">
         <v>0.5104188656556885</v>
@@ -17139,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17153,7 +17135,7 @@
         <v>-0.008130440028267572</v>
       </c>
       <c r="D312" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E312">
         <v>0.4186576811044649</v>
@@ -17189,7 +17171,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17203,7 +17185,7 @@
         <v>-0.2955074520936858</v>
       </c>
       <c r="D313" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E313">
         <v>0.1677359829666414</v>
@@ -17239,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17289,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17339,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17353,7 +17335,7 @@
         <v>1.724076346434568</v>
       </c>
       <c r="D316" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E316">
         <v>1.515642348344327</v>
@@ -17389,7 +17371,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17439,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17489,7 +17471,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17503,7 +17485,7 @@
         <v>1.696820681178639</v>
       </c>
       <c r="D319" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E319">
         <v>1.493247566063977</v>
@@ -17539,7 +17521,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17589,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17639,7 +17621,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17653,7 +17635,7 @@
         <v>1.664882012342569</v>
       </c>
       <c r="D322" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E322">
         <v>1.414710468897303</v>
@@ -17689,7 +17671,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17739,7 +17721,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17789,7 +17771,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17803,7 +17785,7 @@
         <v>1.643053663665036</v>
       </c>
       <c r="D325" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E325">
         <v>1.396497005988024</v>
@@ -17839,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17889,7 +17871,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17939,7 +17921,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17953,7 +17935,7 @@
         <v>1.61962915718182</v>
       </c>
       <c r="D328" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E328">
         <v>1.376951717138971</v>
@@ -17989,7 +17971,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18039,7 +18021,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18089,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18103,7 +18085,7 @@
         <v>1.598153375013795</v>
       </c>
       <c r="D331" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E331">
         <v>1.359032433928708</v>
@@ -18139,7 +18121,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18189,7 +18171,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18239,7 +18221,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18253,7 +18235,7 @@
         <v>1.570406166624607</v>
       </c>
       <c r="D334" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E334">
         <v>1.335880304635819</v>
@@ -18289,7 +18271,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18339,7 +18321,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18389,7 +18371,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18403,7 +18385,7 @@
         <v>1.53933838661172</v>
       </c>
       <c r="D337" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E337">
         <v>1.309957507300225</v>
@@ -18439,7 +18421,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18553,7 +18535,7 @@
         <v>1.510449616201756</v>
       </c>
       <c r="D340" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E340">
         <v>1.320449616201756</v>
@@ -18639,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18653,7 +18635,7 @@
         <v>1.474476712309384</v>
       </c>
       <c r="D342" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E342">
         <v>1.284476712309384</v>
@@ -18689,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18739,7 +18721,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18789,7 +18771,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18803,7 +18785,7 @@
         <v>1.43169474125916</v>
       </c>
       <c r="D345" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E345">
         <v>1.24169474125916</v>
@@ -18839,7 +18821,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -19003,7 +18985,7 @@
         <v>1.372114445177575</v>
       </c>
       <c r="D349" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E349">
         <v>1.182114445177575</v>
@@ -19089,7 +19071,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19139,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19153,7 +19135,7 @@
         <v>1.341200461638077</v>
       </c>
       <c r="D352" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E352">
         <v>1.151200461638077</v>
@@ -19189,7 +19171,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19203,7 +19185,7 @@
         <v>1.309879175702464</v>
       </c>
       <c r="D353" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E353">
         <v>1.119879175702464</v>
@@ -19289,7 +19271,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19303,7 +19285,7 @@
         <v>1.284826807940879</v>
       </c>
       <c r="D355" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E355">
         <v>1.094826807940879</v>
@@ -19339,7 +19321,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19389,7 +19371,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19403,7 +19385,7 @@
         <v>1.254947268845516</v>
       </c>
       <c r="D357" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E357">
         <v>1.064947268845516</v>
@@ -19439,7 +19421,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19503,7 +19485,7 @@
         <v>1.204148422477695</v>
       </c>
       <c r="D359" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E359">
         <v>1.014148422477695</v>
@@ -19553,7 +19535,7 @@
         <v>0.7565800947331744</v>
       </c>
       <c r="D360" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E360">
         <v>0.7662610529884266</v>
@@ -19589,7 +19571,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19603,7 +19585,7 @@
         <v>0.7358955841180959</v>
       </c>
       <c r="D361" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E361">
         <v>0.7460729511326034</v>
@@ -19639,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19653,7 +19635,7 @@
         <v>0.6769876002917579</v>
       </c>
       <c r="D362" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E362">
         <v>0.7067614879649891</v>
@@ -19689,7 +19671,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19703,7 +19685,7 @@
         <v>0.6104223551406667</v>
       </c>
       <c r="D363" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E363">
         <v>0.6717864324675069</v>
@@ -19789,7 +19771,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19803,7 +19785,7 @@
         <v>0.798189415570248</v>
       </c>
       <c r="D365" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E365">
         <v>0.5671969948491258</v>
@@ -19839,7 +19821,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19889,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19939,7 +19921,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19953,7 +19935,7 @@
         <v>0.8309217545939529</v>
       </c>
       <c r="D368" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E368">
         <v>0.605257854179015</v>
@@ -19989,7 +19971,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20003,7 +19985,7 @@
         <v>0.4620509780675748</v>
       </c>
       <c r="D369" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E369">
         <v>0.4201630112625956</v>
@@ -20039,7 +20021,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20053,7 +20035,7 @@
         <v>0.480352697095435</v>
       </c>
       <c r="D370" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E370">
         <v>0.4201630112625956</v>
@@ -20089,7 +20071,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20103,7 +20085,7 @@
         <v>0.5468482902083864</v>
       </c>
       <c r="D371" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E371">
         <v>0.4879084704937777</v>
@@ -20139,7 +20121,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20153,7 +20135,7 @@
         <v>0.5179084704937775</v>
       </c>
       <c r="D372" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E372">
         <v>0.4879084704937777</v>
@@ -20189,7 +20171,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20203,7 +20185,7 @@
         <v>0.5818340929808579</v>
       </c>
       <c r="D373" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E373">
         <v>0.549200546946218</v>
@@ -20239,7 +20221,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20253,7 +20235,7 @@
         <v>0.5548113035551514</v>
       </c>
       <c r="D374" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E374">
         <v>0.549200546946218</v>
@@ -20289,7 +20271,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20303,7 +20285,7 @@
         <v>0.5632483895834637</v>
       </c>
       <c r="D375" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E375">
         <v>0.5264173880682987</v>
@@ -20339,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20353,7 +20335,7 @@
         <v>0.3499850704488205</v>
       </c>
       <c r="D376" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E376">
         <v>0.444542315946628</v>
@@ -20389,7 +20371,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20439,7 +20421,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20453,7 +20435,7 @@
         <v>1.767440067057837</v>
       </c>
       <c r="D378" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E378">
         <v>1.917324392288349</v>
@@ -20489,7 +20471,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20503,7 +20485,7 @@
         <v>1.755766974015088</v>
       </c>
       <c r="D379" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E379">
         <v>1.917324392288349</v>
@@ -20539,7 +20521,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -20553,7 +20535,7 @@
         <v>1.799235962112094</v>
       </c>
       <c r="D380" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E380">
         <v>1.953237741378409</v>
@@ -20589,7 +20571,7 @@
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -20603,7 +20585,7 @@
         <v>1.787791616515778</v>
       </c>
       <c r="D381" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E381">
         <v>1.953237741378409</v>
@@ -20639,7 +20621,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20653,7 +20635,7 @@
         <v>1.884012465206341</v>
       </c>
       <c r="D382" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E382">
         <v>2.048992496671911</v>
@@ -20689,7 +20671,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20703,7 +20685,7 @@
         <v>1.902343579813627</v>
       </c>
       <c r="D383" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E383">
         <v>2.048992496671911</v>
@@ -20739,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -20753,7 +20735,7 @@
         <v>1.862102797346283</v>
       </c>
       <c r="D384" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E384">
         <v>2.02424560563573</v>
@@ -20789,7 +20771,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -20803,7 +20785,7 @@
         <v>1.880118664933999</v>
       </c>
       <c r="D385" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E385">
         <v>2.02424560563573</v>
@@ -20839,7 +20821,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -20853,7 +20835,7 @@
         <v>1.758150385501947</v>
       </c>
       <c r="D386" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E386">
         <v>1.906831730387091</v>
@@ -20889,7 +20871,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -20903,7 +20885,7 @@
         <v>1.746410460217788</v>
       </c>
       <c r="D387" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E387">
         <v>1.906831730387091</v>
@@ -20939,7 +20921,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -20953,7 +20935,7 @@
         <v>0.9159503213647138</v>
       </c>
       <c r="D388" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E388">
         <v>0.7959503213647137</v>
@@ -20989,7 +20971,7 @@
         <v>1</v>
       </c>
       <c r="P388" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -21003,7 +20985,7 @@
         <v>0.8094230769230786</v>
       </c>
       <c r="D389" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E389">
         <v>0.6894230769230785</v>
@@ -21039,7 +21021,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -21053,7 +21035,7 @@
         <v>0.8000000000000016</v>
       </c>
       <c r="D390" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E390">
         <v>0.6894230769230785</v>
@@ -21089,7 +21071,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -21100,28 +21082,28 @@
         <v>86</v>
       </c>
       <c r="C391">
-        <v>0.7208814628806919</v>
+        <v>0.5733787424841807</v>
       </c>
       <c r="D391" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E391">
-        <v>0.610811709913508</v>
+        <v>0.4433787424841809</v>
       </c>
       <c r="F391">
         <v>-1</v>
       </c>
       <c r="G391">
-        <v>0.003819118537119308</v>
+        <v>0.003966621257515819</v>
       </c>
       <c r="H391">
-        <v>0.003689188290086492</v>
+        <v>0.00383662125751582</v>
       </c>
       <c r="I391">
-        <v>0.1100697529671839</v>
+        <v>0.1299999999999999</v>
       </c>
       <c r="J391">
-        <v>0.9930247032816077</v>
+        <v>1.087577729176807</v>
       </c>
       <c r="K391">
         <v>1.56</v>
@@ -21130,16 +21112,16 @@
         <v>2.27</v>
       </c>
       <c r="M391">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="N391">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="O391">
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>85</v>
+        <v>397</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -21147,49 +21129,49 @@
         <v>0</v>
       </c>
       <c r="B392" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C392">
-        <v>0.5733787424841807</v>
+        <v>2.36240774237655</v>
       </c>
       <c r="D392" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E392">
-        <v>0.4433787424841809</v>
+        <v>2.27665650681517</v>
       </c>
       <c r="F392">
         <v>-1</v>
       </c>
       <c r="G392">
-        <v>0.003966621257515819</v>
+        <v>0.00205759225762345</v>
       </c>
       <c r="H392">
-        <v>0.00383662125751582</v>
+        <v>0.00198334349318483</v>
       </c>
       <c r="I392">
-        <v>0.1299999999999999</v>
+        <v>0.08575123556137942</v>
       </c>
       <c r="J392">
-        <v>1.087577729176807</v>
+        <v>-0.0958539260229872</v>
       </c>
       <c r="K392">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="L392">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="M392">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="N392">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="O392">
         <v>1</v>
       </c>
       <c r="P392" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -21200,446 +21182,46 @@
         <v>87</v>
       </c>
       <c r="C393">
-        <v>0.3950581391640484</v>
+        <v>2.526368817680956</v>
       </c>
       <c r="D393" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E393">
-        <v>0.3831081968886161</v>
+        <v>2.420450889747324</v>
       </c>
       <c r="F393">
         <v>-1</v>
       </c>
       <c r="G393">
-        <v>0.003764941860835952</v>
+        <v>0.001893631182319044</v>
       </c>
       <c r="H393">
-        <v>0.003776891803111384</v>
+        <v>0.001819549110252677</v>
       </c>
       <c r="I393">
-        <v>0.01194994227543233</v>
+        <v>0.1059179279336329</v>
       </c>
       <c r="J393">
-        <v>1.194994227543228</v>
+        <v>-0.1989740991704129</v>
       </c>
       <c r="K393">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="L393">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="M393">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="N393">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O393">
         <v>1</v>
       </c>
       <c r="P393" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16">
-      <c r="A394" s="1">
-        <v>0</v>
-      </c>
-      <c r="B394" t="s">
-        <v>88</v>
-      </c>
-      <c r="C394">
-        <v>0.3938129095923706</v>
-      </c>
-      <c r="D394" t="s">
-        <v>221</v>
-      </c>
-      <c r="E394">
-        <v>0.3857442878469695</v>
-      </c>
-      <c r="F394">
-        <v>-1</v>
-      </c>
-      <c r="G394">
-        <v>0.003806187090407629</v>
-      </c>
-      <c r="H394">
-        <v>0.003774255712153031</v>
-      </c>
-      <c r="I394">
-        <v>0.008068621745401128</v>
-      </c>
-      <c r="J394">
-        <v>1.193137825459881</v>
-      </c>
-      <c r="K394">
-        <v>1.43</v>
-      </c>
-      <c r="L394">
-        <v>2.1</v>
-      </c>
-      <c r="M394">
-        <v>1.42</v>
-      </c>
-      <c r="N394">
-        <v>2.08</v>
-      </c>
-      <c r="O394">
-        <v>1</v>
-      </c>
-      <c r="P394" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="395" spans="1:16">
-      <c r="A395" s="1">
-        <v>1</v>
-      </c>
-      <c r="B395" t="s">
-        <v>87</v>
-      </c>
-      <c r="C395">
-        <v>0.3976756661015683</v>
-      </c>
-      <c r="D395" t="s">
-        <v>221</v>
-      </c>
-      <c r="E395">
-        <v>0.3857442878469695</v>
-      </c>
-      <c r="F395">
-        <v>-1</v>
-      </c>
-      <c r="G395">
-        <v>0.003762324333898432</v>
-      </c>
-      <c r="H395">
-        <v>0.003774255712153031</v>
-      </c>
-      <c r="I395">
-        <v>0.01193137825459889</v>
-      </c>
-      <c r="J395">
-        <v>1.193137825459881</v>
-      </c>
-      <c r="K395">
-        <v>1.41</v>
-      </c>
-      <c r="L395">
-        <v>2.08</v>
-      </c>
-      <c r="M395">
-        <v>1.42</v>
-      </c>
-      <c r="N395">
-        <v>2.08</v>
-      </c>
-      <c r="O395">
-        <v>1</v>
-      </c>
-      <c r="P395" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="396" spans="1:16">
-      <c r="A396" s="1">
-        <v>0</v>
-      </c>
-      <c r="B396" t="s">
-        <v>88</v>
-      </c>
-      <c r="C396">
-        <v>0.3989147541813227</v>
-      </c>
-      <c r="D396" t="s">
-        <v>221</v>
-      </c>
-      <c r="E396">
-        <v>0.3908104552010336</v>
-      </c>
-      <c r="F396">
-        <v>-1</v>
-      </c>
-      <c r="G396">
-        <v>0.003801085245818678</v>
-      </c>
-      <c r="H396">
-        <v>0.003769189544798967</v>
-      </c>
-      <c r="I396">
-        <v>0.008104298980289082</v>
-      </c>
-      <c r="J396">
-        <v>1.189570101971103</v>
-      </c>
-      <c r="K396">
-        <v>1.43</v>
-      </c>
-      <c r="L396">
-        <v>2.1</v>
-      </c>
-      <c r="M396">
-        <v>1.42</v>
-      </c>
-      <c r="N396">
-        <v>2.08</v>
-      </c>
-      <c r="O396">
-        <v>1</v>
-      </c>
-      <c r="P396" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="397" spans="1:16">
-      <c r="A397" s="1">
-        <v>1</v>
-      </c>
-      <c r="B397" t="s">
-        <v>87</v>
-      </c>
-      <c r="C397">
-        <v>0.4027061562207448</v>
-      </c>
-      <c r="D397" t="s">
-        <v>221</v>
-      </c>
-      <c r="E397">
-        <v>0.3908104552010336</v>
-      </c>
-      <c r="F397">
-        <v>-1</v>
-      </c>
-      <c r="G397">
-        <v>0.003757293843779255</v>
-      </c>
-      <c r="H397">
-        <v>0.003769189544798967</v>
-      </c>
-      <c r="I397">
-        <v>0.01189570101971116</v>
-      </c>
-      <c r="J397">
-        <v>1.189570101971103</v>
-      </c>
-      <c r="K397">
-        <v>1.41</v>
-      </c>
-      <c r="L397">
-        <v>2.08</v>
-      </c>
-      <c r="M397">
-        <v>1.42</v>
-      </c>
-      <c r="N397">
-        <v>2.08</v>
-      </c>
-      <c r="O397">
-        <v>1</v>
-      </c>
-      <c r="P397" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="398" spans="1:16">
-      <c r="A398" s="1">
-        <v>0</v>
-      </c>
-      <c r="B398" t="s">
-        <v>88</v>
-      </c>
-      <c r="C398">
-        <v>0.3948100767438436</v>
-      </c>
-      <c r="D398" t="s">
-        <v>221</v>
-      </c>
-      <c r="E398">
-        <v>0.386734481801579</v>
-      </c>
-      <c r="F398">
-        <v>-1</v>
-      </c>
-      <c r="G398">
-        <v>0.003805189923256156</v>
-      </c>
-      <c r="H398">
-        <v>0.003773265518198421</v>
-      </c>
-      <c r="I398">
-        <v>0.008075594942264619</v>
-      </c>
-      <c r="J398">
-        <v>1.192440505773536</v>
-      </c>
-      <c r="K398">
-        <v>1.43</v>
-      </c>
-      <c r="L398">
-        <v>2.1</v>
-      </c>
-      <c r="M398">
-        <v>1.42</v>
-      </c>
-      <c r="N398">
-        <v>2.08</v>
-      </c>
-      <c r="O398">
-        <v>1</v>
-      </c>
-      <c r="P398" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="399" spans="1:16">
-      <c r="A399" s="1">
-        <v>1</v>
-      </c>
-      <c r="B399" t="s">
-        <v>87</v>
-      </c>
-      <c r="C399">
-        <v>0.3986588868593142</v>
-      </c>
-      <c r="D399" t="s">
-        <v>221</v>
-      </c>
-      <c r="E399">
-        <v>0.386734481801579</v>
-      </c>
-      <c r="F399">
-        <v>-1</v>
-      </c>
-      <c r="G399">
-        <v>0.003761341113140686</v>
-      </c>
-      <c r="H399">
-        <v>0.003773265518198421</v>
-      </c>
-      <c r="I399">
-        <v>0.01192440505773518</v>
-      </c>
-      <c r="J399">
-        <v>1.192440505773536</v>
-      </c>
-      <c r="K399">
-        <v>1.41</v>
-      </c>
-      <c r="L399">
-        <v>2.08</v>
-      </c>
-      <c r="M399">
-        <v>1.42</v>
-      </c>
-      <c r="N399">
-        <v>2.08</v>
-      </c>
-      <c r="O399">
-        <v>1</v>
-      </c>
-      <c r="P399" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16">
-      <c r="A400" s="1">
-        <v>0</v>
-      </c>
-      <c r="B400" t="s">
-        <v>89</v>
-      </c>
-      <c r="C400">
-        <v>2.36240774237655</v>
-      </c>
-      <c r="D400" t="s">
-        <v>222</v>
-      </c>
-      <c r="E400">
-        <v>2.27665650681517</v>
-      </c>
-      <c r="F400">
-        <v>-1</v>
-      </c>
-      <c r="G400">
-        <v>0.00205759225762345</v>
-      </c>
-      <c r="H400">
-        <v>0.00198334349318483</v>
-      </c>
-      <c r="I400">
-        <v>0.08575123556137942</v>
-      </c>
-      <c r="J400">
-        <v>-0.0958539260229872</v>
-      </c>
-      <c r="K400">
-        <v>1.59</v>
-      </c>
-      <c r="L400">
-        <v>2.21</v>
-      </c>
-      <c r="M400">
-        <v>1.53</v>
-      </c>
-      <c r="N400">
-        <v>2.13</v>
-      </c>
-      <c r="O400">
-        <v>1</v>
-      </c>
-      <c r="P400" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="401" spans="1:16">
-      <c r="A401" s="1">
-        <v>0</v>
-      </c>
-      <c r="B401" t="s">
-        <v>89</v>
-      </c>
-      <c r="C401">
-        <v>2.526368817680956</v>
-      </c>
-      <c r="D401" t="s">
-        <v>223</v>
-      </c>
-      <c r="E401">
-        <v>2.420450889747324</v>
-      </c>
-      <c r="F401">
-        <v>-1</v>
-      </c>
-      <c r="G401">
-        <v>0.001893631182319044</v>
-      </c>
-      <c r="H401">
-        <v>0.001819549110252677</v>
-      </c>
-      <c r="I401">
-        <v>0.1059179279336329</v>
-      </c>
-      <c r="J401">
-        <v>-0.1989740991704129</v>
-      </c>
-      <c r="K401">
-        <v>1.59</v>
-      </c>
-      <c r="L401">
-        <v>2.21</v>
-      </c>
-      <c r="M401">
-        <v>1.51</v>
-      </c>
-      <c r="N401">
-        <v>2.12</v>
-      </c>
-      <c r="O401">
-        <v>1</v>
-      </c>
-      <c r="P401" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-00525-601333.xlsx
+++ b/s60_signal/position-00525-601333.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="399">
   <si>
     <t>trade_time</t>
   </si>
@@ -274,7 +274,7 @@
     <t>2021-04-09</t>
   </si>
   <si>
-    <t>2021-04-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2021-06-11</t>
@@ -670,10 +670,7 @@
     <t>2021-04-26</t>
   </si>
   <si>
-    <t>2021-04-28</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
+    <t>2021-07-19</t>
   </si>
   <si>
     <t>2021-06-30</t>
@@ -1207,7 +1204,7 @@
     <t>2021-04-08</t>
   </si>
   <si>
-    <t>2021-04-14</t>
+    <t>2021-04-27</t>
   </si>
   <si>
     <t>2021-06-03</t>
@@ -1571,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P393"/>
+  <dimension ref="A1:P392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1671,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1721,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1771,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1821,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1871,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1921,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1971,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2021,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2071,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2121,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2171,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2221,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2271,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2321,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2371,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2421,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2471,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2521,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2571,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2621,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2671,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2721,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2771,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2821,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2871,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2921,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2971,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3021,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3071,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3121,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3171,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3221,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3271,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3321,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3371,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3421,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3471,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3521,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3571,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3621,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3671,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3721,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3771,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3821,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3871,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3921,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3971,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4021,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4071,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4121,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4171,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4221,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4271,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4321,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4371,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4421,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4471,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4521,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4571,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4621,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4671,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4721,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4771,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4821,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4871,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4921,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4971,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5021,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5071,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5121,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5171,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5221,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5271,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5321,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5371,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5421,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5471,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5521,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5571,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5621,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5671,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5721,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5771,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5821,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5871,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5921,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5971,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6021,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6071,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6121,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6171,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6271,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6321,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6371,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6421,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6471,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6521,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6571,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6621,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6671,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6721,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6771,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6821,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6871,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6921,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6971,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7021,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7071,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7121,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="P111" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7171,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7221,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7271,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7321,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7371,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7421,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7471,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7521,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7571,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7621,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7671,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7721,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7771,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7821,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7871,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7921,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7971,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8021,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8071,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8121,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8171,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8671,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8821,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8921,7 +8918,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8971,7 +8968,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9021,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9071,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9121,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9171,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9221,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9271,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9321,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9371,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9421,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9471,7 +9468,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9521,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9571,7 +9568,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9621,7 +9618,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9671,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9721,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9771,7 +9768,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9821,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9871,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9921,7 +9918,7 @@
         <v>1</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9971,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10021,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10071,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10121,7 +10118,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10221,7 +10218,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10271,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10371,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10421,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10471,7 +10468,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10521,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10571,7 +10568,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10621,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10671,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10721,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10771,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10821,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10871,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10971,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11021,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11071,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11121,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11171,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11221,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11271,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11321,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11371,7 +11368,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11421,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11471,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11521,7 +11518,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11571,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11621,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11671,7 +11668,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11721,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11771,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11821,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11871,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11921,7 +11918,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11971,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -12021,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -12071,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12121,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12171,7 +12168,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12221,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12271,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12321,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12371,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12421,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12471,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12521,7 +12518,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12571,7 +12568,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12621,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12671,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12721,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12771,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12821,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="P225" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12871,7 +12868,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12921,7 +12918,7 @@
         <v>1</v>
       </c>
       <c r="P227" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12971,7 +12968,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13021,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13071,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13121,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13171,7 +13168,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13221,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13271,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13321,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13371,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13421,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="P237" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13471,7 +13468,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13521,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="P239" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -13571,7 +13568,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -13621,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="P241" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -13671,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13721,7 +13718,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13771,7 +13768,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13821,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13871,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13921,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13971,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14021,7 +14018,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14071,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14121,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14171,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14221,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14271,7 +14268,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14321,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14371,7 +14368,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14421,7 +14418,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14471,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14521,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14571,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="P260" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -14621,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="P261" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14671,7 +14668,7 @@
         <v>1</v>
       </c>
       <c r="P262" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -14721,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="P263" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -14821,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14871,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14921,7 +14918,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -14971,7 +14968,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15021,7 +15018,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15071,7 +15068,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15121,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15171,7 +15168,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15221,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15271,7 +15268,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15321,7 +15318,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15371,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15421,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15471,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15521,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15571,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15621,7 +15618,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15671,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15721,7 +15718,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15771,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15821,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15871,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -15921,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -15971,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -16021,7 +16018,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16071,7 +16068,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16121,7 +16118,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16171,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16221,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16271,7 +16268,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16321,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16371,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16421,7 +16418,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16471,7 +16468,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16521,7 +16518,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16571,7 +16568,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16621,7 +16618,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16671,7 +16668,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16721,7 +16718,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -16771,7 +16768,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16821,7 +16818,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16871,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16921,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16971,7 +16968,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -17021,7 +17018,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -17071,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -17121,7 +17118,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17171,7 +17168,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17221,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17271,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17321,7 +17318,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17371,7 +17368,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17421,7 +17418,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17471,7 +17468,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17521,7 +17518,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17571,7 +17568,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17621,7 +17618,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17671,7 +17668,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17721,7 +17718,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17771,7 +17768,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17821,7 +17818,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17871,7 +17868,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17921,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17971,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18021,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18071,7 +18068,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18121,7 +18118,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18171,7 +18168,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18221,7 +18218,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18271,7 +18268,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18321,7 +18318,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18371,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18421,7 +18418,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18621,7 +18618,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18671,7 +18668,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18721,7 +18718,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18771,7 +18768,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -18821,7 +18818,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -19071,7 +19068,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19121,7 +19118,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -19171,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="P352" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="353" spans="1:16">
@@ -19271,7 +19268,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="355" spans="1:16">
@@ -19321,7 +19318,7 @@
         <v>1</v>
       </c>
       <c r="P355" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="356" spans="1:16">
@@ -19371,7 +19368,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19421,7 +19418,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19571,7 +19568,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19621,7 +19618,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19671,7 +19668,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19771,7 +19768,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19821,7 +19818,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19871,7 +19868,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19921,7 +19918,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19971,7 +19968,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20021,7 +20018,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20071,7 +20068,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20121,7 +20118,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20171,7 +20168,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20221,7 +20218,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20271,7 +20268,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20321,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20421,7 +20418,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20471,7 +20468,7 @@
         <v>1</v>
       </c>
       <c r="P378" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="379" spans="1:16">
@@ -20521,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="P379" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="380" spans="1:16">
@@ -20571,7 +20568,7 @@
         <v>1</v>
       </c>
       <c r="P380" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -20621,7 +20618,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20671,7 +20668,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -20721,7 +20718,7 @@
         <v>1</v>
       </c>
       <c r="P383" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -20771,7 +20768,7 @@
         <v>1</v>
       </c>
       <c r="P384" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="385" spans="1:16">
@@ -20821,7 +20818,7 @@
         <v>1</v>
       </c>
       <c r="P385" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="386" spans="1:16">
@@ -20971,7 +20968,7 @@
         <v>1</v>
       </c>
       <c r="P388" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -21021,51 +21018,51 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="390" spans="1:16">
       <c r="A390" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B390" t="s">
         <v>86</v>
       </c>
       <c r="C390">
-        <v>0.8000000000000016</v>
+        <v>0.4057442878469695</v>
       </c>
       <c r="D390" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E390">
-        <v>0.6894230769230785</v>
+        <v>0.4196070443561668</v>
       </c>
       <c r="F390">
         <v>-1</v>
       </c>
       <c r="G390">
-        <v>0.003739999999999999</v>
+        <v>0.00379425571215303</v>
       </c>
       <c r="H390">
-        <v>0.003610576923076922</v>
+        <v>0.003760392955643833</v>
       </c>
       <c r="I390">
-        <v>0.1105769230769231</v>
+        <v>-0.01386275650919733</v>
       </c>
       <c r="J390">
-        <v>0.9423076923076913</v>
+        <v>1.193137825459881</v>
       </c>
       <c r="K390">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="L390">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="M390">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="N390">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="O390">
         <v>1</v>
@@ -21079,43 +21076,43 @@
         <v>0</v>
       </c>
       <c r="B391" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C391">
-        <v>0.5733787424841807</v>
+        <v>2.36240774237655</v>
       </c>
       <c r="D391" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E391">
-        <v>0.4433787424841809</v>
+        <v>2.264739428294711</v>
       </c>
       <c r="F391">
         <v>-1</v>
       </c>
       <c r="G391">
-        <v>0.003966621257515819</v>
+        <v>0.00205759225762345</v>
       </c>
       <c r="H391">
-        <v>0.00383662125751582</v>
+        <v>0.001975260571705289</v>
       </c>
       <c r="I391">
-        <v>0.1299999999999999</v>
+        <v>0.09766831408183885</v>
       </c>
       <c r="J391">
-        <v>1.087577729176807</v>
+        <v>-0.0958539260229872</v>
       </c>
       <c r="K391">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="L391">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="M391">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="N391">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O391">
         <v>1</v>
@@ -21132,28 +21129,28 @@
         <v>87</v>
       </c>
       <c r="C392">
-        <v>2.36240774237655</v>
+        <v>2.526368817680956</v>
       </c>
       <c r="D392" t="s">
         <v>219</v>
       </c>
       <c r="E392">
-        <v>2.27665650681517</v>
+        <v>2.420450889747324</v>
       </c>
       <c r="F392">
         <v>-1</v>
       </c>
       <c r="G392">
-        <v>0.00205759225762345</v>
+        <v>0.001893631182319044</v>
       </c>
       <c r="H392">
-        <v>0.00198334349318483</v>
+        <v>0.001819549110252677</v>
       </c>
       <c r="I392">
-        <v>0.08575123556137942</v>
+        <v>0.1059179279336329</v>
       </c>
       <c r="J392">
-        <v>-0.0958539260229872</v>
+        <v>-0.1989740991704129</v>
       </c>
       <c r="K392">
         <v>1.59</v>
@@ -21162,66 +21159,16 @@
         <v>2.21</v>
       </c>
       <c r="M392">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="N392">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="O392">
         <v>1</v>
       </c>
       <c r="P392" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="393" spans="1:16">
-      <c r="A393" s="1">
-        <v>0</v>
-      </c>
-      <c r="B393" t="s">
-        <v>87</v>
-      </c>
-      <c r="C393">
-        <v>2.526368817680956</v>
-      </c>
-      <c r="D393" t="s">
-        <v>220</v>
-      </c>
-      <c r="E393">
-        <v>2.420450889747324</v>
-      </c>
-      <c r="F393">
-        <v>-1</v>
-      </c>
-      <c r="G393">
-        <v>0.001893631182319044</v>
-      </c>
-      <c r="H393">
-        <v>0.001819549110252677</v>
-      </c>
-      <c r="I393">
-        <v>0.1059179279336329</v>
-      </c>
-      <c r="J393">
-        <v>-0.1989740991704129</v>
-      </c>
-      <c r="K393">
-        <v>1.59</v>
-      </c>
-      <c r="L393">
-        <v>2.21</v>
-      </c>
-      <c r="M393">
-        <v>1.51</v>
-      </c>
-      <c r="N393">
-        <v>2.12</v>
-      </c>
-      <c r="O393">
-        <v>1</v>
-      </c>
-      <c r="P393" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-00525-601333.xlsx
+++ b/s60_signal/position-00525-601333.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="403">
   <si>
     <t>trade_time</t>
   </si>
@@ -274,7 +274,7 @@
     <t>2021-04-09</t>
   </si>
   <si>
-    <t>2021-07-16</t>
+    <t>2021-07-19</t>
   </si>
   <si>
     <t>2021-06-11</t>
@@ -670,7 +670,7 @@
     <t>2021-04-26</t>
   </si>
   <si>
-    <t>2021-07-19</t>
+    <t>2021-07-20</t>
   </si>
   <si>
     <t>2021-06-30</t>
@@ -1204,7 +1204,19 @@
     <t>2021-04-08</t>
   </si>
   <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
     <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
   </si>
   <si>
     <t>2021-06-03</t>
@@ -1568,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P392"/>
+  <dimension ref="A1:P396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21029,37 +21041,37 @@
         <v>86</v>
       </c>
       <c r="C390">
-        <v>0.4057442878469695</v>
+        <v>0.4705873043784086</v>
       </c>
       <c r="D390" t="s">
         <v>218</v>
       </c>
       <c r="E390">
-        <v>0.4196070443561668</v>
+        <v>0.493721771458717</v>
       </c>
       <c r="F390">
         <v>-1</v>
       </c>
       <c r="G390">
-        <v>0.00379425571215303</v>
+        <v>0.003709412695621591</v>
       </c>
       <c r="H390">
-        <v>0.003760392955643833</v>
+        <v>0.003686278228541283</v>
       </c>
       <c r="I390">
-        <v>-0.01386275650919733</v>
+        <v>-0.02313446708030842</v>
       </c>
       <c r="J390">
-        <v>1.193137825459881</v>
+        <v>1.156723354015422</v>
       </c>
       <c r="K390">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="L390">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="M390">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="N390">
         <v>2.09</v>
@@ -21076,43 +21088,43 @@
         <v>0</v>
       </c>
       <c r="B391" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C391">
-        <v>2.36240774237655</v>
+        <v>0.4170080814394805</v>
       </c>
       <c r="D391" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E391">
-        <v>2.264739428294711</v>
+        <v>0.4409079659903452</v>
       </c>
       <c r="F391">
         <v>-1</v>
       </c>
       <c r="G391">
-        <v>0.00205759225762345</v>
+        <v>0.003762991918560519</v>
       </c>
       <c r="H391">
-        <v>0.001975260571705289</v>
+        <v>0.003739092034009655</v>
       </c>
       <c r="I391">
-        <v>0.09766831408183885</v>
+        <v>-0.02389988455086467</v>
       </c>
       <c r="J391">
-        <v>-0.0958539260229872</v>
+        <v>1.194994227543228</v>
       </c>
       <c r="K391">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="L391">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="M391">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="N391">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="O391">
         <v>1</v>
@@ -21126,49 +21138,249 @@
         <v>0</v>
       </c>
       <c r="B392" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C392">
-        <v>2.526368817680956</v>
+        <v>0.4196070443561668</v>
       </c>
       <c r="D392" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E392">
-        <v>2.420450889747324</v>
+        <v>0.4434698008653646</v>
       </c>
       <c r="F392">
         <v>-1</v>
       </c>
       <c r="G392">
-        <v>0.001893631182319044</v>
+        <v>0.003760392955643833</v>
       </c>
       <c r="H392">
-        <v>0.001819549110252677</v>
+        <v>0.003736530199134635</v>
       </c>
       <c r="I392">
-        <v>0.1059179279336329</v>
+        <v>-0.02386275650919778</v>
       </c>
       <c r="J392">
-        <v>-0.1989740991704129</v>
+        <v>1.193137825459881</v>
       </c>
       <c r="K392">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="L392">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="M392">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="N392">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="O392">
         <v>1</v>
       </c>
       <c r="P392" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16">
+      <c r="A393" s="1">
+        <v>0</v>
+      </c>
+      <c r="B393" t="s">
+        <v>86</v>
+      </c>
+      <c r="C393">
+        <v>0.4246018572404555</v>
+      </c>
+      <c r="D393" t="s">
+        <v>218</v>
+      </c>
+      <c r="E393">
+        <v>0.4483932592798776</v>
+      </c>
+      <c r="F393">
+        <v>-1</v>
+      </c>
+      <c r="G393">
+        <v>0.003755398142759544</v>
+      </c>
+      <c r="H393">
+        <v>0.003731606740720122</v>
+      </c>
+      <c r="I393">
+        <v>-0.02379140203942209</v>
+      </c>
+      <c r="J393">
+        <v>1.189570101971103</v>
+      </c>
+      <c r="K393">
+        <v>1.4</v>
+      </c>
+      <c r="L393">
+        <v>2.09</v>
+      </c>
+      <c r="M393">
+        <v>1.38</v>
+      </c>
+      <c r="N393">
+        <v>2.09</v>
+      </c>
+      <c r="O393">
+        <v>1</v>
+      </c>
+      <c r="P393" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16">
+      <c r="A394" s="1">
+        <v>0</v>
+      </c>
+      <c r="B394" t="s">
+        <v>86</v>
+      </c>
+      <c r="C394">
+        <v>0.4205832919170494</v>
+      </c>
+      <c r="D394" t="s">
+        <v>218</v>
+      </c>
+      <c r="E394">
+        <v>0.4444321020325201</v>
+      </c>
+      <c r="F394">
+        <v>-1</v>
+      </c>
+      <c r="G394">
+        <v>0.003759416708082951</v>
+      </c>
+      <c r="H394">
+        <v>0.00373556789796748</v>
+      </c>
+      <c r="I394">
+        <v>-0.0238488101154708</v>
+      </c>
+      <c r="J394">
+        <v>1.192440505773536</v>
+      </c>
+      <c r="K394">
+        <v>1.4</v>
+      </c>
+      <c r="L394">
+        <v>2.09</v>
+      </c>
+      <c r="M394">
+        <v>1.38</v>
+      </c>
+      <c r="N394">
+        <v>2.09</v>
+      </c>
+      <c r="O394">
+        <v>1</v>
+      </c>
+      <c r="P394" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16">
+      <c r="A395" s="1">
+        <v>0</v>
+      </c>
+      <c r="B395" t="s">
+        <v>87</v>
+      </c>
+      <c r="C395">
+        <v>2.36240774237655</v>
+      </c>
+      <c r="D395" t="s">
+        <v>219</v>
+      </c>
+      <c r="E395">
+        <v>2.264739428294711</v>
+      </c>
+      <c r="F395">
+        <v>-1</v>
+      </c>
+      <c r="G395">
+        <v>0.00205759225762345</v>
+      </c>
+      <c r="H395">
+        <v>0.001975260571705289</v>
+      </c>
+      <c r="I395">
+        <v>0.09766831408183885</v>
+      </c>
+      <c r="J395">
+        <v>-0.0958539260229872</v>
+      </c>
+      <c r="K395">
+        <v>1.59</v>
+      </c>
+      <c r="L395">
+        <v>2.21</v>
+      </c>
+      <c r="M395">
+        <v>1.51</v>
+      </c>
+      <c r="N395">
+        <v>2.12</v>
+      </c>
+      <c r="O395">
+        <v>1</v>
+      </c>
+      <c r="P395" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16">
+      <c r="A396" s="1">
+        <v>0</v>
+      </c>
+      <c r="B396" t="s">
+        <v>87</v>
+      </c>
+      <c r="C396">
+        <v>2.526368817680956</v>
+      </c>
+      <c r="D396" t="s">
+        <v>219</v>
+      </c>
+      <c r="E396">
+        <v>2.420450889747324</v>
+      </c>
+      <c r="F396">
+        <v>-1</v>
+      </c>
+      <c r="G396">
+        <v>0.001893631182319044</v>
+      </c>
+      <c r="H396">
+        <v>0.001819549110252677</v>
+      </c>
+      <c r="I396">
+        <v>0.1059179279336329</v>
+      </c>
+      <c r="J396">
+        <v>-0.1989740991704129</v>
+      </c>
+      <c r="K396">
+        <v>1.59</v>
+      </c>
+      <c r="L396">
+        <v>2.21</v>
+      </c>
+      <c r="M396">
+        <v>1.51</v>
+      </c>
+      <c r="N396">
+        <v>2.12</v>
+      </c>
+      <c r="O396">
+        <v>1</v>
+      </c>
+      <c r="P396" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
